--- a/Coffee_Sales/data/coffeeOrdersData.xlsx
+++ b/Coffee_Sales/data/coffeeOrdersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Coffee_Sales\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A078DB4-46CE-4787-A5F6-EBF7BB52776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F676BAB-6BCE-41C8-85FD-E8EDE64B56AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18995,7 +18995,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G2" sqref="G2:G1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19077,7 +19077,7 @@
         <v>Aloisia Allner</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C2,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C2,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C2,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aallner0@lulu.com</v>
       </c>
       <c r="H2" s="2"/>
@@ -19103,7 +19103,7 @@
         <v>Aloisia Allner</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C3,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C3,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C3,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aallner0@lulu.com</v>
       </c>
       <c r="H3" s="2"/>
@@ -19129,7 +19129,7 @@
         <v>Jami Redholes</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C4,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C4,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C4,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jredholes2@tmall.com</v>
       </c>
       <c r="H4" s="2"/>
@@ -19154,9 +19154,9 @@
         <f>_xlfn.XLOOKUP(C5,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Christoffer O' Shea</v>
       </c>
-      <c r="G5" s="2">
-        <f>_xlfn.XLOOKUP(C5,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G5" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C5,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C5,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -19180,9 +19180,9 @@
         <f>_xlfn.XLOOKUP(C6,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Christoffer O' Shea</v>
       </c>
-      <c r="G6" s="2">
-        <f>_xlfn.XLOOKUP(C6,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G6" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C6,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C6,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -19206,9 +19206,9 @@
         <f>_xlfn.XLOOKUP(C7,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Beryle Cottier</v>
       </c>
-      <c r="G7" s="2">
-        <f>_xlfn.XLOOKUP(C7,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G7" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C7,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C7,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -19233,7 +19233,7 @@
         <v>Shaylynn Lobe</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C8,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C8,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C8,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>slobe6@nifty.com</v>
       </c>
       <c r="H8" s="2"/>
@@ -19258,9 +19258,9 @@
         <f>_xlfn.XLOOKUP(C9,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Melvin Wharfe</v>
       </c>
-      <c r="G9" s="2">
-        <f>_xlfn.XLOOKUP(C9,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G9" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C9,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C9,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -19285,7 +19285,7 @@
         <v>Guthrey Petracci</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C10,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C10,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C10,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gpetracci8@livejournal.com</v>
       </c>
       <c r="H10" s="2"/>
@@ -19311,7 +19311,7 @@
         <v>Rodger Raven</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C11,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C11,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C11,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rraven9@ed.gov</v>
       </c>
       <c r="H11" s="2"/>
@@ -19337,7 +19337,7 @@
         <v>Ferrell Ferber</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C12,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C12,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C12,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fferbera@businesswire.com</v>
       </c>
       <c r="H12" s="2"/>
@@ -19363,7 +19363,7 @@
         <v>Duky Phizackerly</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C13,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C13,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C13,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dphizackerlyb@utexas.edu</v>
       </c>
       <c r="H13" s="2"/>
@@ -19389,7 +19389,7 @@
         <v>Rosaleen Scholar</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C14,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C14,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C14,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rscholarc@nyu.edu</v>
       </c>
       <c r="H14" s="2"/>
@@ -19415,7 +19415,7 @@
         <v>Terence Vanyutin</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C15,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C15,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C15,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tvanyutind@wix.com</v>
       </c>
       <c r="H15" s="2"/>
@@ -19441,7 +19441,7 @@
         <v>Patrice Trobe</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C16,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C16,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C16,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ptrobee@wunderground.com</v>
       </c>
       <c r="H16" s="2"/>
@@ -19467,7 +19467,7 @@
         <v>Llywellyn Oscroft</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C17,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C17,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C17,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>loscroftf@ebay.co.uk</v>
       </c>
       <c r="H17" s="2"/>
@@ -19493,7 +19493,7 @@
         <v>Minni Alabaster</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C18,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C18,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C18,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>malabasterg@hexun.com</v>
       </c>
       <c r="H18" s="2"/>
@@ -19519,7 +19519,7 @@
         <v>Rhianon Broxup</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C19,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C19,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C19,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rbroxuph@jimdo.com</v>
       </c>
       <c r="H19" s="2"/>
@@ -19545,7 +19545,7 @@
         <v>Pall Redford</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C20,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C20,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C20,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>predfordi@ow.ly</v>
       </c>
       <c r="H20" s="2"/>
@@ -19571,7 +19571,7 @@
         <v>Aurea Corradino</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C21,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C21,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C21,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>acorradinoj@harvard.edu</v>
       </c>
       <c r="H21" s="2"/>
@@ -19597,7 +19597,7 @@
         <v>Aurea Corradino</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C22,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C22,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C22,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>acorradinoj@harvard.edu</v>
       </c>
       <c r="H22" s="2"/>
@@ -19623,7 +19623,7 @@
         <v>Avrit Davidowsky</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C23,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C23,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C23,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>adavidowskyl@netvibes.com</v>
       </c>
       <c r="H23" s="2"/>
@@ -19649,7 +19649,7 @@
         <v>Annabel Antuk</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C24,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C24,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C24,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aantukm@kickstarter.com</v>
       </c>
       <c r="H24" s="2"/>
@@ -19675,7 +19675,7 @@
         <v>Iorgo Kleinert</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C25,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C25,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C25,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ikleinertn@timesonline.co.uk</v>
       </c>
       <c r="H25" s="2"/>
@@ -19701,7 +19701,7 @@
         <v>Chrisy Blofeld</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C26,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C26,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C26,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cblofeldo@amazon.co.uk</v>
       </c>
       <c r="H26" s="2"/>
@@ -19726,9 +19726,9 @@
         <f>_xlfn.XLOOKUP(C27,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Culley Farris</v>
       </c>
-      <c r="G27" s="2">
-        <f>_xlfn.XLOOKUP(C27,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G27" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C27,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C27,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -19753,7 +19753,7 @@
         <v>Selene Shales</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C28,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C28,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C28,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sshalesq@umich.edu</v>
       </c>
       <c r="H28" s="2"/>
@@ -19779,7 +19779,7 @@
         <v>Vivie Danneil</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C29,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C29,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C29,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vdanneilr@mtv.com</v>
       </c>
       <c r="H29" s="2"/>
@@ -19805,7 +19805,7 @@
         <v>Theresita Newbury</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C30,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C30,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C30,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tnewburys@usda.gov</v>
       </c>
       <c r="H30" s="2"/>
@@ -19831,7 +19831,7 @@
         <v>Mozelle Calcutt</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C31,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C31,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C31,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mcalcuttt@baidu.com</v>
       </c>
       <c r="H31" s="2"/>
@@ -19856,9 +19856,9 @@
         <f>_xlfn.XLOOKUP(C32,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Adrian Swaine</v>
       </c>
-      <c r="G32" s="2">
-        <f>_xlfn.XLOOKUP(C32,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G32" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C32,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C32,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -19882,9 +19882,9 @@
         <f>_xlfn.XLOOKUP(C33,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Adrian Swaine</v>
       </c>
-      <c r="G33" s="2">
-        <f>_xlfn.XLOOKUP(C33,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G33" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C33,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C33,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -19908,9 +19908,9 @@
         <f>_xlfn.XLOOKUP(C34,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Adrian Swaine</v>
       </c>
-      <c r="G34" s="2">
-        <f>_xlfn.XLOOKUP(C34,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G34" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C34,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C34,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -19935,7 +19935,7 @@
         <v>Gallard Gatheral</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C35,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C35,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C35,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ggatheralx@123-reg.co.uk</v>
       </c>
       <c r="H35" s="2"/>
@@ -19961,7 +19961,7 @@
         <v>Una Welberry</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C36,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C36,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C36,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>uwelberryy@ebay.co.uk</v>
       </c>
       <c r="H36" s="2"/>
@@ -19987,7 +19987,7 @@
         <v>Faber Eilhart</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C37,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C37,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C37,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>feilhartz@who.int</v>
       </c>
       <c r="H37" s="2"/>
@@ -20013,7 +20013,7 @@
         <v>Zorina Ponting</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C38,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C38,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C38,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>zponting10@altervista.org</v>
       </c>
       <c r="H38" s="2"/>
@@ -20039,7 +20039,7 @@
         <v>Silvio Strase</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C39,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C39,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C39,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sstrase11@booking.com</v>
       </c>
       <c r="H39" s="2"/>
@@ -20065,7 +20065,7 @@
         <v>Dorie de la Tremoille</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C40,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C40,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C40,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dde12@unesco.org</v>
       </c>
       <c r="H40" s="2"/>
@@ -20090,9 +20090,9 @@
         <f>_xlfn.XLOOKUP(C41,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hy Zanetto</v>
       </c>
-      <c r="G41" s="2">
-        <f>_xlfn.XLOOKUP(C41,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G41" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C41,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C41,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -20116,9 +20116,9 @@
         <f>_xlfn.XLOOKUP(C42,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Jessica McNess</v>
       </c>
-      <c r="G42" s="2">
-        <f>_xlfn.XLOOKUP(C42,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G42" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C42,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C42,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -20143,7 +20143,7 @@
         <v>Lorenzo Yeoland</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C43,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C43,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C43,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lyeoland15@pbs.org</v>
       </c>
       <c r="H43" s="2"/>
@@ -20169,7 +20169,7 @@
         <v>Abigail Tolworthy</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C44,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C44,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C44,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>atolworthy16@toplist.cz</v>
       </c>
       <c r="H44" s="2"/>
@@ -20194,9 +20194,9 @@
         <f>_xlfn.XLOOKUP(C45,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Maurie Bartol</v>
       </c>
-      <c r="G45" s="2">
-        <f>_xlfn.XLOOKUP(C45,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G45" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C45,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C45,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -20221,7 +20221,7 @@
         <v>Olag Baudassi</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C46,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C46,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C46,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>obaudassi18@seesaa.net</v>
       </c>
       <c r="H46" s="2"/>
@@ -20247,7 +20247,7 @@
         <v>Petey Kingsbury</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C47,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C47,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C47,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pkingsbury19@comcast.net</v>
       </c>
       <c r="H47" s="2"/>
@@ -20272,9 +20272,9 @@
         <f>_xlfn.XLOOKUP(C48,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Donna Baskeyfied</v>
       </c>
-      <c r="G48" s="2">
-        <f>_xlfn.XLOOKUP(C48,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G48" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C48,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C48,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -20299,7 +20299,7 @@
         <v>Arda Curley</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C49,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C49,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C49,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>acurley1b@hao123.com</v>
       </c>
       <c r="H49" s="2"/>
@@ -20325,7 +20325,7 @@
         <v>Raynor McGilvary</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C50,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C50,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C50,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rmcgilvary1c@tamu.edu</v>
       </c>
       <c r="H50" s="2"/>
@@ -20351,7 +20351,7 @@
         <v>Isis Pikett</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C51,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C51,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C51,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ipikett1d@xinhuanet.com</v>
       </c>
       <c r="H51" s="2"/>
@@ -20377,7 +20377,7 @@
         <v>Inger Bouldon</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C52,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C52,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C52,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ibouldon1e@gizmodo.com</v>
       </c>
       <c r="H52" s="2"/>
@@ -20403,7 +20403,7 @@
         <v>Karry Flanders</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C53,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C53,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C53,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kflanders1f@over-blog.com</v>
       </c>
       <c r="H53" s="2"/>
@@ -20429,7 +20429,7 @@
         <v>Hartley Mattioli</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C54,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C54,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C54,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hmattioli1g@webmd.com</v>
       </c>
       <c r="H54" s="2"/>
@@ -20455,7 +20455,7 @@
         <v>Hartley Mattioli</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C55,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C55,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C55,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hmattioli1g@webmd.com</v>
       </c>
       <c r="H55" s="2"/>
@@ -20481,7 +20481,7 @@
         <v>Archambault Gillard</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C56,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C56,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C56,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>agillard1i@issuu.com</v>
       </c>
       <c r="H56" s="2"/>
@@ -20506,9 +20506,9 @@
         <f>_xlfn.XLOOKUP(C57,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Salomo Cushworth</v>
       </c>
-      <c r="G57" s="2">
-        <f>_xlfn.XLOOKUP(C57,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G57" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C57,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C57,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -20533,7 +20533,7 @@
         <v>Theda Grizard</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C58,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C58,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C58,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tgrizard1k@odnoklassniki.ru</v>
       </c>
       <c r="H58" s="2"/>
@@ -20559,7 +20559,7 @@
         <v>Rozele Relton</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C59,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C59,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C59,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rrelton1l@stanford.edu</v>
       </c>
       <c r="H59" s="2"/>
@@ -20584,9 +20584,9 @@
         <f>_xlfn.XLOOKUP(C60,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Willa Rolling</v>
       </c>
-      <c r="G60" s="2">
-        <f>_xlfn.XLOOKUP(C60,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G60" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C60,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C60,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -20611,7 +20611,7 @@
         <v>Stanislaus Gilroy</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C61,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C61,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C61,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sgilroy1n@eepurl.com</v>
       </c>
       <c r="H61" s="2"/>
@@ -20637,7 +20637,7 @@
         <v>Correy Cottingham</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C62,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C62,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C62,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ccottingham1o@wikipedia.org</v>
       </c>
       <c r="H62" s="2"/>
@@ -20662,9 +20662,9 @@
         <f>_xlfn.XLOOKUP(C63,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Pammi Endacott</v>
       </c>
-      <c r="G63" s="2">
-        <f>_xlfn.XLOOKUP(C63,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G63" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C63,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C63,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H63" s="2"/>
     </row>
@@ -20688,9 +20688,9 @@
         <f>_xlfn.XLOOKUP(C64,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nona Linklater</v>
       </c>
-      <c r="G64" s="2">
-        <f>_xlfn.XLOOKUP(C64,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G64" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C64,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C64,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H64" s="2"/>
     </row>
@@ -20715,7 +20715,7 @@
         <v>Annadiane Dykes</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C65,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C65,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C65,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>adykes1r@eventbrite.com</v>
       </c>
       <c r="H65" s="2"/>
@@ -20740,9 +20740,9 @@
         <f>_xlfn.XLOOKUP(C66,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Felecia Dodgson</v>
       </c>
-      <c r="G66" s="2">
-        <f>_xlfn.XLOOKUP(C66,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G66" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C66,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C66,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H66" s="2"/>
     </row>
@@ -20767,7 +20767,7 @@
         <v>Angelia Cockrem</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C67,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C67,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C67,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>acockrem1t@engadget.com</v>
       </c>
       <c r="H67" s="2"/>
@@ -20793,7 +20793,7 @@
         <v>Belvia Umpleby</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C68,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C68,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C68,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bumpleby1u@soundcloud.com</v>
       </c>
       <c r="H68" s="2"/>
@@ -20819,7 +20819,7 @@
         <v>Nat Saleway</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C69,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C69,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C69,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nsaleway1v@dedecms.com</v>
       </c>
       <c r="H69" s="2"/>
@@ -20845,7 +20845,7 @@
         <v>Hayward Goulter</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C70,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C70,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C70,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hgoulter1w@abc.net.au</v>
       </c>
       <c r="H70" s="2"/>
@@ -20871,7 +20871,7 @@
         <v>Gay Rizzello</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C71,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C71,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C71,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>grizzello1x@symantec.com</v>
       </c>
       <c r="H71" s="2"/>
@@ -20897,7 +20897,7 @@
         <v>Shannon List</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C72,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C72,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C72,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>slist1y@mapquest.com</v>
       </c>
       <c r="H72" s="2"/>
@@ -20923,7 +20923,7 @@
         <v>Shirlene Edmondson</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C73,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C73,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C73,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sedmondson1z@theguardian.com</v>
       </c>
       <c r="H73" s="2"/>
@@ -20948,9 +20948,9 @@
         <f>_xlfn.XLOOKUP(C74,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Aurlie McCarl</v>
       </c>
-      <c r="G74" s="2">
-        <f>_xlfn.XLOOKUP(C74,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G74" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C74,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C74,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H74" s="2"/>
     </row>
@@ -20974,9 +20974,9 @@
         <f>_xlfn.XLOOKUP(C75,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Alikee Carryer</v>
       </c>
-      <c r="G75" s="2">
-        <f>_xlfn.XLOOKUP(C75,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G75" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C75,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C75,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H75" s="2"/>
     </row>
@@ -21001,7 +21001,7 @@
         <v>Jennifer Rangall</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C76,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C76,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C76,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jrangall22@newsvine.com</v>
       </c>
       <c r="H76" s="2"/>
@@ -21027,7 +21027,7 @@
         <v>Kipper Boorn</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C77,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C77,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C77,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kboorn23@ezinearticles.com</v>
       </c>
       <c r="H77" s="2"/>
@@ -21052,9 +21052,9 @@
         <f>_xlfn.XLOOKUP(C78,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Melania Beadle</v>
       </c>
-      <c r="G78" s="2">
-        <f>_xlfn.XLOOKUP(C78,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G78" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C78,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C78,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -21079,7 +21079,7 @@
         <v>Colene Elgey</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C79,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C79,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C79,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>celgey25@webs.com</v>
       </c>
       <c r="H79" s="2"/>
@@ -21105,7 +21105,7 @@
         <v>Lothaire Mizzi</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C80,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C80,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C80,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lmizzi26@rakuten.co.jp</v>
       </c>
       <c r="H80" s="2"/>
@@ -21131,7 +21131,7 @@
         <v>Cletis Giacomazzo</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C81,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C81,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C81,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cgiacomazzo27@jigsy.com</v>
       </c>
       <c r="H81" s="2"/>
@@ -21157,7 +21157,7 @@
         <v>Ami Arnow</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C82,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C82,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C82,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aarnow28@arizona.edu</v>
       </c>
       <c r="H82" s="2"/>
@@ -21183,7 +21183,7 @@
         <v>Sheppard Yann</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C83,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C83,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C83,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>syann29@senate.gov</v>
       </c>
       <c r="H83" s="2"/>
@@ -21209,7 +21209,7 @@
         <v>Bunny Naulls</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C84,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C84,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C84,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bnaulls2a@tiny.cc</v>
       </c>
       <c r="H84" s="2"/>
@@ -21234,9 +21234,9 @@
         <f>_xlfn.XLOOKUP(C85,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hally Lorait</v>
       </c>
-      <c r="G85" s="2">
-        <f>_xlfn.XLOOKUP(C85,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G85" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C85,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C85,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -21261,7 +21261,7 @@
         <v>Zaccaria Sherewood</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C86,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C86,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C86,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>zsherewood2c@apache.org</v>
       </c>
       <c r="H86" s="2"/>
@@ -21287,7 +21287,7 @@
         <v>Jeffrey Dufaire</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C87,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C87,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C87,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdufaire2d@fc2.com</v>
       </c>
       <c r="H87" s="2"/>
@@ -21313,7 +21313,7 @@
         <v>Jeffrey Dufaire</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C88,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C88,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C88,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdufaire2d@fc2.com</v>
       </c>
       <c r="H88" s="2"/>
@@ -21339,7 +21339,7 @@
         <v>Beitris Keaveney</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C89,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C89,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C89,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bkeaveney2f@netlog.com</v>
       </c>
       <c r="H89" s="2"/>
@@ -21365,7 +21365,7 @@
         <v>Elna Grise</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C90,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C90,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C90,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>egrise2g@cargocollective.com</v>
       </c>
       <c r="H90" s="2"/>
@@ -21391,7 +21391,7 @@
         <v>Torie Gottelier</v>
       </c>
       <c r="G91" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C91,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C91,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C91,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tgottelier2h@vistaprint.com</v>
       </c>
       <c r="H91" s="2"/>
@@ -21416,9 +21416,9 @@
         <f>_xlfn.XLOOKUP(C92,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Loydie Langlais</v>
       </c>
-      <c r="G92" s="2">
-        <f>_xlfn.XLOOKUP(C92,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G92" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C92,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C92,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -21443,7 +21443,7 @@
         <v>Adham Greenhead</v>
       </c>
       <c r="G93" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C93,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C93,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C93,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>agreenhead2j@dailymail.co.uk</v>
       </c>
       <c r="H93" s="2"/>
@@ -21468,9 +21468,9 @@
         <f>_xlfn.XLOOKUP(C94,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hamish MacSherry</v>
       </c>
-      <c r="G94" s="2">
-        <f>_xlfn.XLOOKUP(C94,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G94" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C94,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C94,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -21495,7 +21495,7 @@
         <v>Else Langcaster</v>
       </c>
       <c r="G95" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C95,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C95,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C95,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>elangcaster2l@spotify.com</v>
       </c>
       <c r="H95" s="2"/>
@@ -21520,9 +21520,9 @@
         <f>_xlfn.XLOOKUP(C96,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Rudy Farquharson</v>
       </c>
-      <c r="G96" s="2">
-        <f>_xlfn.XLOOKUP(C96,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G96" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C96,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C96,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H96" s="2"/>
     </row>
@@ -21547,7 +21547,7 @@
         <v>Norene Magauran</v>
       </c>
       <c r="G97" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C97,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C97,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C97,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nmagauran2n@51.la</v>
       </c>
       <c r="H97" s="2"/>
@@ -21573,7 +21573,7 @@
         <v>Vicki Kirdsch</v>
       </c>
       <c r="G98" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C98,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C98,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C98,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vkirdsch2o@google.fr</v>
       </c>
       <c r="H98" s="2"/>
@@ -21599,7 +21599,7 @@
         <v>Ilysa Whapple</v>
       </c>
       <c r="G99" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C99,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C99,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C99,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>iwhapple2p@com.com</v>
       </c>
       <c r="H99" s="2"/>
@@ -21624,9 +21624,9 @@
         <f>_xlfn.XLOOKUP(C100,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Ruy Cancellieri</v>
       </c>
-      <c r="G100" s="2">
-        <f>_xlfn.XLOOKUP(C100,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G100" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C100,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C100,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H100" s="2"/>
     </row>
@@ -21650,9 +21650,9 @@
         <f>_xlfn.XLOOKUP(C101,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Aube Follett</v>
       </c>
-      <c r="G101" s="2">
-        <f>_xlfn.XLOOKUP(C101,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G101" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C101,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C101,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H101" s="2"/>
     </row>
@@ -21676,9 +21676,9 @@
         <f>_xlfn.XLOOKUP(C102,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Rudiger Di Bartolomeo</v>
       </c>
-      <c r="G102" s="2">
-        <f>_xlfn.XLOOKUP(C102,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G102" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C102,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C102,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -21703,7 +21703,7 @@
         <v>Nickey Youles</v>
       </c>
       <c r="G103" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C103,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C103,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C103,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nyoules2t@reference.com</v>
       </c>
       <c r="H103" s="2"/>
@@ -21729,7 +21729,7 @@
         <v>Dyanna Aizikovitz</v>
       </c>
       <c r="G104" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C104,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C104,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C104,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>daizikovitz2u@answers.com</v>
       </c>
       <c r="H104" s="2"/>
@@ -21755,7 +21755,7 @@
         <v>Bram Revel</v>
       </c>
       <c r="G105" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C105,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C105,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C105,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>brevel2v@fastcompany.com</v>
       </c>
       <c r="H105" s="2"/>
@@ -21781,7 +21781,7 @@
         <v>Emiline Priddis</v>
       </c>
       <c r="G106" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C106,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C106,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C106,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>epriddis2w@nationalgeographic.com</v>
       </c>
       <c r="H106" s="2"/>
@@ -21807,7 +21807,7 @@
         <v>Queenie Veel</v>
       </c>
       <c r="G107" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C107,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C107,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C107,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>qveel2x@jugem.jp</v>
       </c>
       <c r="H107" s="2"/>
@@ -21833,7 +21833,7 @@
         <v>Lind Conyers</v>
       </c>
       <c r="G108" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C108,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C108,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C108,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lconyers2y@twitter.com</v>
       </c>
       <c r="H108" s="2"/>
@@ -21859,7 +21859,7 @@
         <v>Pen Wye</v>
       </c>
       <c r="G109" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C109,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C109,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C109,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pwye2z@dagondesign.com</v>
       </c>
       <c r="H109" s="2"/>
@@ -21884,9 +21884,9 @@
         <f>_xlfn.XLOOKUP(C110,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Isahella Hagland</v>
       </c>
-      <c r="G110" s="2">
-        <f>_xlfn.XLOOKUP(C110,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G110" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C110,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C110,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H110" s="2"/>
     </row>
@@ -21911,7 +21911,7 @@
         <v>Terry Sheryn</v>
       </c>
       <c r="G111" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C111,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C111,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C111,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tsheryn31@mtv.com</v>
       </c>
       <c r="H111" s="2"/>
@@ -21937,7 +21937,7 @@
         <v>Marie-jeanne Redgrave</v>
       </c>
       <c r="G112" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C112,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C112,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C112,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mredgrave32@cargocollective.com</v>
       </c>
       <c r="H112" s="2"/>
@@ -21963,7 +21963,7 @@
         <v>Betty Fominov</v>
       </c>
       <c r="G113" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C113,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C113,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C113,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bfominov33@yale.edu</v>
       </c>
       <c r="H113" s="2"/>
@@ -21989,7 +21989,7 @@
         <v>Shawnee Critchlow</v>
       </c>
       <c r="G114" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C114,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C114,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C114,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>scritchlow34@un.org</v>
       </c>
       <c r="H114" s="2"/>
@@ -22015,7 +22015,7 @@
         <v>Merrel Steptow</v>
       </c>
       <c r="G115" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C115,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C115,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C115,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>msteptow35@earthlink.net</v>
       </c>
       <c r="H115" s="2"/>
@@ -22040,9 +22040,9 @@
         <f>_xlfn.XLOOKUP(C116,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Carmina Hubbuck</v>
       </c>
-      <c r="G116" s="2">
-        <f>_xlfn.XLOOKUP(C116,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G116" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C116,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C116,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H116" s="2"/>
     </row>
@@ -22067,7 +22067,7 @@
         <v>Ingeberg Mulliner</v>
       </c>
       <c r="G117" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C117,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C117,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C117,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>imulliner37@pinterest.com</v>
       </c>
       <c r="H117" s="2"/>
@@ -22093,7 +22093,7 @@
         <v>Geneva Standley</v>
       </c>
       <c r="G118" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C118,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C118,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C118,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gstandley38@dion.ne.jp</v>
       </c>
       <c r="H118" s="2"/>
@@ -22119,7 +22119,7 @@
         <v>Brook Drage</v>
       </c>
       <c r="G119" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C119,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C119,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C119,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bdrage39@youku.com</v>
       </c>
       <c r="H119" s="2"/>
@@ -22145,7 +22145,7 @@
         <v>Muffin Yallop</v>
       </c>
       <c r="G120" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C120,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C120,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C120,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>myallop3a@fema.gov</v>
       </c>
       <c r="H120" s="2"/>
@@ -22171,7 +22171,7 @@
         <v>Cordi Switsur</v>
       </c>
       <c r="G121" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C121,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C121,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C121,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cswitsur3b@chronoengine.com</v>
       </c>
       <c r="H121" s="2"/>
@@ -22197,7 +22197,7 @@
         <v>Cordi Switsur</v>
       </c>
       <c r="G122" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C122,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C122,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C122,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cswitsur3b@chronoengine.com</v>
       </c>
       <c r="H122" s="2"/>
@@ -22223,7 +22223,7 @@
         <v>Cordi Switsur</v>
       </c>
       <c r="G123" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C123,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C123,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C123,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cswitsur3b@chronoengine.com</v>
       </c>
       <c r="H123" s="2"/>
@@ -22249,7 +22249,7 @@
         <v>Mahala Ludwell</v>
       </c>
       <c r="G124" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C124,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C124,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C124,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mludwell3e@blogger.com</v>
       </c>
       <c r="H124" s="2"/>
@@ -22275,7 +22275,7 @@
         <v>Doll Beauchamp</v>
       </c>
       <c r="G125" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C125,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C125,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C125,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dbeauchamp3f@usda.gov</v>
       </c>
       <c r="H125" s="2"/>
@@ -22301,7 +22301,7 @@
         <v>Stanford Rodliff</v>
       </c>
       <c r="G126" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C126,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C126,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C126,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>srodliff3g@ted.com</v>
       </c>
       <c r="H126" s="2"/>
@@ -22327,7 +22327,7 @@
         <v>Stevana Woodham</v>
       </c>
       <c r="G127" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C127,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C127,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C127,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>swoodham3h@businesswire.com</v>
       </c>
       <c r="H127" s="2"/>
@@ -22353,7 +22353,7 @@
         <v>Hewet Synnot</v>
       </c>
       <c r="G128" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C128,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C128,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C128,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hsynnot3i@about.com</v>
       </c>
       <c r="H128" s="2"/>
@@ -22379,7 +22379,7 @@
         <v>Raleigh Lepere</v>
       </c>
       <c r="G129" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C129,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C129,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C129,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rlepere3j@shop-pro.jp</v>
       </c>
       <c r="H129" s="2"/>
@@ -22405,7 +22405,7 @@
         <v>Timofei Woofinden</v>
       </c>
       <c r="G130" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C130,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C130,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C130,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>twoofinden3k@businesswire.com</v>
       </c>
       <c r="H130" s="2"/>
@@ -22431,7 +22431,7 @@
         <v>Evelina Dacca</v>
       </c>
       <c r="G131" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C131,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C131,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C131,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>edacca3l@google.pl</v>
       </c>
       <c r="H131" s="2"/>
@@ -22456,9 +22456,9 @@
         <f>_xlfn.XLOOKUP(C132,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Bidget Tremellier</v>
       </c>
-      <c r="G132" s="2">
-        <f>_xlfn.XLOOKUP(C132,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G132" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C132,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C132,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -22483,7 +22483,7 @@
         <v>Bobinette Hindsberg</v>
       </c>
       <c r="G133" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C133,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C133,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C133,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bhindsberg3n@blogs.com</v>
       </c>
       <c r="H133" s="2"/>
@@ -22509,7 +22509,7 @@
         <v>Osbert Robins</v>
       </c>
       <c r="G134" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C134,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C134,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C134,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>orobins3o@salon.com</v>
       </c>
       <c r="H134" s="2"/>
@@ -22535,7 +22535,7 @@
         <v>Othello Syseland</v>
       </c>
       <c r="G135" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C135,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C135,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C135,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>osyseland3p@independent.co.uk</v>
       </c>
       <c r="H135" s="2"/>
@@ -22560,9 +22560,9 @@
         <f>_xlfn.XLOOKUP(C136,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Ewell Hanby</v>
       </c>
-      <c r="G136" s="2">
-        <f>_xlfn.XLOOKUP(C136,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G136" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C136,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C136,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H136" s="2"/>
     </row>
@@ -22587,7 +22587,7 @@
         <v>Blancha McAmish</v>
       </c>
       <c r="G137" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C137,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C137,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C137,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bmcamish2e@tripadvisor.com</v>
       </c>
       <c r="H137" s="2"/>
@@ -22613,7 +22613,7 @@
         <v>Lowell Keenleyside</v>
       </c>
       <c r="G138" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C138,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C138,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C138,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lkeenleyside3s@topsy.com</v>
       </c>
       <c r="H138" s="2"/>
@@ -22638,9 +22638,9 @@
         <f>_xlfn.XLOOKUP(C139,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Elonore Joliffe</v>
       </c>
-      <c r="G139" s="2">
-        <f>_xlfn.XLOOKUP(C139,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G139" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C139,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C139,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H139" s="2"/>
     </row>
@@ -22664,9 +22664,9 @@
         <f>_xlfn.XLOOKUP(C140,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Abraham Coleman</v>
       </c>
-      <c r="G140" s="2">
-        <f>_xlfn.XLOOKUP(C140,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G140" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C140,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C140,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H140" s="2"/>
     </row>
@@ -22690,9 +22690,9 @@
         <f>_xlfn.XLOOKUP(C141,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Rivy Farington</v>
       </c>
-      <c r="G141" s="2">
-        <f>_xlfn.XLOOKUP(C141,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G141" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C141,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C141,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H141" s="2"/>
     </row>
@@ -22717,7 +22717,7 @@
         <v>Vallie Kundt</v>
       </c>
       <c r="G142" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C142,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C142,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C142,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vkundt3w@bigcartel.com</v>
       </c>
       <c r="H142" s="2"/>
@@ -22743,7 +22743,7 @@
         <v>Boyd Bett</v>
       </c>
       <c r="G143" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C143,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C143,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C143,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bbett3x@google.de</v>
       </c>
       <c r="H143" s="2"/>
@@ -22768,9 +22768,9 @@
         <f>_xlfn.XLOOKUP(C144,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Julio Armytage</v>
       </c>
-      <c r="G144" s="2">
-        <f>_xlfn.XLOOKUP(C144,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G144" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C144,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C144,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H144" s="2"/>
     </row>
@@ -22795,7 +22795,7 @@
         <v>Deana Staite</v>
       </c>
       <c r="G145" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C145,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C145,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C145,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dstaite3z@scientificamerican.com</v>
       </c>
       <c r="H145" s="2"/>
@@ -22821,7 +22821,7 @@
         <v>Winn Keyse</v>
       </c>
       <c r="G146" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C146,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C146,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C146,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wkeyse40@apple.com</v>
       </c>
       <c r="H146" s="2"/>
@@ -22847,7 +22847,7 @@
         <v>Osmund Clausen-Thue</v>
       </c>
       <c r="G147" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C147,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C147,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C147,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>oclausenthue41@marriott.com</v>
       </c>
       <c r="H147" s="2"/>
@@ -22873,7 +22873,7 @@
         <v>Leonore Francisco</v>
       </c>
       <c r="G148" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C148,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C148,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C148,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lfrancisco42@fema.gov</v>
       </c>
       <c r="H148" s="2"/>
@@ -22899,7 +22899,7 @@
         <v>Leonore Francisco</v>
       </c>
       <c r="G149" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C149,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C149,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C149,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lfrancisco42@fema.gov</v>
       </c>
       <c r="H149" s="2"/>
@@ -22925,7 +22925,7 @@
         <v>Giacobo Skingle</v>
       </c>
       <c r="G150" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C150,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C150,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C150,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gskingle44@clickbank.net</v>
       </c>
       <c r="H150" s="2"/>
@@ -22950,9 +22950,9 @@
         <f>_xlfn.XLOOKUP(C151,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Gerard Pirdy</v>
       </c>
-      <c r="G151" s="2">
-        <f>_xlfn.XLOOKUP(C151,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G151" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C151,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C151,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -22977,7 +22977,7 @@
         <v>Jacinthe Balsillie</v>
       </c>
       <c r="G152" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C152,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C152,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C152,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jbalsillie46@princeton.edu</v>
       </c>
       <c r="H152" s="2"/>
@@ -23002,9 +23002,9 @@
         <f>_xlfn.XLOOKUP(C153,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Quinton Fouracres</v>
       </c>
-      <c r="G153" s="2">
-        <f>_xlfn.XLOOKUP(C153,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G153" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C153,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C153,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H153" s="2"/>
     </row>
@@ -23029,7 +23029,7 @@
         <v>Bettina Leffek</v>
       </c>
       <c r="G154" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C154,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C154,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C154,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bleffek48@ning.com</v>
       </c>
       <c r="H154" s="2"/>
@@ -23054,9 +23054,9 @@
         <f>_xlfn.XLOOKUP(C155,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hetti Penson</v>
       </c>
-      <c r="G155" s="2">
-        <f>_xlfn.XLOOKUP(C155,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G155" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C155,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C155,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H155" s="2"/>
     </row>
@@ -23081,7 +23081,7 @@
         <v>Jocko Pray</v>
       </c>
       <c r="G156" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C156,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C156,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C156,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jpray4a@youtube.com</v>
       </c>
       <c r="H156" s="2"/>
@@ -23107,7 +23107,7 @@
         <v>Grete Holborn</v>
       </c>
       <c r="G157" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C157,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C157,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C157,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gholborn4b@ow.ly</v>
       </c>
       <c r="H157" s="2"/>
@@ -23133,7 +23133,7 @@
         <v>Fielding Keinrat</v>
       </c>
       <c r="G158" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C158,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C158,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C158,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fkeinrat4c@dailymail.co.uk</v>
       </c>
       <c r="H158" s="2"/>
@@ -23159,7 +23159,7 @@
         <v>Paulo Yea</v>
       </c>
       <c r="G159" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C159,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C159,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C159,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pyea4d@aol.com</v>
       </c>
       <c r="H159" s="2"/>
@@ -23184,9 +23184,9 @@
         <f>_xlfn.XLOOKUP(C160,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Say Risborough</v>
       </c>
-      <c r="G160" s="2">
-        <f>_xlfn.XLOOKUP(C160,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G160" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C160,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C160,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H160" s="2"/>
     </row>
@@ -23210,9 +23210,9 @@
         <f>_xlfn.XLOOKUP(C161,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Alexa Sizey</v>
       </c>
-      <c r="G161" s="2">
-        <f>_xlfn.XLOOKUP(C161,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G161" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C161,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C161,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H161" s="2"/>
     </row>
@@ -23237,7 +23237,7 @@
         <v>Kari Swede</v>
       </c>
       <c r="G162" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C162,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C162,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C162,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kswede4g@addthis.com</v>
       </c>
       <c r="H162" s="2"/>
@@ -23263,7 +23263,7 @@
         <v>Leontine Rubrow</v>
       </c>
       <c r="G163" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C163,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C163,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C163,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lrubrow4h@microsoft.com</v>
       </c>
       <c r="H163" s="2"/>
@@ -23289,7 +23289,7 @@
         <v>Dottie Tift</v>
       </c>
       <c r="G164" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C164,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C164,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C164,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dtift4i@netvibes.com</v>
       </c>
       <c r="H164" s="2"/>
@@ -23315,7 +23315,7 @@
         <v>Gerardo Schonfeld</v>
       </c>
       <c r="G165" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C165,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C165,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C165,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gschonfeld4j@oracle.com</v>
       </c>
       <c r="H165" s="2"/>
@@ -23341,7 +23341,7 @@
         <v>Claiborne Feye</v>
       </c>
       <c r="G166" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C166,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C166,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C166,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cfeye4k@google.co.jp</v>
       </c>
       <c r="H166" s="2"/>
@@ -23366,9 +23366,9 @@
         <f>_xlfn.XLOOKUP(C167,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Mina Elstone</v>
       </c>
-      <c r="G167" s="2">
-        <f>_xlfn.XLOOKUP(C167,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G167" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C167,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C167,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H167" s="2"/>
     </row>
@@ -23392,9 +23392,9 @@
         <f>_xlfn.XLOOKUP(C168,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Sherman Mewrcik</v>
       </c>
-      <c r="G168" s="2">
-        <f>_xlfn.XLOOKUP(C168,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G168" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C168,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C168,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H168" s="2"/>
     </row>
@@ -23419,7 +23419,7 @@
         <v>Tamarah Fero</v>
       </c>
       <c r="G169" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C169,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C169,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C169,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tfero4n@comsenz.com</v>
       </c>
       <c r="H169" s="2"/>
@@ -23444,9 +23444,9 @@
         <f>_xlfn.XLOOKUP(C170,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Stanislaus Valsler</v>
       </c>
-      <c r="G170" s="2">
-        <f>_xlfn.XLOOKUP(C170,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G170" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C170,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C170,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H170" s="2"/>
     </row>
@@ -23471,7 +23471,7 @@
         <v>Felita Dauney</v>
       </c>
       <c r="G171" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C171,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C171,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C171,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fdauney4p@sphinn.com</v>
       </c>
       <c r="H171" s="2"/>
@@ -23497,7 +23497,7 @@
         <v>Serena Earley</v>
       </c>
       <c r="G172" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C172,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C172,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C172,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>searley4q@youku.com</v>
       </c>
       <c r="H172" s="2"/>
@@ -23523,7 +23523,7 @@
         <v>Minny Chamberlayne</v>
       </c>
       <c r="G173" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C173,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C173,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C173,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mchamberlayne4r@bigcartel.com</v>
       </c>
       <c r="H173" s="2"/>
@@ -23549,7 +23549,7 @@
         <v>Bartholemy Flaherty</v>
       </c>
       <c r="G174" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C174,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C174,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C174,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bflaherty4s@moonfruit.com</v>
       </c>
       <c r="H174" s="2"/>
@@ -23575,7 +23575,7 @@
         <v>Oran Colbeck</v>
       </c>
       <c r="G175" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C175,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C175,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C175,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ocolbeck4t@sina.com.cn</v>
       </c>
       <c r="H175" s="2"/>
@@ -23600,9 +23600,9 @@
         <f>_xlfn.XLOOKUP(C176,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Elysee Sketch</v>
       </c>
-      <c r="G176" s="2">
-        <f>_xlfn.XLOOKUP(C176,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G176" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C176,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C176,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H176" s="2"/>
     </row>
@@ -23627,7 +23627,7 @@
         <v>Ethelda Hobbing</v>
       </c>
       <c r="G177" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C177,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C177,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C177,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ehobbing4v@nsw.gov.au</v>
       </c>
       <c r="H177" s="2"/>
@@ -23653,7 +23653,7 @@
         <v>Odille Thynne</v>
       </c>
       <c r="G178" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C178,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C178,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C178,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>othynne4w@auda.org.au</v>
       </c>
       <c r="H178" s="2"/>
@@ -23679,7 +23679,7 @@
         <v>Emlynne Heining</v>
       </c>
       <c r="G179" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C179,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C179,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C179,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>eheining4x@flickr.com</v>
       </c>
       <c r="H179" s="2"/>
@@ -23705,7 +23705,7 @@
         <v>Katerina Melloi</v>
       </c>
       <c r="G180" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C180,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C180,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C180,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kmelloi4y@imdb.com</v>
       </c>
       <c r="H180" s="2"/>
@@ -23730,9 +23730,9 @@
         <f>_xlfn.XLOOKUP(C181,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Tiffany Scardafield</v>
       </c>
-      <c r="G181" s="2">
-        <f>_xlfn.XLOOKUP(C181,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G181" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C181,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C181,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H181" s="2"/>
     </row>
@@ -23757,7 +23757,7 @@
         <v>Abrahan Mussen</v>
       </c>
       <c r="G182" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C182,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C182,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C182,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>amussen50@51.la</v>
       </c>
       <c r="H182" s="2"/>
@@ -23783,7 +23783,7 @@
         <v>Abrahan Mussen</v>
       </c>
       <c r="G183" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C183,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C183,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C183,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>amussen50@51.la</v>
       </c>
       <c r="H183" s="2"/>
@@ -23809,7 +23809,7 @@
         <v>Anny Mundford</v>
       </c>
       <c r="G184" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C184,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C184,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C184,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>amundford52@nbcnews.com</v>
       </c>
       <c r="H184" s="2"/>
@@ -23835,7 +23835,7 @@
         <v>Tory Walas</v>
       </c>
       <c r="G185" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C185,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C185,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C185,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>twalas53@google.ca</v>
       </c>
       <c r="H185" s="2"/>
@@ -23861,7 +23861,7 @@
         <v>Isa Blazewicz</v>
       </c>
       <c r="G186" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C186,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C186,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C186,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>iblazewicz54@thetimes.co.uk</v>
       </c>
       <c r="H186" s="2"/>
@@ -23887,7 +23887,7 @@
         <v>Angie Rizzetti</v>
       </c>
       <c r="G187" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C187,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C187,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C187,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>arizzetti55@naver.com</v>
       </c>
       <c r="H187" s="2"/>
@@ -23913,7 +23913,7 @@
         <v>Mord Meriet</v>
       </c>
       <c r="G188" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C188,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C188,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C188,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mmeriet56@noaa.gov</v>
       </c>
       <c r="H188" s="2"/>
@@ -23939,7 +23939,7 @@
         <v>Lawrence Pratt</v>
       </c>
       <c r="G189" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C189,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C189,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C189,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lpratt57@netvibes.com</v>
       </c>
       <c r="H189" s="2"/>
@@ -23965,7 +23965,7 @@
         <v>Astrix Kitchingham</v>
       </c>
       <c r="G190" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C190,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C190,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C190,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>akitchingham58@com.com</v>
       </c>
       <c r="H190" s="2"/>
@@ -23991,7 +23991,7 @@
         <v>Burnard Bartholin</v>
       </c>
       <c r="G191" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C191,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C191,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C191,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bbartholin59@xinhuanet.com</v>
       </c>
       <c r="H191" s="2"/>
@@ -24017,7 +24017,7 @@
         <v>Madelene Prinn</v>
       </c>
       <c r="G192" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C192,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C192,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C192,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mprinn5a@usa.gov</v>
       </c>
       <c r="H192" s="2"/>
@@ -24043,7 +24043,7 @@
         <v>Alisun Baudino</v>
       </c>
       <c r="G193" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C193,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C193,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C193,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abaudino5b@netvibes.com</v>
       </c>
       <c r="H193" s="2"/>
@@ -24069,7 +24069,7 @@
         <v>Philipa Petrushanko</v>
       </c>
       <c r="G194" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C194,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C194,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C194,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ppetrushanko5c@blinklist.com</v>
       </c>
       <c r="H194" s="2"/>
@@ -24094,9 +24094,9 @@
         <f>_xlfn.XLOOKUP(C195,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kimberli Mustchin</v>
       </c>
-      <c r="G195" s="2">
-        <f>_xlfn.XLOOKUP(C195,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G195" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C195,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C195,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H195" s="2"/>
     </row>
@@ -24121,7 +24121,7 @@
         <v>Emlynne Laird</v>
       </c>
       <c r="G196" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C196,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C196,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C196,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>elaird5e@bing.com</v>
       </c>
       <c r="H196" s="2"/>
@@ -24147,7 +24147,7 @@
         <v>Marlena Howsden</v>
       </c>
       <c r="G197" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C197,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C197,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C197,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mhowsden5f@infoseek.co.jp</v>
       </c>
       <c r="H197" s="2"/>
@@ -24173,7 +24173,7 @@
         <v>Nealson Cuttler</v>
       </c>
       <c r="G198" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C198,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C198,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C198,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ncuttler5g@parallels.com</v>
       </c>
       <c r="H198" s="2"/>
@@ -24199,7 +24199,7 @@
         <v>Nealson Cuttler</v>
       </c>
       <c r="G199" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C199,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C199,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C199,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ncuttler5g@parallels.com</v>
       </c>
       <c r="H199" s="2"/>
@@ -24225,7 +24225,7 @@
         <v>Nealson Cuttler</v>
       </c>
       <c r="G200" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C200,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C200,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C200,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ncuttler5g@parallels.com</v>
       </c>
       <c r="H200" s="2"/>
@@ -24251,7 +24251,7 @@
         <v>Nealson Cuttler</v>
       </c>
       <c r="G201" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C201,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C201,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C201,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ncuttler5g@parallels.com</v>
       </c>
       <c r="H201" s="2"/>
@@ -24277,7 +24277,7 @@
         <v>Nealson Cuttler</v>
       </c>
       <c r="G202" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C202,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C202,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C202,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ncuttler5g@parallels.com</v>
       </c>
       <c r="H202" s="2"/>
@@ -24302,9 +24302,9 @@
         <f>_xlfn.XLOOKUP(C203,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Adriana Lazarus</v>
       </c>
-      <c r="G203" s="2">
-        <f>_xlfn.XLOOKUP(C203,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G203" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C203,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C203,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H203" s="2"/>
     </row>
@@ -24329,7 +24329,7 @@
         <v>Tallie felip</v>
       </c>
       <c r="G204" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C204,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C204,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C204,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tfelip5m@typepad.com</v>
       </c>
       <c r="H204" s="2"/>
@@ -24355,7 +24355,7 @@
         <v>Vanna Le - Count</v>
       </c>
       <c r="G205" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C205,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C205,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C205,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vle5n@disqus.com</v>
       </c>
       <c r="H205" s="2"/>
@@ -24380,9 +24380,9 @@
         <f>_xlfn.XLOOKUP(C206,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Sarette Ducarel</v>
       </c>
-      <c r="G206" s="2">
-        <f>_xlfn.XLOOKUP(C206,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G206" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C206,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C206,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H206" s="2"/>
     </row>
@@ -24406,9 +24406,9 @@
         <f>_xlfn.XLOOKUP(C207,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kendra Glison</v>
       </c>
-      <c r="G207" s="2">
-        <f>_xlfn.XLOOKUP(C207,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G207" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C207,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C207,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H207" s="2"/>
     </row>
@@ -24433,7 +24433,7 @@
         <v>Nertie Poolman</v>
       </c>
       <c r="G208" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C208,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C208,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C208,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>npoolman5q@howstuffworks.com</v>
       </c>
       <c r="H208" s="2"/>
@@ -24459,7 +24459,7 @@
         <v>Orbadiah Duny</v>
       </c>
       <c r="G209" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C209,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C209,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C209,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>oduny5r@constantcontact.com</v>
       </c>
       <c r="H209" s="2"/>
@@ -24485,7 +24485,7 @@
         <v>Constance Halfhide</v>
       </c>
       <c r="G210" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C210,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C210,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C210,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>chalfhide5s@google.ru</v>
       </c>
       <c r="H210" s="2"/>
@@ -24511,7 +24511,7 @@
         <v>Fransisco Malecky</v>
       </c>
       <c r="G211" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C211,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C211,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C211,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fmalecky5t@list-manage.com</v>
       </c>
       <c r="H211" s="2"/>
@@ -24537,7 +24537,7 @@
         <v>Anselma Attwater</v>
       </c>
       <c r="G212" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C212,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C212,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C212,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aattwater5u@wikia.com</v>
       </c>
       <c r="H212" s="2"/>
@@ -24563,7 +24563,7 @@
         <v>Minette Whellans</v>
       </c>
       <c r="G213" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C213,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C213,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C213,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mwhellans5v@mapquest.com</v>
       </c>
       <c r="H213" s="2"/>
@@ -24589,7 +24589,7 @@
         <v>Dael Camilletti</v>
       </c>
       <c r="G214" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C214,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C214,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C214,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dcamilletti5w@businesswire.com</v>
       </c>
       <c r="H214" s="2"/>
@@ -24615,7 +24615,7 @@
         <v>Emiline Galgey</v>
       </c>
       <c r="G215" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C215,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C215,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C215,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>egalgey5x@wufoo.com</v>
       </c>
       <c r="H215" s="2"/>
@@ -24641,7 +24641,7 @@
         <v>Murdock Hame</v>
       </c>
       <c r="G216" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C216,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C216,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C216,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mhame5y@newsvine.com</v>
       </c>
       <c r="H216" s="2"/>
@@ -24667,7 +24667,7 @@
         <v>Ilka Gurnee</v>
       </c>
       <c r="G217" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C217,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C217,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C217,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>igurnee5z@usnews.com</v>
       </c>
       <c r="H217" s="2"/>
@@ -24693,7 +24693,7 @@
         <v>Alfy Snowding</v>
       </c>
       <c r="G218" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C218,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C218,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C218,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>asnowding60@comsenz.com</v>
       </c>
       <c r="H218" s="2"/>
@@ -24719,7 +24719,7 @@
         <v>Godfry Poinsett</v>
       </c>
       <c r="G219" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C219,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C219,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C219,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gpoinsett61@berkeley.edu</v>
       </c>
       <c r="H219" s="2"/>
@@ -24745,7 +24745,7 @@
         <v>Rem Furman</v>
       </c>
       <c r="G220" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C220,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C220,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C220,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rfurman62@t.co</v>
       </c>
       <c r="H220" s="2"/>
@@ -24771,7 +24771,7 @@
         <v>Charis Crosier</v>
       </c>
       <c r="G221" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C221,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C221,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C221,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ccrosier63@xrea.com</v>
       </c>
       <c r="H221" s="2"/>
@@ -24797,7 +24797,7 @@
         <v>Charis Crosier</v>
       </c>
       <c r="G222" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C222,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C222,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C222,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ccrosier63@xrea.com</v>
       </c>
       <c r="H222" s="2"/>
@@ -24823,7 +24823,7 @@
         <v>Lenka Rushmer</v>
       </c>
       <c r="G223" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C223,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C223,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C223,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lrushmer65@europa.eu</v>
       </c>
       <c r="H223" s="2"/>
@@ -24849,7 +24849,7 @@
         <v>Waneta Edinborough</v>
       </c>
       <c r="G224" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C224,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C224,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C224,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wedinborough66@github.io</v>
       </c>
       <c r="H224" s="2"/>
@@ -24874,9 +24874,9 @@
         <f>_xlfn.XLOOKUP(C225,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Bobbe Piggott</v>
       </c>
-      <c r="G225" s="2">
-        <f>_xlfn.XLOOKUP(C225,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G225" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C225,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C225,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H225" s="2"/>
     </row>
@@ -24901,7 +24901,7 @@
         <v>Ketty Bromehead</v>
       </c>
       <c r="G226" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C226,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C226,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C226,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kbromehead68@un.org</v>
       </c>
       <c r="H226" s="2"/>
@@ -24927,7 +24927,7 @@
         <v>Elsbeth Westerman</v>
       </c>
       <c r="G227" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C227,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C227,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C227,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ewesterman69@si.edu</v>
       </c>
       <c r="H227" s="2"/>
@@ -24953,7 +24953,7 @@
         <v>Anabelle Hutchens</v>
       </c>
       <c r="G228" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C228,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C228,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C228,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ahutchens6a@amazonaws.com</v>
       </c>
       <c r="H228" s="2"/>
@@ -24979,7 +24979,7 @@
         <v>Noak Wyvill</v>
       </c>
       <c r="G229" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C229,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C229,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C229,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nwyvill6b@naver.com</v>
       </c>
       <c r="H229" s="2"/>
@@ -25005,7 +25005,7 @@
         <v>Beltran Mathon</v>
       </c>
       <c r="G230" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C230,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C230,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C230,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bmathon6c@barnesandnoble.com</v>
       </c>
       <c r="H230" s="2"/>
@@ -25031,7 +25031,7 @@
         <v>Kristos Streight</v>
       </c>
       <c r="G231" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C231,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C231,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C231,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kstreight6d@about.com</v>
       </c>
       <c r="H231" s="2"/>
@@ -25057,7 +25057,7 @@
         <v>Portie Cutchie</v>
       </c>
       <c r="G232" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C232,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C232,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C232,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pcutchie6e@globo.com</v>
       </c>
       <c r="H232" s="2"/>
@@ -25082,9 +25082,9 @@
         <f>_xlfn.XLOOKUP(C233,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Sinclare Edsell</v>
       </c>
-      <c r="G233" s="2">
-        <f>_xlfn.XLOOKUP(C233,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G233" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C233,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C233,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H233" s="2"/>
     </row>
@@ -25109,7 +25109,7 @@
         <v>Conny Gheraldi</v>
       </c>
       <c r="G234" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C234,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C234,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C234,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cgheraldi6g@opera.com</v>
       </c>
       <c r="H234" s="2"/>
@@ -25135,7 +25135,7 @@
         <v>Beryle Kenwell</v>
       </c>
       <c r="G235" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C235,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C235,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C235,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bkenwell6h@over-blog.com</v>
       </c>
       <c r="H235" s="2"/>
@@ -25161,7 +25161,7 @@
         <v>Tomas Sutty</v>
       </c>
       <c r="G236" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C236,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C236,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C236,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tsutty6i@google.es</v>
       </c>
       <c r="H236" s="2"/>
@@ -25186,9 +25186,9 @@
         <f>_xlfn.XLOOKUP(C237,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Samuele Ales0</v>
       </c>
-      <c r="G237" s="2">
-        <f>_xlfn.XLOOKUP(C237,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G237" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C237,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C237,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H237" s="2"/>
     </row>
@@ -25213,7 +25213,7 @@
         <v>Carlie Harce</v>
       </c>
       <c r="G238" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C238,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C238,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C238,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>charce6k@cafepress.com</v>
       </c>
       <c r="H238" s="2"/>
@@ -25238,9 +25238,9 @@
         <f>_xlfn.XLOOKUP(C239,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Craggy Bril</v>
       </c>
-      <c r="G239" s="2">
-        <f>_xlfn.XLOOKUP(C239,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G239" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C239,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C239,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H239" s="2"/>
     </row>
@@ -25265,7 +25265,7 @@
         <v>Friederike Drysdale</v>
       </c>
       <c r="G240" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C240,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C240,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C240,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fdrysdale6m@symantec.com</v>
       </c>
       <c r="H240" s="2"/>
@@ -25291,7 +25291,7 @@
         <v>Devon Magowan</v>
       </c>
       <c r="G241" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C241,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C241,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C241,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dmagowan6n@fc2.com</v>
       </c>
       <c r="H241" s="2"/>
@@ -25316,9 +25316,9 @@
         <f>_xlfn.XLOOKUP(C242,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Codi Littrell</v>
       </c>
-      <c r="G242" s="2">
-        <f>_xlfn.XLOOKUP(C242,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G242" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C242,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C242,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H242" s="2"/>
     </row>
@@ -25342,9 +25342,9 @@
         <f>_xlfn.XLOOKUP(C243,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Christel Speak</v>
       </c>
-      <c r="G243" s="2">
-        <f>_xlfn.XLOOKUP(C243,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G243" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C243,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C243,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H243" s="2"/>
     </row>
@@ -25369,7 +25369,7 @@
         <v>Sibella Rushbrooke</v>
       </c>
       <c r="G244" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C244,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C244,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C244,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>srushbrooke6q@youku.com</v>
       </c>
       <c r="H244" s="2"/>
@@ -25395,7 +25395,7 @@
         <v>Tammie Drynan</v>
       </c>
       <c r="G245" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C245,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C245,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C245,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tdrynan6r@deviantart.com</v>
       </c>
       <c r="H245" s="2"/>
@@ -25421,7 +25421,7 @@
         <v>Effie Yurkov</v>
       </c>
       <c r="G246" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C246,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C246,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C246,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>eyurkov6s@hud.gov</v>
       </c>
       <c r="H246" s="2"/>
@@ -25447,7 +25447,7 @@
         <v>Lexie Mallan</v>
       </c>
       <c r="G247" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C247,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C247,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C247,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lmallan6t@state.gov</v>
       </c>
       <c r="H247" s="2"/>
@@ -25473,7 +25473,7 @@
         <v>Georgena Bentjens</v>
       </c>
       <c r="G248" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C248,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C248,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C248,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gbentjens6u@netlog.com</v>
       </c>
       <c r="H248" s="2"/>
@@ -25498,9 +25498,9 @@
         <f>_xlfn.XLOOKUP(C249,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Delmar Beasant</v>
       </c>
-      <c r="G249" s="2">
-        <f>_xlfn.XLOOKUP(C249,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G249" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C249,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C249,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H249" s="2"/>
     </row>
@@ -25525,7 +25525,7 @@
         <v>Lyn Entwistle</v>
       </c>
       <c r="G250" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C250,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C250,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C250,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lentwistle6w@omniture.com</v>
       </c>
       <c r="H250" s="2"/>
@@ -25551,7 +25551,7 @@
         <v>Zacharias Kiffe</v>
       </c>
       <c r="G251" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C251,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C251,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C251,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>zkiffe74@cyberchimps.com</v>
       </c>
       <c r="H251" s="2"/>
@@ -25577,7 +25577,7 @@
         <v>Mercedes Acott</v>
       </c>
       <c r="G252" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C252,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C252,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C252,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>macott6y@pagesperso-orange.fr</v>
       </c>
       <c r="H252" s="2"/>
@@ -25603,7 +25603,7 @@
         <v>Connor Heaviside</v>
       </c>
       <c r="G253" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C253,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C253,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C253,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cheaviside6z@rediff.com</v>
       </c>
       <c r="H253" s="2"/>
@@ -25628,9 +25628,9 @@
         <f>_xlfn.XLOOKUP(C254,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Devy Bulbrook</v>
       </c>
-      <c r="G254" s="2">
-        <f>_xlfn.XLOOKUP(C254,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G254" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C254,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C254,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H254" s="2"/>
     </row>
@@ -25655,7 +25655,7 @@
         <v>Leia Kernan</v>
       </c>
       <c r="G255" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C255,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C255,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C255,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lkernan71@wsj.com</v>
       </c>
       <c r="H255" s="2"/>
@@ -25681,7 +25681,7 @@
         <v>Rosaline McLae</v>
       </c>
       <c r="G256" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C256,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C256,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C256,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rmclae72@dailymotion.com</v>
       </c>
       <c r="H256" s="2"/>
@@ -25707,7 +25707,7 @@
         <v>Cleve Blowfelde</v>
       </c>
       <c r="G257" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C257,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C257,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C257,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cblowfelde73@ustream.tv</v>
       </c>
       <c r="H257" s="2"/>
@@ -25733,7 +25733,7 @@
         <v>Zacharias Kiffe</v>
       </c>
       <c r="G258" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C258,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C258,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C258,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>zkiffe74@cyberchimps.com</v>
       </c>
       <c r="H258" s="2"/>
@@ -25759,7 +25759,7 @@
         <v>Denyse O'Calleran</v>
       </c>
       <c r="G259" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C259,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C259,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C259,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>docalleran75@ucla.edu</v>
       </c>
       <c r="H259" s="2"/>
@@ -25785,7 +25785,7 @@
         <v>Cobby Cromwell</v>
       </c>
       <c r="G260" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C260,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C260,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C260,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ccromwell76@desdev.cn</v>
       </c>
       <c r="H260" s="2"/>
@@ -25811,7 +25811,7 @@
         <v>Irv Hay</v>
       </c>
       <c r="G261" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C261,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C261,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C261,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ihay77@lulu.com</v>
       </c>
       <c r="H261" s="2"/>
@@ -25837,7 +25837,7 @@
         <v>Tani Taffarello</v>
       </c>
       <c r="G262" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C262,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C262,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C262,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ttaffarello78@sciencedaily.com</v>
       </c>
       <c r="H262" s="2"/>
@@ -25863,7 +25863,7 @@
         <v>Monique Canty</v>
       </c>
       <c r="G263" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C263,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C263,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C263,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mcanty79@jigsy.com</v>
       </c>
       <c r="H263" s="2"/>
@@ -25889,7 +25889,7 @@
         <v>Javier Kopke</v>
       </c>
       <c r="G264" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C264,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C264,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C264,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jkopke7a@auda.org.au</v>
       </c>
       <c r="H264" s="2"/>
@@ -25914,9 +25914,9 @@
         <f>_xlfn.XLOOKUP(C265,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Mar McIver</v>
       </c>
-      <c r="G265" s="2">
-        <f>_xlfn.XLOOKUP(C265,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G265" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C265,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C265,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H265" s="2"/>
     </row>
@@ -25940,9 +25940,9 @@
         <f>_xlfn.XLOOKUP(C266,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Arabella Fransewich</v>
       </c>
-      <c r="G266" s="2">
-        <f>_xlfn.XLOOKUP(C266,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G266" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C266,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C266,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H266" s="2"/>
     </row>
@@ -25967,7 +25967,7 @@
         <v>Violette Hellmore</v>
       </c>
       <c r="G267" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C267,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C267,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C267,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vhellmore7d@bbc.co.uk</v>
       </c>
       <c r="H267" s="2"/>
@@ -25993,7 +25993,7 @@
         <v>Myles Seawright</v>
       </c>
       <c r="G268" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C268,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C268,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C268,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mseawright7e@nbcnews.com</v>
       </c>
       <c r="H268" s="2"/>
@@ -26019,7 +26019,7 @@
         <v>Silvana Northeast</v>
       </c>
       <c r="G269" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C269,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C269,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C269,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>snortheast7f@mashable.com</v>
       </c>
       <c r="H269" s="2"/>
@@ -26045,7 +26045,7 @@
         <v>Anselma Attwater</v>
       </c>
       <c r="G270" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C270,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C270,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C270,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aattwater5u@wikia.com</v>
       </c>
       <c r="H270" s="2"/>
@@ -26071,7 +26071,7 @@
         <v>Monica Fearon</v>
       </c>
       <c r="G271" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C271,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C271,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C271,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mfearon7h@reverbnation.com</v>
       </c>
       <c r="H271" s="2"/>
@@ -26096,9 +26096,9 @@
         <f>_xlfn.XLOOKUP(C272,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Barney Chisnell</v>
       </c>
-      <c r="G272" s="2">
-        <f>_xlfn.XLOOKUP(C272,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G272" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C272,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C272,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H272" s="2"/>
     </row>
@@ -26123,7 +26123,7 @@
         <v>Jasper Sisneros</v>
       </c>
       <c r="G273" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C273,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C273,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C273,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jsisneros7j@a8.net</v>
       </c>
       <c r="H273" s="2"/>
@@ -26149,7 +26149,7 @@
         <v>Zachariah Carlson</v>
       </c>
       <c r="G274" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C274,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C274,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C274,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>zcarlson7k@bigcartel.com</v>
       </c>
       <c r="H274" s="2"/>
@@ -26175,7 +26175,7 @@
         <v>Warner Maddox</v>
       </c>
       <c r="G275" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C275,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C275,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C275,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wmaddox7l@timesonline.co.uk</v>
       </c>
       <c r="H275" s="2"/>
@@ -26201,7 +26201,7 @@
         <v>Donnie Hedlestone</v>
       </c>
       <c r="G276" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C276,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C276,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C276,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dhedlestone7m@craigslist.org</v>
       </c>
       <c r="H276" s="2"/>
@@ -26227,7 +26227,7 @@
         <v>Teddi Crowthe</v>
       </c>
       <c r="G277" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C277,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C277,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C277,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tcrowthe7n@europa.eu</v>
       </c>
       <c r="H277" s="2"/>
@@ -26253,7 +26253,7 @@
         <v>Dorelia Bury</v>
       </c>
       <c r="G278" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C278,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C278,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C278,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dbury7o@tinyurl.com</v>
       </c>
       <c r="H278" s="2"/>
@@ -26279,7 +26279,7 @@
         <v>Gussy Broadbear</v>
       </c>
       <c r="G279" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C279,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C279,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C279,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gbroadbear7p@omniture.com</v>
       </c>
       <c r="H279" s="2"/>
@@ -26305,7 +26305,7 @@
         <v>Emlynne Palfrey</v>
       </c>
       <c r="G280" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C280,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C280,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C280,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>epalfrey7q@devhub.com</v>
       </c>
       <c r="H280" s="2"/>
@@ -26331,7 +26331,7 @@
         <v>Parsifal Metrick</v>
       </c>
       <c r="G281" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C281,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C281,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C281,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pmetrick7r@rakuten.co.jp</v>
       </c>
       <c r="H281" s="2"/>
@@ -26356,9 +26356,9 @@
         <f>_xlfn.XLOOKUP(C282,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Christopher Grieveson</v>
       </c>
-      <c r="G282" s="2">
-        <f>_xlfn.XLOOKUP(C282,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G282" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C282,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C282,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H282" s="2"/>
     </row>
@@ -26383,7 +26383,7 @@
         <v>Karlan Karby</v>
       </c>
       <c r="G283" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C283,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C283,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C283,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kkarby7t@sbwire.com</v>
       </c>
       <c r="H283" s="2"/>
@@ -26409,7 +26409,7 @@
         <v>Flory Crumpe</v>
       </c>
       <c r="G284" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C284,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C284,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C284,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fcrumpe7u@ftc.gov</v>
       </c>
       <c r="H284" s="2"/>
@@ -26435,7 +26435,7 @@
         <v>Amity Chatto</v>
       </c>
       <c r="G285" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C285,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C285,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C285,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>achatto7v@sakura.ne.jp</v>
       </c>
       <c r="H285" s="2"/>
@@ -26460,9 +26460,9 @@
         <f>_xlfn.XLOOKUP(C286,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nanine McCarthy</v>
       </c>
-      <c r="G286" s="2">
-        <f>_xlfn.XLOOKUP(C286,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G286" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C286,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C286,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H286" s="2"/>
     </row>
@@ -26486,9 +26486,9 @@
         <f>_xlfn.XLOOKUP(C287,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Lyndsey Megany</v>
       </c>
-      <c r="G287" s="2">
-        <f>_xlfn.XLOOKUP(C287,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G287" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C287,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C287,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H287" s="2"/>
     </row>
@@ -26513,7 +26513,7 @@
         <v>Byram Mergue</v>
       </c>
       <c r="G288" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C288,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C288,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C288,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bmergue7y@umn.edu</v>
       </c>
       <c r="H288" s="2"/>
@@ -26539,7 +26539,7 @@
         <v>Kerr Patise</v>
       </c>
       <c r="G289" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C289,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C289,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C289,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kpatise7z@jigsy.com</v>
       </c>
       <c r="H289" s="2"/>
@@ -26564,9 +26564,9 @@
         <f>_xlfn.XLOOKUP(C290,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Mathew Goulter</v>
       </c>
-      <c r="G290" s="2">
-        <f>_xlfn.XLOOKUP(C290,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G290" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C290,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C290,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H290" s="2"/>
     </row>
@@ -26590,9 +26590,9 @@
         <f>_xlfn.XLOOKUP(C291,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Marris Grcic</v>
       </c>
-      <c r="G291" s="2">
-        <f>_xlfn.XLOOKUP(C291,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G291" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C291,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C291,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H291" s="2"/>
     </row>
@@ -26617,7 +26617,7 @@
         <v>Domeniga Duke</v>
       </c>
       <c r="G292" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C292,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C292,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C292,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dduke82@vkontakte.ru</v>
       </c>
       <c r="H292" s="2"/>
@@ -26642,9 +26642,9 @@
         <f>_xlfn.XLOOKUP(C293,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Violante Skouling</v>
       </c>
-      <c r="G293" s="2">
-        <f>_xlfn.XLOOKUP(C293,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G293" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C293,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C293,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H293" s="2"/>
     </row>
@@ -26669,7 +26669,7 @@
         <v>Isidore Hussey</v>
       </c>
       <c r="G294" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C294,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C294,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C294,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ihussey84@mapy.cz</v>
       </c>
       <c r="H294" s="2"/>
@@ -26695,7 +26695,7 @@
         <v>Cassie Pinkerton</v>
       </c>
       <c r="G295" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C295,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C295,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C295,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cpinkerton85@upenn.edu</v>
       </c>
       <c r="H295" s="2"/>
@@ -26720,9 +26720,9 @@
         <f>_xlfn.XLOOKUP(C296,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Micki Fero</v>
       </c>
-      <c r="G296" s="2">
-        <f>_xlfn.XLOOKUP(C296,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G296" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C296,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C296,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H296" s="2"/>
     </row>
@@ -26746,9 +26746,9 @@
         <f>_xlfn.XLOOKUP(C297,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Cybill Graddell</v>
       </c>
-      <c r="G297" s="2">
-        <f>_xlfn.XLOOKUP(C297,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G297" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C297,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C297,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H297" s="2"/>
     </row>
@@ -26773,7 +26773,7 @@
         <v>Dorian Vizor</v>
       </c>
       <c r="G298" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C298,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C298,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C298,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dvizor88@furl.net</v>
       </c>
       <c r="H298" s="2"/>
@@ -26799,7 +26799,7 @@
         <v>Eddi Sedgebeer</v>
       </c>
       <c r="G299" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C299,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C299,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C299,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>esedgebeer89@oaic.gov.au</v>
       </c>
       <c r="H299" s="2"/>
@@ -26825,7 +26825,7 @@
         <v>Ken Lestrange</v>
       </c>
       <c r="G300" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C300,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C300,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C300,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>klestrange8a@lulu.com</v>
       </c>
       <c r="H300" s="2"/>
@@ -26851,7 +26851,7 @@
         <v>Lacee Tanti</v>
       </c>
       <c r="G301" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C301,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C301,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C301,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ltanti8b@techcrunch.com</v>
       </c>
       <c r="H301" s="2"/>
@@ -26877,7 +26877,7 @@
         <v>Arel De Lasci</v>
       </c>
       <c r="G302" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C302,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C302,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C302,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ade8c@1und1.de</v>
       </c>
       <c r="H302" s="2"/>
@@ -26903,7 +26903,7 @@
         <v>Trescha Jedrachowicz</v>
       </c>
       <c r="G303" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C303,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C303,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C303,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tjedrachowicz8d@acquirethisname.com</v>
       </c>
       <c r="H303" s="2"/>
@@ -26929,7 +26929,7 @@
         <v>Perkin Stonner</v>
       </c>
       <c r="G304" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C304,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C304,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C304,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pstonner8e@moonfruit.com</v>
       </c>
       <c r="H304" s="2"/>
@@ -26955,7 +26955,7 @@
         <v>Darrin Tingly</v>
       </c>
       <c r="G305" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C305,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C305,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C305,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dtingly8f@goo.ne.jp</v>
       </c>
       <c r="H305" s="2"/>
@@ -26981,7 +26981,7 @@
         <v>Claudetta Rushe</v>
       </c>
       <c r="G306" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C306,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C306,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C306,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>crushe8n@about.me</v>
       </c>
       <c r="H306" s="2"/>
@@ -27007,7 +27007,7 @@
         <v>Benn Checci</v>
       </c>
       <c r="G307" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C307,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C307,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C307,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bchecci8h@usa.gov</v>
       </c>
       <c r="H307" s="2"/>
@@ -27033,7 +27033,7 @@
         <v>Janifer Bagot</v>
       </c>
       <c r="G308" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C308,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C308,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C308,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jbagot8i@mac.com</v>
       </c>
       <c r="H308" s="2"/>
@@ -27059,7 +27059,7 @@
         <v>Ermin Beeble</v>
       </c>
       <c r="G309" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C309,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C309,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C309,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ebeeble8j@soundcloud.com</v>
       </c>
       <c r="H309" s="2"/>
@@ -27085,7 +27085,7 @@
         <v>Cos Fluin</v>
       </c>
       <c r="G310" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C310,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C310,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C310,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cfluin8k@flickr.com</v>
       </c>
       <c r="H310" s="2"/>
@@ -27111,7 +27111,7 @@
         <v>Eveleen Bletsor</v>
       </c>
       <c r="G311" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C311,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C311,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C311,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ebletsor8l@vinaora.com</v>
       </c>
       <c r="H311" s="2"/>
@@ -27137,7 +27137,7 @@
         <v>Paola Brydell</v>
       </c>
       <c r="G312" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C312,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C312,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C312,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pbrydell8m@bloglovin.com</v>
       </c>
       <c r="H312" s="2"/>
@@ -27163,7 +27163,7 @@
         <v>Claudetta Rushe</v>
       </c>
       <c r="G313" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C313,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C313,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C313,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>crushe8n@about.me</v>
       </c>
       <c r="H313" s="2"/>
@@ -27189,7 +27189,7 @@
         <v>Natka Leethem</v>
       </c>
       <c r="G314" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C314,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C314,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C314,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nleethem8o@mac.com</v>
       </c>
       <c r="H314" s="2"/>
@@ -27215,7 +27215,7 @@
         <v>Ailene Nesfield</v>
       </c>
       <c r="G315" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C315,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C315,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C315,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>anesfield8p@people.com.cn</v>
       </c>
       <c r="H315" s="2"/>
@@ -27240,9 +27240,9 @@
         <f>_xlfn.XLOOKUP(C316,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Stacy Pickworth</v>
       </c>
-      <c r="G316" s="2">
-        <f>_xlfn.XLOOKUP(C316,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G316" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C316,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C316,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H316" s="2"/>
     </row>
@@ -27267,7 +27267,7 @@
         <v>Melli Brockway</v>
       </c>
       <c r="G317" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C317,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C317,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C317,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mbrockway8r@ibm.com</v>
       </c>
       <c r="H317" s="2"/>
@@ -27293,7 +27293,7 @@
         <v>Nanny Lush</v>
       </c>
       <c r="G318" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C318,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C318,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C318,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nlush8s@dedecms.com</v>
       </c>
       <c r="H318" s="2"/>
@@ -27319,7 +27319,7 @@
         <v>Selma McMillian</v>
       </c>
       <c r="G319" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C319,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C319,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C319,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>smcmillian8t@csmonitor.com</v>
       </c>
       <c r="H319" s="2"/>
@@ -27345,7 +27345,7 @@
         <v>Tess Bennison</v>
       </c>
       <c r="G320" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C320,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C320,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C320,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tbennison8u@google.cn</v>
       </c>
       <c r="H320" s="2"/>
@@ -27371,7 +27371,7 @@
         <v>Gabie Tweed</v>
       </c>
       <c r="G321" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C321,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C321,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C321,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gtweed8v@yolasite.com</v>
       </c>
       <c r="H321" s="2"/>
@@ -27397,7 +27397,7 @@
         <v>Gabie Tweed</v>
       </c>
       <c r="G322" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C322,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C322,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C322,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gtweed8v@yolasite.com</v>
       </c>
       <c r="H322" s="2"/>
@@ -27423,7 +27423,7 @@
         <v>Gaile Goggin</v>
       </c>
       <c r="G323" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C323,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C323,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C323,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ggoggin8x@wix.com</v>
       </c>
       <c r="H323" s="2"/>
@@ -27449,7 +27449,7 @@
         <v>Skylar Jeyness</v>
       </c>
       <c r="G324" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C324,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C324,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C324,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sjeyness8y@biglobe.ne.jp</v>
       </c>
       <c r="H324" s="2"/>
@@ -27475,7 +27475,7 @@
         <v>Donica Bonhome</v>
       </c>
       <c r="G325" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C325,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C325,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C325,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dbonhome8z@shinystat.com</v>
       </c>
       <c r="H325" s="2"/>
@@ -27500,9 +27500,9 @@
         <f>_xlfn.XLOOKUP(C326,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Diena Peetermann</v>
       </c>
-      <c r="G326" s="2">
-        <f>_xlfn.XLOOKUP(C326,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G326" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C326,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C326,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H326" s="2"/>
     </row>
@@ -27527,7 +27527,7 @@
         <v>Trina Le Sarr</v>
       </c>
       <c r="G327" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C327,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C327,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C327,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tle91@epa.gov</v>
       </c>
       <c r="H327" s="2"/>
@@ -27552,9 +27552,9 @@
         <f>_xlfn.XLOOKUP(C328,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Flynn Antony</v>
       </c>
-      <c r="G328" s="2">
-        <f>_xlfn.XLOOKUP(C328,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G328" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C328,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C328,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H328" s="2"/>
     </row>
@@ -27579,7 +27579,7 @@
         <v>Baudoin Alldridge</v>
       </c>
       <c r="G329" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C329,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C329,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C329,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>balldridge93@yandex.ru</v>
       </c>
       <c r="H329" s="2"/>
@@ -27604,9 +27604,9 @@
         <f>_xlfn.XLOOKUP(C330,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Homer Dulany</v>
       </c>
-      <c r="G330" s="2">
-        <f>_xlfn.XLOOKUP(C330,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G330" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C330,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C330,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H330" s="2"/>
     </row>
@@ -27631,7 +27631,7 @@
         <v>Lisa Goodger</v>
       </c>
       <c r="G331" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C331,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C331,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C331,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lgoodger95@guardian.co.uk</v>
       </c>
       <c r="H331" s="2"/>
@@ -27657,7 +27657,7 @@
         <v>Selma McMillian</v>
       </c>
       <c r="G332" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C332,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C332,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C332,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>smcmillian8t@csmonitor.com</v>
       </c>
       <c r="H332" s="2"/>
@@ -27683,7 +27683,7 @@
         <v>Corine Drewett</v>
       </c>
       <c r="G333" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C333,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C333,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C333,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cdrewett97@wikipedia.org</v>
       </c>
       <c r="H333" s="2"/>
@@ -27709,7 +27709,7 @@
         <v>Quinn Parsons</v>
       </c>
       <c r="G334" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C334,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C334,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C334,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>qparsons98@blogtalkradio.com</v>
       </c>
       <c r="H334" s="2"/>
@@ -27735,7 +27735,7 @@
         <v>Vivyan Ceely</v>
       </c>
       <c r="G335" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C335,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C335,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C335,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vceely99@auda.org.au</v>
       </c>
       <c r="H335" s="2"/>
@@ -27760,9 +27760,9 @@
         <f>_xlfn.XLOOKUP(C336,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Elonore Goodings</v>
       </c>
-      <c r="G336" s="2">
-        <f>_xlfn.XLOOKUP(C336,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G336" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C336,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C336,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H336" s="2"/>
     </row>
@@ -27787,7 +27787,7 @@
         <v>Clement Vasiliev</v>
       </c>
       <c r="G337" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C337,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C337,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C337,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cvasiliev9b@discuz.net</v>
       </c>
       <c r="H337" s="2"/>
@@ -27813,7 +27813,7 @@
         <v>Terencio O'Moylan</v>
       </c>
       <c r="G338" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C338,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C338,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C338,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tomoylan9c@liveinternet.ru</v>
       </c>
       <c r="H338" s="2"/>
@@ -27838,9 +27838,9 @@
         <f>_xlfn.XLOOKUP(C339,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Flynn Antony</v>
       </c>
-      <c r="G339" s="2">
-        <f>_xlfn.XLOOKUP(C339,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G339" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C339,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C339,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H339" s="2"/>
     </row>
@@ -27865,7 +27865,7 @@
         <v>Wyatan Fetherston</v>
       </c>
       <c r="G340" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C340,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C340,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C340,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wfetherston9e@constantcontact.com</v>
       </c>
       <c r="H340" s="2"/>
@@ -27891,7 +27891,7 @@
         <v>Emmaline Rasmus</v>
       </c>
       <c r="G341" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C341,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C341,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C341,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>erasmus9f@techcrunch.com</v>
       </c>
       <c r="H341" s="2"/>
@@ -27917,7 +27917,7 @@
         <v>Wesley Giorgioni</v>
       </c>
       <c r="G342" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C342,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C342,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C342,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wgiorgioni9g@wikipedia.org</v>
       </c>
       <c r="H342" s="2"/>
@@ -27943,7 +27943,7 @@
         <v>Lucienne Scargle</v>
       </c>
       <c r="G343" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C343,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C343,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C343,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lscargle9h@myspace.com</v>
       </c>
       <c r="H343" s="2"/>
@@ -27969,7 +27969,7 @@
         <v>Lucienne Scargle</v>
       </c>
       <c r="G344" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C344,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C344,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C344,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lscargle9h@myspace.com</v>
       </c>
       <c r="H344" s="2"/>
@@ -27995,7 +27995,7 @@
         <v>Noam Climance</v>
       </c>
       <c r="G345" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C345,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C345,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C345,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nclimance9j@europa.eu</v>
       </c>
       <c r="H345" s="2"/>
@@ -28020,9 +28020,9 @@
         <f>_xlfn.XLOOKUP(C346,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Catarina Donn</v>
       </c>
-      <c r="G346" s="2">
-        <f>_xlfn.XLOOKUP(C346,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G346" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C346,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C346,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H346" s="2"/>
     </row>
@@ -28047,7 +28047,7 @@
         <v>Ameline Snazle</v>
       </c>
       <c r="G347" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C347,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C347,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C347,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>asnazle9l@oracle.com</v>
       </c>
       <c r="H347" s="2"/>
@@ -28073,7 +28073,7 @@
         <v>Rebeka Worg</v>
       </c>
       <c r="G348" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C348,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C348,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C348,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rworg9m@arstechnica.com</v>
       </c>
       <c r="H348" s="2"/>
@@ -28099,7 +28099,7 @@
         <v>Lewes Danes</v>
       </c>
       <c r="G349" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C349,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C349,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C349,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ldanes9n@umn.edu</v>
       </c>
       <c r="H349" s="2"/>
@@ -28125,7 +28125,7 @@
         <v>Shelli Keynd</v>
       </c>
       <c r="G350" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C350,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C350,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C350,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>skeynd9o@narod.ru</v>
       </c>
       <c r="H350" s="2"/>
@@ -28151,7 +28151,7 @@
         <v>Dell Daveridge</v>
       </c>
       <c r="G351" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C351,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C351,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C351,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ddaveridge9p@arstechnica.com</v>
       </c>
       <c r="H351" s="2"/>
@@ -28177,7 +28177,7 @@
         <v>Joshuah Awdry</v>
       </c>
       <c r="G352" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C352,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C352,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C352,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jawdry9q@utexas.edu</v>
       </c>
       <c r="H352" s="2"/>
@@ -28203,7 +28203,7 @@
         <v>Ethel Ryles</v>
       </c>
       <c r="G353" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C353,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C353,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C353,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>eryles9r@fastcompany.com</v>
       </c>
       <c r="H353" s="2"/>
@@ -28228,9 +28228,9 @@
         <f>_xlfn.XLOOKUP(C354,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Flynn Antony</v>
       </c>
-      <c r="G354" s="2">
-        <f>_xlfn.XLOOKUP(C354,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G354" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C354,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C354,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H354" s="2"/>
     </row>
@@ -28254,9 +28254,9 @@
         <f>_xlfn.XLOOKUP(C355,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Maitilde Boxill</v>
       </c>
-      <c r="G355" s="2">
-        <f>_xlfn.XLOOKUP(C355,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G355" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C355,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C355,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H355" s="2"/>
     </row>
@@ -28281,7 +28281,7 @@
         <v>Jodee Caldicott</v>
       </c>
       <c r="G356" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C356,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C356,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C356,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jcaldicott9u@usda.gov</v>
       </c>
       <c r="H356" s="2"/>
@@ -28307,7 +28307,7 @@
         <v>Marianna Vedmore</v>
       </c>
       <c r="G357" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C357,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C357,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C357,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mvedmore9v@a8.net</v>
       </c>
       <c r="H357" s="2"/>
@@ -28333,7 +28333,7 @@
         <v>Willey Romao</v>
       </c>
       <c r="G358" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C358,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C358,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C358,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wromao9w@chronoengine.com</v>
       </c>
       <c r="H358" s="2"/>
@@ -28358,9 +28358,9 @@
         <f>_xlfn.XLOOKUP(C359,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Enriqueta Ixor</v>
       </c>
-      <c r="G359" s="2">
-        <f>_xlfn.XLOOKUP(C359,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G359" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C359,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C359,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H359" s="2"/>
     </row>
@@ -28385,7 +28385,7 @@
         <v>Tomasina Cotmore</v>
       </c>
       <c r="G360" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C360,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C360,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C360,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tcotmore9y@amazonaws.com</v>
       </c>
       <c r="H360" s="2"/>
@@ -28411,7 +28411,7 @@
         <v>Yuma Skipsey</v>
       </c>
       <c r="G361" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C361,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C361,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C361,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>yskipsey9z@spotify.com</v>
       </c>
       <c r="H361" s="2"/>
@@ -28437,7 +28437,7 @@
         <v>Nicko Corps</v>
       </c>
       <c r="G362" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C362,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C362,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C362,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ncorpsa0@gmpg.org</v>
       </c>
       <c r="H362" s="2"/>
@@ -28463,7 +28463,7 @@
         <v>Nicko Corps</v>
       </c>
       <c r="G363" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C363,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C363,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C363,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ncorpsa0@gmpg.org</v>
       </c>
       <c r="H363" s="2"/>
@@ -28489,7 +28489,7 @@
         <v>Feliks Babber</v>
       </c>
       <c r="G364" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C364,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C364,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C364,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fbabbera2@stanford.edu</v>
       </c>
       <c r="H364" s="2"/>
@@ -28515,7 +28515,7 @@
         <v>Kaja Loxton</v>
       </c>
       <c r="G365" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C365,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C365,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C365,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kloxtona3@opensource.org</v>
       </c>
       <c r="H365" s="2"/>
@@ -28541,7 +28541,7 @@
         <v>Parker Tofful</v>
       </c>
       <c r="G366" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C366,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C366,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C366,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ptoffula4@posterous.com</v>
       </c>
       <c r="H366" s="2"/>
@@ -28567,7 +28567,7 @@
         <v>Casi Gwinnett</v>
       </c>
       <c r="G367" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C367,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C367,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C367,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cgwinnetta5@behance.net</v>
       </c>
       <c r="H367" s="2"/>
@@ -28592,9 +28592,9 @@
         <f>_xlfn.XLOOKUP(C368,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Saree Ellesworth</v>
       </c>
-      <c r="G368" s="2">
-        <f>_xlfn.XLOOKUP(C368,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G368" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C368,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C368,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H368" s="2"/>
     </row>
@@ -28618,9 +28618,9 @@
         <f>_xlfn.XLOOKUP(C369,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Silvio Iorizzi</v>
       </c>
-      <c r="G369" s="2">
-        <f>_xlfn.XLOOKUP(C369,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G369" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C369,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C369,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H369" s="2"/>
     </row>
@@ -28645,7 +28645,7 @@
         <v>Leesa Flaonier</v>
       </c>
       <c r="G370" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C370,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C370,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C370,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lflaoniera8@wordpress.org</v>
       </c>
       <c r="H370" s="2"/>
@@ -28670,9 +28670,9 @@
         <f>_xlfn.XLOOKUP(C371,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Abba Pummell</v>
       </c>
-      <c r="G371" s="2">
-        <f>_xlfn.XLOOKUP(C371,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G371" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C371,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C371,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H371" s="2"/>
     </row>
@@ -28697,7 +28697,7 @@
         <v>Corinna Catcheside</v>
       </c>
       <c r="G372" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C372,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C372,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C372,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ccatchesideaa@macromedia.com</v>
       </c>
       <c r="H372" s="2"/>
@@ -28723,7 +28723,7 @@
         <v>Cortney Gibbonson</v>
       </c>
       <c r="G373" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C373,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C373,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C373,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cgibbonsonab@accuweather.com</v>
       </c>
       <c r="H373" s="2"/>
@@ -28749,7 +28749,7 @@
         <v>Terri Farra</v>
       </c>
       <c r="G374" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C374,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C374,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C374,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tfarraac@behance.net</v>
       </c>
       <c r="H374" s="2"/>
@@ -28774,9 +28774,9 @@
         <f>_xlfn.XLOOKUP(C375,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Corney Curme</v>
       </c>
-      <c r="G375" s="2">
-        <f>_xlfn.XLOOKUP(C375,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G375" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C375,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C375,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H375" s="2"/>
     </row>
@@ -28801,7 +28801,7 @@
         <v>Gothart Bamfield</v>
       </c>
       <c r="G376" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C376,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C376,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C376,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gbamfieldae@yellowpages.com</v>
       </c>
       <c r="H376" s="2"/>
@@ -28827,7 +28827,7 @@
         <v>Waylin Hollingdale</v>
       </c>
       <c r="G377" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C377,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C377,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C377,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>whollingdaleaf@about.me</v>
       </c>
       <c r="H377" s="2"/>
@@ -28853,7 +28853,7 @@
         <v>Judd De Leek</v>
       </c>
       <c r="G378" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C378,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C378,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C378,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdeag@xrea.com</v>
       </c>
       <c r="H378" s="2"/>
@@ -28879,7 +28879,7 @@
         <v>Vanya Skullet</v>
       </c>
       <c r="G379" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C379,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C379,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C379,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vskulletah@tinyurl.com</v>
       </c>
       <c r="H379" s="2"/>
@@ -28905,7 +28905,7 @@
         <v>Jany Rudeforth</v>
       </c>
       <c r="G380" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C380,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C380,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C380,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jrudeforthai@wunderground.com</v>
       </c>
       <c r="H380" s="2"/>
@@ -28931,7 +28931,7 @@
         <v>Ashbey Tomaszewski</v>
       </c>
       <c r="G381" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C381,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C381,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C381,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>atomaszewskiaj@answers.com</v>
       </c>
       <c r="H381" s="2"/>
@@ -28956,9 +28956,9 @@
         <f>_xlfn.XLOOKUP(C382,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Flynn Antony</v>
       </c>
-      <c r="G382" s="2">
-        <f>_xlfn.XLOOKUP(C382,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G382" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C382,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C382,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H382" s="2"/>
     </row>
@@ -28983,7 +28983,7 @@
         <v>Pren Bess</v>
       </c>
       <c r="G383" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C383,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C383,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C383,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pbessal@qq.com</v>
       </c>
       <c r="H383" s="2"/>
@@ -29009,7 +29009,7 @@
         <v>Elka Windress</v>
       </c>
       <c r="G384" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C384,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C384,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C384,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ewindressam@marketwatch.com</v>
       </c>
       <c r="H384" s="2"/>
@@ -29034,9 +29034,9 @@
         <f>_xlfn.XLOOKUP(C385,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Marty Kidstoun</v>
       </c>
-      <c r="G385" s="2">
-        <f>_xlfn.XLOOKUP(C385,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G385" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C385,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C385,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H385" s="2"/>
     </row>
@@ -29060,9 +29060,9 @@
         <f>_xlfn.XLOOKUP(C386,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nickey Dimbleby</v>
       </c>
-      <c r="G386" s="2">
-        <f>_xlfn.XLOOKUP(C386,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G386" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C386,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C386,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H386" s="2"/>
     </row>
@@ -29087,7 +29087,7 @@
         <v>Virgil Baumadier</v>
       </c>
       <c r="G387" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C387,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C387,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C387,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vbaumadierap@google.cn</v>
       </c>
       <c r="H387" s="2"/>
@@ -29112,9 +29112,9 @@
         <f>_xlfn.XLOOKUP(C388,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Lenore Messenbird</v>
       </c>
-      <c r="G388" s="2">
-        <f>_xlfn.XLOOKUP(C388,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G388" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C388,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C388,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H388" s="2"/>
     </row>
@@ -29139,7 +29139,7 @@
         <v>Shirleen Welds</v>
       </c>
       <c r="G389" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C389,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C389,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C389,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sweldsar@wired.com</v>
       </c>
       <c r="H389" s="2"/>
@@ -29165,7 +29165,7 @@
         <v>Maisie Sarvar</v>
       </c>
       <c r="G390" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C390,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C390,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C390,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>msarvaras@artisteer.com</v>
       </c>
       <c r="H390" s="2"/>
@@ -29191,7 +29191,7 @@
         <v>Andrej Havick</v>
       </c>
       <c r="G391" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C391,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C391,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C391,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ahavickat@nsw.gov.au</v>
       </c>
       <c r="H391" s="2"/>
@@ -29217,7 +29217,7 @@
         <v>Sloan Diviny</v>
       </c>
       <c r="G392" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C392,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C392,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C392,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sdivinyau@ask.com</v>
       </c>
       <c r="H392" s="2"/>
@@ -29243,7 +29243,7 @@
         <v>Itch Norquoy</v>
       </c>
       <c r="G393" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C393,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C393,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C393,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>inorquoyav@businessweek.com</v>
       </c>
       <c r="H393" s="2"/>
@@ -29269,7 +29269,7 @@
         <v>Anson Iddison</v>
       </c>
       <c r="G394" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C394,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C394,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C394,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aiddisonaw@usa.gov</v>
       </c>
       <c r="H394" s="2"/>
@@ -29295,7 +29295,7 @@
         <v>Anson Iddison</v>
       </c>
       <c r="G395" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C395,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C395,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C395,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aiddisonaw@usa.gov</v>
       </c>
       <c r="H395" s="2"/>
@@ -29321,7 +29321,7 @@
         <v>Randal Longfield</v>
       </c>
       <c r="G396" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C396,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C396,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C396,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rlongfielday@bluehost.com</v>
       </c>
       <c r="H396" s="2"/>
@@ -29347,7 +29347,7 @@
         <v>Gregorius Kislingbury</v>
       </c>
       <c r="G397" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C397,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C397,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C397,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gkislingburyaz@samsung.com</v>
       </c>
       <c r="H397" s="2"/>
@@ -29373,7 +29373,7 @@
         <v>Xenos Gibbons</v>
       </c>
       <c r="G398" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C398,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C398,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C398,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>xgibbonsb0@artisteer.com</v>
       </c>
       <c r="H398" s="2"/>
@@ -29399,7 +29399,7 @@
         <v>Fleur Parres</v>
       </c>
       <c r="G399" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C399,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C399,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C399,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fparresb1@imageshack.us</v>
       </c>
       <c r="H399" s="2"/>
@@ -29425,7 +29425,7 @@
         <v>Gran Sibray</v>
       </c>
       <c r="G400" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C400,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C400,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C400,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gsibrayb2@wsj.com</v>
       </c>
       <c r="H400" s="2"/>
@@ -29451,7 +29451,7 @@
         <v>Ingelbert Hotchkin</v>
       </c>
       <c r="G401" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C401,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C401,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C401,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ihotchkinb3@mit.edu</v>
       </c>
       <c r="H401" s="2"/>
@@ -29477,7 +29477,7 @@
         <v>Neely Broadberrie</v>
       </c>
       <c r="G402" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C402,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C402,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C402,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nbroadberrieb4@gnu.org</v>
       </c>
       <c r="H402" s="2"/>
@@ -29503,7 +29503,7 @@
         <v>Rutger Pithcock</v>
       </c>
       <c r="G403" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C403,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C403,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C403,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rpithcockb5@yellowbook.com</v>
       </c>
       <c r="H403" s="2"/>
@@ -29529,7 +29529,7 @@
         <v>Gale Croysdale</v>
       </c>
       <c r="G404" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C404,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C404,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C404,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gcroysdaleb6@nih.gov</v>
       </c>
       <c r="H404" s="2"/>
@@ -29555,7 +29555,7 @@
         <v>Benedetto Gozzett</v>
       </c>
       <c r="G405" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C405,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C405,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C405,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bgozzettb7@github.com</v>
       </c>
       <c r="H405" s="2"/>
@@ -29581,7 +29581,7 @@
         <v>Tania Craggs</v>
       </c>
       <c r="G406" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C406,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C406,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C406,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tcraggsb8@house.gov</v>
       </c>
       <c r="H406" s="2"/>
@@ -29607,7 +29607,7 @@
         <v>Leonie Cullrford</v>
       </c>
       <c r="G407" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C407,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C407,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C407,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lcullrfordb9@xing.com</v>
       </c>
       <c r="H407" s="2"/>
@@ -29633,7 +29633,7 @@
         <v>Auguste Rizon</v>
       </c>
       <c r="G408" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C408,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C408,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C408,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>arizonba@xing.com</v>
       </c>
       <c r="H408" s="2"/>
@@ -29658,9 +29658,9 @@
         <f>_xlfn.XLOOKUP(C409,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Lorin Guerrazzi</v>
       </c>
-      <c r="G409" s="2">
-        <f>_xlfn.XLOOKUP(C409,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G409" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C409,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C409,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H409" s="2"/>
     </row>
@@ -29685,7 +29685,7 @@
         <v>Felice Miell</v>
       </c>
       <c r="G410" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C410,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C410,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C410,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fmiellbc@spiegel.de</v>
       </c>
       <c r="H410" s="2"/>
@@ -29710,9 +29710,9 @@
         <f>_xlfn.XLOOKUP(C411,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hamish Skeech</v>
       </c>
-      <c r="G411" s="2">
-        <f>_xlfn.XLOOKUP(C411,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G411" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C411,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C411,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H411" s="2"/>
     </row>
@@ -29736,9 +29736,9 @@
         <f>_xlfn.XLOOKUP(C412,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Giordano Lorenzin</v>
       </c>
-      <c r="G412" s="2">
-        <f>_xlfn.XLOOKUP(C412,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G412" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C412,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C412,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H412" s="2"/>
     </row>
@@ -29762,9 +29762,9 @@
         <f>_xlfn.XLOOKUP(C413,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Harwilll Bishell</v>
       </c>
-      <c r="G413" s="2">
-        <f>_xlfn.XLOOKUP(C413,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G413" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C413,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C413,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H413" s="2"/>
     </row>
@@ -29788,9 +29788,9 @@
         <f>_xlfn.XLOOKUP(C414,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Freeland Missenden</v>
       </c>
-      <c r="G414" s="2">
-        <f>_xlfn.XLOOKUP(C414,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G414" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C414,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C414,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H414" s="2"/>
     </row>
@@ -29815,7 +29815,7 @@
         <v>Waylan Springall</v>
       </c>
       <c r="G415" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C415,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C415,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C415,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wspringallbh@jugem.jp</v>
       </c>
       <c r="H415" s="2"/>
@@ -29840,9 +29840,9 @@
         <f>_xlfn.XLOOKUP(C416,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kiri Avramow</v>
       </c>
-      <c r="G416" s="2">
-        <f>_xlfn.XLOOKUP(C416,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G416" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C416,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C416,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H416" s="2"/>
     </row>
@@ -29867,7 +29867,7 @@
         <v>Gregg Hawkyens</v>
       </c>
       <c r="G417" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C417,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C417,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C417,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ghawkyensbj@census.gov</v>
       </c>
       <c r="H417" s="2"/>
@@ -29892,9 +29892,9 @@
         <f>_xlfn.XLOOKUP(C418,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Reggis Pracy</v>
       </c>
-      <c r="G418" s="2">
-        <f>_xlfn.XLOOKUP(C418,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G418" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C418,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C418,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H418" s="2"/>
     </row>
@@ -29918,9 +29918,9 @@
         <f>_xlfn.XLOOKUP(C419,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Paula Denis</v>
       </c>
-      <c r="G419" s="2">
-        <f>_xlfn.XLOOKUP(C419,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G419" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C419,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C419,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H419" s="2"/>
     </row>
@@ -29945,7 +29945,7 @@
         <v>Broderick McGilvra</v>
       </c>
       <c r="G420" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C420,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C420,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C420,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bmcgilvrabm@so-net.ne.jp</v>
       </c>
       <c r="H420" s="2"/>
@@ -29971,7 +29971,7 @@
         <v>Annabella Danzey</v>
       </c>
       <c r="G421" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C421,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C421,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C421,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>adanzeybn@github.com</v>
       </c>
       <c r="H421" s="2"/>
@@ -29997,7 +29997,7 @@
         <v>Terri Farra</v>
       </c>
       <c r="G422" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C422,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C422,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C422,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tfarraac@behance.net</v>
       </c>
       <c r="H422" s="2"/>
@@ -30023,7 +30023,7 @@
         <v>Terri Farra</v>
       </c>
       <c r="G423" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C423,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C423,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C423,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tfarraac@behance.net</v>
       </c>
       <c r="H423" s="2"/>
@@ -30048,9 +30048,9 @@
         <f>_xlfn.XLOOKUP(C424,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nevins Glowacz</v>
       </c>
-      <c r="G424" s="2">
-        <f>_xlfn.XLOOKUP(C424,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G424" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C424,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C424,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H424" s="2"/>
     </row>
@@ -30074,9 +30074,9 @@
         <f>_xlfn.XLOOKUP(C425,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Adelice Isabell</v>
       </c>
-      <c r="G425" s="2">
-        <f>_xlfn.XLOOKUP(C425,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G425" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C425,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C425,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H425" s="2"/>
     </row>
@@ -30101,7 +30101,7 @@
         <v>Yulma Dombrell</v>
       </c>
       <c r="G426" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C426,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C426,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C426,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ydombrellbs@dedecms.com</v>
       </c>
       <c r="H426" s="2"/>
@@ -30127,7 +30127,7 @@
         <v>Alric Darth</v>
       </c>
       <c r="G427" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C427,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C427,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C427,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>adarthbt@t.co</v>
       </c>
       <c r="H427" s="2"/>
@@ -30153,7 +30153,7 @@
         <v>Manuel Darrigoe</v>
       </c>
       <c r="G428" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C428,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C428,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C428,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mdarrigoebu@hud.gov</v>
       </c>
       <c r="H428" s="2"/>
@@ -30178,9 +30178,9 @@
         <f>_xlfn.XLOOKUP(C429,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kynthia Berick</v>
       </c>
-      <c r="G429" s="2">
-        <f>_xlfn.XLOOKUP(C429,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G429" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C429,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C429,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H429" s="2"/>
     </row>
@@ -30205,7 +30205,7 @@
         <v>Minetta Ackrill</v>
       </c>
       <c r="G430" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C430,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C430,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C430,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mackrillbw@bandcamp.com</v>
       </c>
       <c r="H430" s="2"/>
@@ -30231,7 +30231,7 @@
         <v>Terri Farra</v>
       </c>
       <c r="G431" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C431,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C431,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C431,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tfarraac@behance.net</v>
       </c>
       <c r="H431" s="2"/>
@@ -30257,7 +30257,7 @@
         <v>Melosa Kippen</v>
       </c>
       <c r="G432" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C432,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C432,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C432,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mkippenby@dion.ne.jp</v>
       </c>
       <c r="H432" s="2"/>
@@ -30283,7 +30283,7 @@
         <v>Witty Ranson</v>
       </c>
       <c r="G433" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C433,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C433,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C433,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wransonbz@ted.com</v>
       </c>
       <c r="H433" s="2"/>
@@ -30308,9 +30308,9 @@
         <f>_xlfn.XLOOKUP(C434,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Rod Gowdie</v>
       </c>
-      <c r="G434" s="2">
-        <f>_xlfn.XLOOKUP(C434,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G434" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C434,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C434,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H434" s="2"/>
     </row>
@@ -30335,7 +30335,7 @@
         <v>Lemuel Rignold</v>
       </c>
       <c r="G435" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C435,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C435,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C435,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lrignoldc1@miibeian.gov.cn</v>
       </c>
       <c r="H435" s="2"/>
@@ -30360,9 +30360,9 @@
         <f>_xlfn.XLOOKUP(C436,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nevsa Fields</v>
       </c>
-      <c r="G436" s="2">
-        <f>_xlfn.XLOOKUP(C436,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G436" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C436,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C436,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H436" s="2"/>
     </row>
@@ -30387,7 +30387,7 @@
         <v>Chance Rowthorn</v>
       </c>
       <c r="G437" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C437,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C437,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C437,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>crowthornc3@msn.com</v>
       </c>
       <c r="H437" s="2"/>
@@ -30413,7 +30413,7 @@
         <v>Orly Ryland</v>
       </c>
       <c r="G438" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C438,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C438,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C438,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>orylandc4@deviantart.com</v>
       </c>
       <c r="H438" s="2"/>
@@ -30438,9 +30438,9 @@
         <f>_xlfn.XLOOKUP(C439,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Willabella Abramski</v>
       </c>
-      <c r="G439" s="2">
-        <f>_xlfn.XLOOKUP(C439,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G439" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C439,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C439,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H439" s="2"/>
     </row>
@@ -30465,7 +30465,7 @@
         <v>Morgen Seson</v>
       </c>
       <c r="G440" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C440,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C440,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C440,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>msesonck@census.gov</v>
       </c>
       <c r="H440" s="2"/>
@@ -30491,7 +30491,7 @@
         <v>Chickie Ragless</v>
       </c>
       <c r="G441" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C441,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C441,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C441,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>craglessc7@webmd.com</v>
       </c>
       <c r="H441" s="2"/>
@@ -30517,7 +30517,7 @@
         <v>Freda Hollows</v>
       </c>
       <c r="G442" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C442,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C442,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C442,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fhollowsc8@blogtalkradio.com</v>
       </c>
       <c r="H442" s="2"/>
@@ -30543,7 +30543,7 @@
         <v>Livy Lathleiff</v>
       </c>
       <c r="G443" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C443,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C443,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C443,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>llathleiffc9@nationalgeographic.com</v>
       </c>
       <c r="H443" s="2"/>
@@ -30569,7 +30569,7 @@
         <v>Koralle Heads</v>
       </c>
       <c r="G444" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C444,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C444,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C444,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kheadsca@jalbum.net</v>
       </c>
       <c r="H444" s="2"/>
@@ -30595,7 +30595,7 @@
         <v>Theo Bowne</v>
       </c>
       <c r="G445" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C445,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C445,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C445,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tbownecb@unicef.org</v>
       </c>
       <c r="H445" s="2"/>
@@ -30621,7 +30621,7 @@
         <v>Rasia Jacquemard</v>
       </c>
       <c r="G446" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C446,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C446,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C446,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rjacquemardcc@acquirethisname.com</v>
       </c>
       <c r="H446" s="2"/>
@@ -30647,7 +30647,7 @@
         <v>Kizzie Warman</v>
       </c>
       <c r="G447" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C447,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C447,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C447,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kwarmancd@printfriendly.com</v>
       </c>
       <c r="H447" s="2"/>
@@ -30673,7 +30673,7 @@
         <v>Wain Cholomin</v>
       </c>
       <c r="G448" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C448,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C448,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C448,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wcholomince@about.com</v>
       </c>
       <c r="H448" s="2"/>
@@ -30699,7 +30699,7 @@
         <v>Arleen Braidman</v>
       </c>
       <c r="G449" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C449,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C449,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C449,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abraidmancf@census.gov</v>
       </c>
       <c r="H449" s="2"/>
@@ -30725,7 +30725,7 @@
         <v>Pru Durban</v>
       </c>
       <c r="G450" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C450,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C450,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C450,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pdurbancg@symantec.com</v>
       </c>
       <c r="H450" s="2"/>
@@ -30751,7 +30751,7 @@
         <v>Antone Harrold</v>
       </c>
       <c r="G451" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C451,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C451,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C451,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aharroldch@miibeian.gov.cn</v>
       </c>
       <c r="H451" s="2"/>
@@ -30777,7 +30777,7 @@
         <v>Sim Pamphilon</v>
       </c>
       <c r="G452" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C452,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C452,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C452,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>spamphilonci@mlb.com</v>
       </c>
       <c r="H452" s="2"/>
@@ -30803,7 +30803,7 @@
         <v>Mohandis Spurden</v>
       </c>
       <c r="G453" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C453,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C453,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C453,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mspurdencj@exblog.jp</v>
       </c>
       <c r="H453" s="2"/>
@@ -30829,7 +30829,7 @@
         <v>Morgen Seson</v>
       </c>
       <c r="G454" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C454,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C454,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C454,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>msesonck@census.gov</v>
       </c>
       <c r="H454" s="2"/>
@@ -30855,7 +30855,7 @@
         <v>Nalani Pirrone</v>
       </c>
       <c r="G455" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C455,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C455,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C455,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>npirronecl@weibo.com</v>
       </c>
       <c r="H455" s="2"/>
@@ -30881,7 +30881,7 @@
         <v>Reube Cawley</v>
       </c>
       <c r="G456" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C456,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C456,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C456,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rcawleycm@yellowbook.com</v>
       </c>
       <c r="H456" s="2"/>
@@ -30907,7 +30907,7 @@
         <v>Stan Barribal</v>
       </c>
       <c r="G457" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C457,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C457,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C457,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sbarribalcn@microsoft.com</v>
       </c>
       <c r="H457" s="2"/>
@@ -30933,7 +30933,7 @@
         <v>Agnes Adamides</v>
       </c>
       <c r="G458" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C458,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C458,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C458,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aadamidesco@bizjournals.com</v>
       </c>
       <c r="H458" s="2"/>
@@ -30959,7 +30959,7 @@
         <v>Carmelita Thowes</v>
       </c>
       <c r="G459" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C459,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C459,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C459,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cthowescp@craigslist.org</v>
       </c>
       <c r="H459" s="2"/>
@@ -30985,7 +30985,7 @@
         <v>Rodolfo Willoway</v>
       </c>
       <c r="G460" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C460,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C460,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C460,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rwillowaycq@admin.ch</v>
       </c>
       <c r="H460" s="2"/>
@@ -31011,7 +31011,7 @@
         <v>Alvis Elwin</v>
       </c>
       <c r="G461" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C461,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C461,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C461,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aelwincr@privacy.gov.au</v>
       </c>
       <c r="H461" s="2"/>
@@ -31037,7 +31037,7 @@
         <v>Araldo Bilbrook</v>
       </c>
       <c r="G462" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C462,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C462,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C462,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abilbrookcs@booking.com</v>
       </c>
       <c r="H462" s="2"/>
@@ -31063,7 +31063,7 @@
         <v>Ransell McKall</v>
       </c>
       <c r="G463" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C463,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C463,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C463,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rmckallct@sakura.ne.jp</v>
       </c>
       <c r="H463" s="2"/>
@@ -31089,7 +31089,7 @@
         <v>Borg Daile</v>
       </c>
       <c r="G464" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C464,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C464,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C464,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bdailecu@vistaprint.com</v>
       </c>
       <c r="H464" s="2"/>
@@ -31115,7 +31115,7 @@
         <v>Adolphe Treherne</v>
       </c>
       <c r="G465" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C465,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C465,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C465,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>atrehernecv@state.tx.us</v>
       </c>
       <c r="H465" s="2"/>
@@ -31141,7 +31141,7 @@
         <v>Annetta Brentnall</v>
       </c>
       <c r="G466" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C466,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C466,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C466,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abrentnallcw@biglobe.ne.jp</v>
       </c>
       <c r="H466" s="2"/>
@@ -31167,7 +31167,7 @@
         <v>Dick Drinkall</v>
       </c>
       <c r="G467" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C467,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C467,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C467,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ddrinkallcx@psu.edu</v>
       </c>
       <c r="H467" s="2"/>
@@ -31193,7 +31193,7 @@
         <v>Dagny Kornel</v>
       </c>
       <c r="G468" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C468,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C468,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C468,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dkornelcy@cyberchimps.com</v>
       </c>
       <c r="H468" s="2"/>
@@ -31219,7 +31219,7 @@
         <v>Rhona Lequeux</v>
       </c>
       <c r="G469" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C469,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C469,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C469,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rlequeuxcz@newyorker.com</v>
       </c>
       <c r="H469" s="2"/>
@@ -31245,7 +31245,7 @@
         <v>Julius Mccaull</v>
       </c>
       <c r="G470" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C470,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C470,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C470,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jmccaulld0@parallels.com</v>
       </c>
       <c r="H470" s="2"/>
@@ -31271,7 +31271,7 @@
         <v>Ailey Brash</v>
       </c>
       <c r="G471" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C471,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C471,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C471,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abrashda@plala.or.jp</v>
       </c>
       <c r="H471" s="2"/>
@@ -31297,7 +31297,7 @@
         <v>Alberto Hutchinson</v>
       </c>
       <c r="G472" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C472,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C472,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C472,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ahutchinsond2@imgur.com</v>
       </c>
       <c r="H472" s="2"/>
@@ -31322,9 +31322,9 @@
         <f>_xlfn.XLOOKUP(C473,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Lamond Gheeraert</v>
       </c>
-      <c r="G473" s="2">
-        <f>_xlfn.XLOOKUP(C473,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G473" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C473,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C473,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H473" s="2"/>
     </row>
@@ -31349,7 +31349,7 @@
         <v>Roxine Drivers</v>
       </c>
       <c r="G474" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C474,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C474,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C474,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rdriversd4@hexun.com</v>
       </c>
       <c r="H474" s="2"/>
@@ -31375,7 +31375,7 @@
         <v>Heloise Zeal</v>
       </c>
       <c r="G475" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C475,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C475,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C475,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hzeald5@google.de</v>
       </c>
       <c r="H475" s="2"/>
@@ -31401,7 +31401,7 @@
         <v>Granger Smallcombe</v>
       </c>
       <c r="G476" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C476,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C476,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C476,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gsmallcombed6@ucla.edu</v>
       </c>
       <c r="H476" s="2"/>
@@ -31427,7 +31427,7 @@
         <v>Daryn Dibley</v>
       </c>
       <c r="G477" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C477,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C477,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C477,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ddibleyd7@feedburner.com</v>
       </c>
       <c r="H477" s="2"/>
@@ -31453,7 +31453,7 @@
         <v>Gardy Dimitriou</v>
       </c>
       <c r="G478" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C478,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C478,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C478,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gdimitrioud8@chronoengine.com</v>
       </c>
       <c r="H478" s="2"/>
@@ -31479,7 +31479,7 @@
         <v>Fanny Flanagan</v>
       </c>
       <c r="G479" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C479,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C479,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C479,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fflanagand9@woothemes.com</v>
       </c>
       <c r="H479" s="2"/>
@@ -31505,7 +31505,7 @@
         <v>Ailey Brash</v>
       </c>
       <c r="G480" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C480,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C480,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C480,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abrashda@plala.or.jp</v>
       </c>
       <c r="H480" s="2"/>
@@ -31531,7 +31531,7 @@
         <v>Ailey Brash</v>
       </c>
       <c r="G481" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C481,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C481,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C481,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abrashda@plala.or.jp</v>
       </c>
       <c r="H481" s="2"/>
@@ -31557,7 +31557,7 @@
         <v>Ailey Brash</v>
       </c>
       <c r="G482" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C482,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C482,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C482,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abrashda@plala.or.jp</v>
       </c>
       <c r="H482" s="2"/>
@@ -31583,7 +31583,7 @@
         <v>Nanny Izhakov</v>
       </c>
       <c r="G483" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C483,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C483,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C483,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nizhakovdd@aol.com</v>
       </c>
       <c r="H483" s="2"/>
@@ -31609,7 +31609,7 @@
         <v>Stanly Keets</v>
       </c>
       <c r="G484" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C484,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C484,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C484,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>skeetsde@answers.com</v>
       </c>
       <c r="H484" s="2"/>
@@ -31634,9 +31634,9 @@
         <f>_xlfn.XLOOKUP(C485,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Orion Dyott</v>
       </c>
-      <c r="G485" s="2">
-        <f>_xlfn.XLOOKUP(C485,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G485" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C485,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C485,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H485" s="2"/>
     </row>
@@ -31661,7 +31661,7 @@
         <v>Keefer Cake</v>
       </c>
       <c r="G486" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C486,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C486,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C486,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kcakedg@huffingtonpost.com</v>
       </c>
       <c r="H486" s="2"/>
@@ -31687,7 +31687,7 @@
         <v>Morna Hansed</v>
       </c>
       <c r="G487" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C487,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C487,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C487,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mhanseddh@instagram.com</v>
       </c>
       <c r="H487" s="2"/>
@@ -31713,7 +31713,7 @@
         <v>Franny Kienlein</v>
       </c>
       <c r="G488" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C488,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C488,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C488,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fkienleindi@trellian.com</v>
       </c>
       <c r="H488" s="2"/>
@@ -31739,7 +31739,7 @@
         <v>Klarika Egglestone</v>
       </c>
       <c r="G489" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C489,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C489,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C489,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kegglestonedj@sphinn.com</v>
       </c>
       <c r="H489" s="2"/>
@@ -31765,7 +31765,7 @@
         <v>Becky Semkins</v>
       </c>
       <c r="G490" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C490,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C490,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C490,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bsemkinsdk@unc.edu</v>
       </c>
       <c r="H490" s="2"/>
@@ -31791,7 +31791,7 @@
         <v>Sean Lorenzetti</v>
       </c>
       <c r="G491" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C491,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C491,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C491,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>slorenzettidl@is.gd</v>
       </c>
       <c r="H491" s="2"/>
@@ -31817,7 +31817,7 @@
         <v>Bob Giannazzi</v>
       </c>
       <c r="G492" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C492,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C492,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C492,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bgiannazzidm@apple.com</v>
       </c>
       <c r="H492" s="2"/>
@@ -31842,9 +31842,9 @@
         <f>_xlfn.XLOOKUP(C493,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kendra Backshell</v>
       </c>
-      <c r="G493" s="2">
-        <f>_xlfn.XLOOKUP(C493,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G493" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C493,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C493,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H493" s="2"/>
     </row>
@@ -31869,7 +31869,7 @@
         <v>Uriah Lethbrig</v>
       </c>
       <c r="G494" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C494,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C494,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C494,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ulethbrigdo@hc360.com</v>
       </c>
       <c r="H494" s="2"/>
@@ -31895,7 +31895,7 @@
         <v>Sky Farnish</v>
       </c>
       <c r="G495" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C495,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C495,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C495,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sfarnishdp@dmoz.org</v>
       </c>
       <c r="H495" s="2"/>
@@ -31921,7 +31921,7 @@
         <v>Felicia Jecock</v>
       </c>
       <c r="G496" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C496,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C496,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C496,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fjecockdq@unicef.org</v>
       </c>
       <c r="H496" s="2"/>
@@ -31946,9 +31946,9 @@
         <f>_xlfn.XLOOKUP(C497,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Currey MacAllister</v>
       </c>
-      <c r="G497" s="2">
-        <f>_xlfn.XLOOKUP(C497,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G497" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C497,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C497,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H497" s="2"/>
     </row>
@@ -31973,7 +31973,7 @@
         <v>Hamlen Pallister</v>
       </c>
       <c r="G498" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C498,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C498,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C498,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hpallisterds@ning.com</v>
       </c>
       <c r="H498" s="2"/>
@@ -31999,7 +31999,7 @@
         <v>Chantal Mersh</v>
       </c>
       <c r="G499" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C499,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C499,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C499,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cmershdt@drupal.org</v>
       </c>
       <c r="H499" s="2"/>
@@ -32025,7 +32025,7 @@
         <v>Marja Urion</v>
       </c>
       <c r="G500" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C500,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C500,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C500,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>murione5@alexa.com</v>
       </c>
       <c r="H500" s="2"/>
@@ -32050,9 +32050,9 @@
         <f>_xlfn.XLOOKUP(C501,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Malynda Purbrick</v>
       </c>
-      <c r="G501" s="2">
-        <f>_xlfn.XLOOKUP(C501,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G501" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C501,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C501,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H501" s="2"/>
     </row>
@@ -32076,9 +32076,9 @@
         <f>_xlfn.XLOOKUP(C502,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Alf Housaman</v>
       </c>
-      <c r="G502" s="2">
-        <f>_xlfn.XLOOKUP(C502,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G502" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C502,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C502,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H502" s="2"/>
     </row>
@@ -32103,7 +32103,7 @@
         <v>Gladi Ducker</v>
       </c>
       <c r="G503" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C503,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C503,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C503,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gduckerdx@patch.com</v>
       </c>
       <c r="H503" s="2"/>
@@ -32129,7 +32129,7 @@
         <v>Gladi Ducker</v>
       </c>
       <c r="G504" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C504,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C504,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C504,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gduckerdx@patch.com</v>
       </c>
       <c r="H504" s="2"/>
@@ -32155,7 +32155,7 @@
         <v>Gladi Ducker</v>
       </c>
       <c r="G505" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C505,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C505,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C505,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gduckerdx@patch.com</v>
       </c>
       <c r="H505" s="2"/>
@@ -32181,7 +32181,7 @@
         <v>Gladi Ducker</v>
       </c>
       <c r="G506" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C506,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C506,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C506,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gduckerdx@patch.com</v>
       </c>
       <c r="H506" s="2"/>
@@ -32207,7 +32207,7 @@
         <v>Wain Stearley</v>
       </c>
       <c r="G507" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C507,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C507,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C507,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wstearleye1@census.gov</v>
       </c>
       <c r="H507" s="2"/>
@@ -32233,7 +32233,7 @@
         <v>Diane-marie Wincer</v>
       </c>
       <c r="G508" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C508,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C508,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C508,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dwincere2@marriott.com</v>
       </c>
       <c r="H508" s="2"/>
@@ -32259,7 +32259,7 @@
         <v>Perry Lyfield</v>
       </c>
       <c r="G509" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C509,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C509,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C509,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>plyfielde3@baidu.com</v>
       </c>
       <c r="H509" s="2"/>
@@ -32285,7 +32285,7 @@
         <v>Heall Perris</v>
       </c>
       <c r="G510" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C510,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C510,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C510,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hperrise4@studiopress.com</v>
       </c>
       <c r="H510" s="2"/>
@@ -32311,7 +32311,7 @@
         <v>Marja Urion</v>
       </c>
       <c r="G511" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C511,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C511,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C511,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>murione5@alexa.com</v>
       </c>
       <c r="H511" s="2"/>
@@ -32337,7 +32337,7 @@
         <v>Camellia Kid</v>
       </c>
       <c r="G512" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C512,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C512,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C512,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ckide6@narod.ru</v>
       </c>
       <c r="H512" s="2"/>
@@ -32363,7 +32363,7 @@
         <v>Carolann Beine</v>
       </c>
       <c r="G513" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C513,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C513,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C513,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cbeinee7@xinhuanet.com</v>
       </c>
       <c r="H513" s="2"/>
@@ -32389,7 +32389,7 @@
         <v>Celia Bakeup</v>
       </c>
       <c r="G514" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C514,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C514,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C514,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cbakeupe8@globo.com</v>
       </c>
       <c r="H514" s="2"/>
@@ -32415,7 +32415,7 @@
         <v>Nataniel Helkin</v>
       </c>
       <c r="G515" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C515,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C515,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C515,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nhelkine9@example.com</v>
       </c>
       <c r="H515" s="2"/>
@@ -32441,7 +32441,7 @@
         <v>Pippo Witherington</v>
       </c>
       <c r="G516" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C516,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C516,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C516,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pwitheringtonea@networkadvertising.org</v>
       </c>
       <c r="H516" s="2"/>
@@ -32467,7 +32467,7 @@
         <v>Tildie Tilzey</v>
       </c>
       <c r="G517" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C517,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C517,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C517,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ttilzeyeb@hostgator.com</v>
       </c>
       <c r="H517" s="2"/>
@@ -32492,9 +32492,9 @@
         <f>_xlfn.XLOOKUP(C518,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Cindra Burling</v>
       </c>
-      <c r="G518" s="2">
-        <f>_xlfn.XLOOKUP(C518,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G518" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C518,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C518,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H518" s="2"/>
     </row>
@@ -32518,9 +32518,9 @@
         <f>_xlfn.XLOOKUP(C519,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Channa Belamy</v>
       </c>
-      <c r="G519" s="2">
-        <f>_xlfn.XLOOKUP(C519,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G519" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C519,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C519,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H519" s="2"/>
     </row>
@@ -32545,7 +32545,7 @@
         <v>Karl Imorts</v>
       </c>
       <c r="G520" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C520,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C520,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C520,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kimortsee@alexa.com</v>
       </c>
       <c r="H520" s="2"/>
@@ -32571,7 +32571,7 @@
         <v>Marja Urion</v>
       </c>
       <c r="G521" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C521,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C521,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C521,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>murione5@alexa.com</v>
       </c>
       <c r="H521" s="2"/>
@@ -32597,7 +32597,7 @@
         <v>Mag Armistead</v>
       </c>
       <c r="G522" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C522,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C522,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C522,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>marmisteadeg@blogtalkradio.com</v>
       </c>
       <c r="H522" s="2"/>
@@ -32623,7 +32623,7 @@
         <v>Mag Armistead</v>
       </c>
       <c r="G523" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C523,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C523,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C523,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>marmisteadeg@blogtalkradio.com</v>
       </c>
       <c r="H523" s="2"/>
@@ -32649,7 +32649,7 @@
         <v>Vasili Upstone</v>
       </c>
       <c r="G524" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C524,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C524,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C524,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vupstoneei@google.pl</v>
       </c>
       <c r="H524" s="2"/>
@@ -32675,7 +32675,7 @@
         <v>Berty Beelby</v>
       </c>
       <c r="G525" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C525,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C525,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C525,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bbeelbyej@rediff.com</v>
       </c>
       <c r="H525" s="2"/>
@@ -32700,9 +32700,9 @@
         <f>_xlfn.XLOOKUP(C526,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Erny Stenyng</v>
       </c>
-      <c r="G526" s="2">
-        <f>_xlfn.XLOOKUP(C526,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G526" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C526,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C526,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H526" s="2"/>
     </row>
@@ -32726,9 +32726,9 @@
         <f>_xlfn.XLOOKUP(C527,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Edin Yantsurev</v>
       </c>
-      <c r="G527" s="2">
-        <f>_xlfn.XLOOKUP(C527,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G527" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C527,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C527,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H527" s="2"/>
     </row>
@@ -32753,7 +32753,7 @@
         <v>Webb Speechly</v>
       </c>
       <c r="G528" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C528,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C528,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C528,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wspeechlyem@amazon.com</v>
       </c>
       <c r="H528" s="2"/>
@@ -32779,7 +32779,7 @@
         <v>Irvine Phillpot</v>
       </c>
       <c r="G529" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C529,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C529,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C529,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>iphillpoten@buzzfeed.com</v>
       </c>
       <c r="H529" s="2"/>
@@ -32805,7 +32805,7 @@
         <v>Lem Pennacci</v>
       </c>
       <c r="G530" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C530,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C530,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C530,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lpennaccieo@statcounter.com</v>
       </c>
       <c r="H530" s="2"/>
@@ -32831,7 +32831,7 @@
         <v>Starr Arpin</v>
       </c>
       <c r="G531" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C531,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C531,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C531,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sarpinep@moonfruit.com</v>
       </c>
       <c r="H531" s="2"/>
@@ -32857,7 +32857,7 @@
         <v>Donny Fries</v>
       </c>
       <c r="G532" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C532,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C532,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C532,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dfrieseq@cargocollective.com</v>
       </c>
       <c r="H532" s="2"/>
@@ -32883,7 +32883,7 @@
         <v>Rana Sharer</v>
       </c>
       <c r="G533" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C533,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C533,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C533,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rsharerer@flavors.me</v>
       </c>
       <c r="H533" s="2"/>
@@ -32909,7 +32909,7 @@
         <v>Nannie Naseby</v>
       </c>
       <c r="G534" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C534,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C534,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C534,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nnasebyes@umich.edu</v>
       </c>
       <c r="H534" s="2"/>
@@ -32934,9 +32934,9 @@
         <f>_xlfn.XLOOKUP(C535,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Rea Offell</v>
       </c>
-      <c r="G535" s="2">
-        <f>_xlfn.XLOOKUP(C535,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G535" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C535,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C535,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H535" s="2"/>
     </row>
@@ -32961,7 +32961,7 @@
         <v>Kris O'Cullen</v>
       </c>
       <c r="G536" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C536,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C536,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C536,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>koculleneu@ca.gov</v>
       </c>
       <c r="H536" s="2"/>
@@ -32986,9 +32986,9 @@
         <f>_xlfn.XLOOKUP(C537,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Timoteo Glisane</v>
       </c>
-      <c r="G537" s="2">
-        <f>_xlfn.XLOOKUP(C537,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G537" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C537,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C537,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H537" s="2"/>
     </row>
@@ -33013,7 +33013,7 @@
         <v>Marja Urion</v>
       </c>
       <c r="G538" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C538,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C538,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C538,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>murione5@alexa.com</v>
       </c>
       <c r="H538" s="2"/>
@@ -33039,7 +33039,7 @@
         <v>Hildegarde Brangan</v>
       </c>
       <c r="G539" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C539,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C539,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C539,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hbranganex@woothemes.com</v>
       </c>
       <c r="H539" s="2"/>
@@ -33065,7 +33065,7 @@
         <v>Amii Gallyon</v>
       </c>
       <c r="G540" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C540,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C540,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C540,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>agallyoney@engadget.com</v>
       </c>
       <c r="H540" s="2"/>
@@ -33091,7 +33091,7 @@
         <v>Birgit Domange</v>
       </c>
       <c r="G541" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C541,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C541,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C541,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bdomangeez@yahoo.co.jp</v>
       </c>
       <c r="H541" s="2"/>
@@ -33117,7 +33117,7 @@
         <v>Killian Osler</v>
       </c>
       <c r="G542" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C542,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C542,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C542,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>koslerf0@gmpg.org</v>
       </c>
       <c r="H542" s="2"/>
@@ -33142,9 +33142,9 @@
         <f>_xlfn.XLOOKUP(C543,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Lora Dukes</v>
       </c>
-      <c r="G543" s="2">
-        <f>_xlfn.XLOOKUP(C543,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G543" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C543,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C543,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H543" s="2"/>
     </row>
@@ -33169,7 +33169,7 @@
         <v>Zack Pellett</v>
       </c>
       <c r="G544" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C544,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C544,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C544,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>zpellettf2@dailymotion.com</v>
       </c>
       <c r="H544" s="2"/>
@@ -33195,7 +33195,7 @@
         <v>Ilaire Sprakes</v>
       </c>
       <c r="G545" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C545,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C545,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C545,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>isprakesf3@spiegel.de</v>
       </c>
       <c r="H545" s="2"/>
@@ -33221,7 +33221,7 @@
         <v>Heda Fromant</v>
       </c>
       <c r="G546" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C546,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C546,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C546,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hfromantf4@ucsd.edu</v>
       </c>
       <c r="H546" s="2"/>
@@ -33247,7 +33247,7 @@
         <v>Rufus Flear</v>
       </c>
       <c r="G547" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C547,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C547,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C547,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rflearf5@artisteer.com</v>
       </c>
       <c r="H547" s="2"/>
@@ -33272,9 +33272,9 @@
         <f>_xlfn.XLOOKUP(C548,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Dom Milella</v>
       </c>
-      <c r="G548" s="2">
-        <f>_xlfn.XLOOKUP(C548,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G548" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C548,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C548,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H548" s="2"/>
     </row>
@@ -33299,7 +33299,7 @@
         <v>Wilek Lightollers</v>
       </c>
       <c r="G549" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C549,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C549,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C549,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wlightollersf9@baidu.com</v>
       </c>
       <c r="H549" s="2"/>
@@ -33325,7 +33325,7 @@
         <v>Bette-ann Munden</v>
       </c>
       <c r="G550" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C550,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C550,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C550,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bmundenf8@elpais.com</v>
       </c>
       <c r="H550" s="2"/>
@@ -33351,7 +33351,7 @@
         <v>Wilek Lightollers</v>
       </c>
       <c r="G551" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C551,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C551,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C551,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wlightollersf9@baidu.com</v>
       </c>
       <c r="H551" s="2"/>
@@ -33377,7 +33377,7 @@
         <v>Nick Brakespear</v>
       </c>
       <c r="G552" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C552,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C552,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C552,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nbrakespearfa@rediff.com</v>
       </c>
       <c r="H552" s="2"/>
@@ -33403,7 +33403,7 @@
         <v>Malynda Glawsop</v>
       </c>
       <c r="G553" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C553,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C553,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C553,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mglawsopfb@reverbnation.com</v>
       </c>
       <c r="H553" s="2"/>
@@ -33429,7 +33429,7 @@
         <v>Granville Alberts</v>
       </c>
       <c r="G554" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C554,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C554,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C554,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>galbertsfc@etsy.com</v>
       </c>
       <c r="H554" s="2"/>
@@ -33455,7 +33455,7 @@
         <v>Vasily Polglase</v>
       </c>
       <c r="G555" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C555,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C555,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C555,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vpolglasefd@about.me</v>
       </c>
       <c r="H555" s="2"/>
@@ -33480,9 +33480,9 @@
         <f>_xlfn.XLOOKUP(C556,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Madelaine Sharples</v>
       </c>
-      <c r="G556" s="2">
-        <f>_xlfn.XLOOKUP(C556,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G556" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C556,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C556,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H556" s="2"/>
     </row>
@@ -33507,7 +33507,7 @@
         <v>Sigfrid Busch</v>
       </c>
       <c r="G557" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C557,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C557,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C557,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sbuschff@so-net.ne.jp</v>
       </c>
       <c r="H557" s="2"/>
@@ -33533,7 +33533,7 @@
         <v>Cissiee Raisbeck</v>
       </c>
       <c r="G558" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C558,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C558,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C558,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>craisbeckfg@webnode.com</v>
       </c>
       <c r="H558" s="2"/>
@@ -33559,7 +33559,7 @@
         <v>Marja Urion</v>
       </c>
       <c r="G559" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C559,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C559,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C559,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>murione5@alexa.com</v>
       </c>
       <c r="H559" s="2"/>
@@ -33584,9 +33584,9 @@
         <f>_xlfn.XLOOKUP(C560,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kenton Wetherick</v>
       </c>
-      <c r="G560" s="2">
-        <f>_xlfn.XLOOKUP(C560,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G560" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C560,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C560,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H560" s="2"/>
     </row>
@@ -33611,7 +33611,7 @@
         <v>Reamonn Aynold</v>
       </c>
       <c r="G561" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C561,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C561,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C561,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>raynoldfj@ustream.tv</v>
       </c>
       <c r="H561" s="2"/>
@@ -33636,9 +33636,9 @@
         <f>_xlfn.XLOOKUP(C562,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hatty Dovydenas</v>
       </c>
-      <c r="G562" s="2">
-        <f>_xlfn.XLOOKUP(C562,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G562" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C562,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C562,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H562" s="2"/>
     </row>
@@ -33662,9 +33662,9 @@
         <f>_xlfn.XLOOKUP(C563,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nathaniel Bloxland</v>
       </c>
-      <c r="G563" s="2">
-        <f>_xlfn.XLOOKUP(C563,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G563" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C563,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C563,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H563" s="2"/>
     </row>
@@ -33689,7 +33689,7 @@
         <v>Brendan Grece</v>
       </c>
       <c r="G564" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C564,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C564,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C564,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bgrecefm@naver.com</v>
       </c>
       <c r="H564" s="2"/>
@@ -33715,7 +33715,7 @@
         <v>Don Flintiff</v>
       </c>
       <c r="G565" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C565,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C565,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C565,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dflintiffg1@e-recht24.de</v>
       </c>
       <c r="H565" s="2"/>
@@ -33741,7 +33741,7 @@
         <v>Abbe Thys</v>
       </c>
       <c r="G566" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C566,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C566,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C566,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>athysfo@cdc.gov</v>
       </c>
       <c r="H566" s="2"/>
@@ -33767,7 +33767,7 @@
         <v>Jackquelin Chugg</v>
       </c>
       <c r="G567" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C567,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C567,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C567,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jchuggfp@about.me</v>
       </c>
       <c r="H567" s="2"/>
@@ -33793,7 +33793,7 @@
         <v>Audra Kelston</v>
       </c>
       <c r="G568" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C568,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C568,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C568,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>akelstonfq@sakura.ne.jp</v>
       </c>
       <c r="H568" s="2"/>
@@ -33818,9 +33818,9 @@
         <f>_xlfn.XLOOKUP(C569,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Elvina Angel</v>
       </c>
-      <c r="G569" s="2">
-        <f>_xlfn.XLOOKUP(C569,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G569" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C569,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C569,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H569" s="2"/>
     </row>
@@ -33845,7 +33845,7 @@
         <v>Claiborne Mottram</v>
       </c>
       <c r="G570" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C570,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C570,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C570,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cmottramfs@harvard.edu</v>
       </c>
       <c r="H570" s="2"/>
@@ -33871,7 +33871,7 @@
         <v>Don Flintiff</v>
       </c>
       <c r="G571" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C571,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C571,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C571,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dflintiffg1@e-recht24.de</v>
       </c>
       <c r="H571" s="2"/>
@@ -33897,7 +33897,7 @@
         <v>Donalt Sangwin</v>
       </c>
       <c r="G572" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C572,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C572,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C572,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dsangwinfu@weebly.com</v>
       </c>
       <c r="H572" s="2"/>
@@ -33923,7 +33923,7 @@
         <v>Elizabet Aizikowitz</v>
       </c>
       <c r="G573" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C573,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C573,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C573,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>eaizikowitzfv@virginia.edu</v>
       </c>
       <c r="H573" s="2"/>
@@ -33948,9 +33948,9 @@
         <f>_xlfn.XLOOKUP(C574,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Herbie Peppard</v>
       </c>
-      <c r="G574" s="2">
-        <f>_xlfn.XLOOKUP(C574,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G574" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C574,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C574,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H574" s="2"/>
     </row>
@@ -33975,7 +33975,7 @@
         <v>Cornie Venour</v>
       </c>
       <c r="G575" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C575,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C575,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C575,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cvenourfx@ask.com</v>
       </c>
       <c r="H575" s="2"/>
@@ -34001,7 +34001,7 @@
         <v>Maggy Harby</v>
       </c>
       <c r="G576" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C576,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C576,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C576,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mharbyfy@163.com</v>
       </c>
       <c r="H576" s="2"/>
@@ -34027,7 +34027,7 @@
         <v>Reggie Thickpenny</v>
       </c>
       <c r="G577" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C577,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C577,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C577,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rthickpennyfz@cafepress.com</v>
       </c>
       <c r="H577" s="2"/>
@@ -34053,7 +34053,7 @@
         <v>Phyllys Ormerod</v>
       </c>
       <c r="G578" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C578,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C578,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C578,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pormerodg0@redcross.org</v>
       </c>
       <c r="H578" s="2"/>
@@ -34079,7 +34079,7 @@
         <v>Don Flintiff</v>
       </c>
       <c r="G579" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C579,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C579,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C579,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dflintiffg1@e-recht24.de</v>
       </c>
       <c r="H579" s="2"/>
@@ -34105,7 +34105,7 @@
         <v>Tymon Zanetti</v>
       </c>
       <c r="G580" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C580,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C580,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C580,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tzanettig2@gravatar.com</v>
       </c>
       <c r="H580" s="2"/>
@@ -34131,7 +34131,7 @@
         <v>Tymon Zanetti</v>
       </c>
       <c r="G581" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C581,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C581,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C581,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tzanettig2@gravatar.com</v>
       </c>
       <c r="H581" s="2"/>
@@ -34157,7 +34157,7 @@
         <v>Reinaldos Kirtley</v>
       </c>
       <c r="G582" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C582,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C582,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C582,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rkirtleyg4@hatena.ne.jp</v>
       </c>
       <c r="H582" s="2"/>
@@ -34183,7 +34183,7 @@
         <v>Carney Clemencet</v>
       </c>
       <c r="G583" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C583,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C583,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C583,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cclemencetg5@weather.com</v>
       </c>
       <c r="H583" s="2"/>
@@ -34209,7 +34209,7 @@
         <v>Russell Donet</v>
       </c>
       <c r="G584" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C584,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C584,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C584,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rdonetg6@oakley.com</v>
       </c>
       <c r="H584" s="2"/>
@@ -34235,7 +34235,7 @@
         <v>Sidney Gawen</v>
       </c>
       <c r="G585" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C585,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C585,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C585,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sgaweng7@creativecommons.org</v>
       </c>
       <c r="H585" s="2"/>
@@ -34261,7 +34261,7 @@
         <v>Rickey Readie</v>
       </c>
       <c r="G586" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C586,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C586,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C586,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rreadieg8@guardian.co.uk</v>
       </c>
       <c r="H586" s="2"/>
@@ -34287,7 +34287,7 @@
         <v>Cody Verissimo</v>
       </c>
       <c r="G587" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C587,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C587,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C587,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cverissimogh@theglobeandmail.com</v>
       </c>
       <c r="H587" s="2"/>
@@ -34312,9 +34312,9 @@
         <f>_xlfn.XLOOKUP(C588,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Zilvia Claisse</v>
       </c>
-      <c r="G588" s="2">
-        <f>_xlfn.XLOOKUP(C588,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G588" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C588,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C588,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H588" s="2"/>
     </row>
@@ -34339,7 +34339,7 @@
         <v>Bar O' Mahony</v>
       </c>
       <c r="G589" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C589,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C589,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C589,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bogb@elpais.com</v>
       </c>
       <c r="H589" s="2"/>
@@ -34365,7 +34365,7 @@
         <v>Valenka Stansbury</v>
       </c>
       <c r="G590" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C590,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C590,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C590,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vstansburygc@unblog.fr</v>
       </c>
       <c r="H590" s="2"/>
@@ -34391,7 +34391,7 @@
         <v>Daniel Heinonen</v>
       </c>
       <c r="G591" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C591,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C591,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C591,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dheinonengd@printfriendly.com</v>
       </c>
       <c r="H591" s="2"/>
@@ -34417,7 +34417,7 @@
         <v>Jewelle Shenton</v>
       </c>
       <c r="G592" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C592,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C592,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C592,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jshentonge@google.com.hk</v>
       </c>
       <c r="H592" s="2"/>
@@ -34443,7 +34443,7 @@
         <v>Jennifer Wilkisson</v>
       </c>
       <c r="G593" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C593,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C593,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C593,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jwilkissongf@nba.com</v>
       </c>
       <c r="H593" s="2"/>
@@ -34468,9 +34468,9 @@
         <f>_xlfn.XLOOKUP(C594,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kylie Mowat</v>
       </c>
-      <c r="G594" s="2">
-        <f>_xlfn.XLOOKUP(C594,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G594" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C594,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C594,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H594" s="2"/>
     </row>
@@ -34495,7 +34495,7 @@
         <v>Cody Verissimo</v>
       </c>
       <c r="G595" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C595,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C595,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C595,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cverissimogh@theglobeandmail.com</v>
       </c>
       <c r="H595" s="2"/>
@@ -34521,7 +34521,7 @@
         <v>Gabriel Starcks</v>
       </c>
       <c r="G596" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C596,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C596,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C596,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gstarcksgi@abc.net.au</v>
       </c>
       <c r="H596" s="2"/>
@@ -34546,9 +34546,9 @@
         <f>_xlfn.XLOOKUP(C597,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Darby Dummer</v>
       </c>
-      <c r="G597" s="2">
-        <f>_xlfn.XLOOKUP(C597,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G597" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C597,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C597,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H597" s="2"/>
     </row>
@@ -34573,7 +34573,7 @@
         <v>Kienan Scholard</v>
       </c>
       <c r="G598" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C598,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C598,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C598,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kscholardgk@sbwire.com</v>
       </c>
       <c r="H598" s="2"/>
@@ -34599,7 +34599,7 @@
         <v>Bo Kindley</v>
       </c>
       <c r="G599" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C599,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C599,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C599,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bkindleygl@wikimedia.org</v>
       </c>
       <c r="H599" s="2"/>
@@ -34625,7 +34625,7 @@
         <v>Krissie Hammett</v>
       </c>
       <c r="G600" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C600,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C600,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C600,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>khammettgm@dmoz.org</v>
       </c>
       <c r="H600" s="2"/>
@@ -34651,7 +34651,7 @@
         <v>Alisha Hulburt</v>
       </c>
       <c r="G601" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C601,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C601,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C601,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ahulburtgn@fda.gov</v>
       </c>
       <c r="H601" s="2"/>
@@ -34677,7 +34677,7 @@
         <v>Peyter Lauritzen</v>
       </c>
       <c r="G602" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C602,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C602,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C602,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>plauritzengo@photobucket.com</v>
       </c>
       <c r="H602" s="2"/>
@@ -34703,7 +34703,7 @@
         <v>Aurelia Burgwin</v>
       </c>
       <c r="G603" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C603,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C603,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C603,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aburgwingp@redcross.org</v>
       </c>
       <c r="H603" s="2"/>
@@ -34729,7 +34729,7 @@
         <v>Emalee Rolin</v>
       </c>
       <c r="G604" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C604,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C604,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C604,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>erolingq@google.fr</v>
       </c>
       <c r="H604" s="2"/>
@@ -34755,7 +34755,7 @@
         <v>Donavon Fowle</v>
       </c>
       <c r="G605" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C605,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C605,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C605,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dfowlegr@epa.gov</v>
       </c>
       <c r="H605" s="2"/>
@@ -34780,9 +34780,9 @@
         <f>_xlfn.XLOOKUP(C606,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Jorge Bettison</v>
       </c>
-      <c r="G606" s="2">
-        <f>_xlfn.XLOOKUP(C606,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G606" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C606,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C606,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H606" s="2"/>
     </row>
@@ -34807,7 +34807,7 @@
         <v>Wang Powlesland</v>
       </c>
       <c r="G607" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C607,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C607,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C607,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wpowleslandgt@soundcloud.com</v>
       </c>
       <c r="H607" s="2"/>
@@ -34833,7 +34833,7 @@
         <v>Cody Verissimo</v>
       </c>
       <c r="G608" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C608,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C608,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C608,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cverissimogh@theglobeandmail.com</v>
       </c>
       <c r="H608" s="2"/>
@@ -34859,7 +34859,7 @@
         <v>Laurence Ellingham</v>
       </c>
       <c r="G609" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C609,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C609,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C609,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lellinghamgv@sciencedaily.com</v>
       </c>
       <c r="H609" s="2"/>
@@ -34884,9 +34884,9 @@
         <f>_xlfn.XLOOKUP(C610,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Billy Neiland</v>
       </c>
-      <c r="G610" s="2">
-        <f>_xlfn.XLOOKUP(C610,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G610" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C610,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C610,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H610" s="2"/>
     </row>
@@ -34911,7 +34911,7 @@
         <v>Ancell Fendt</v>
       </c>
       <c r="G611" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C611,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C611,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C611,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>afendtgx@forbes.com</v>
       </c>
       <c r="H611" s="2"/>
@@ -34937,7 +34937,7 @@
         <v>Angelia Cleyburn</v>
       </c>
       <c r="G612" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C612,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C612,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C612,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>acleyburngy@lycos.com</v>
       </c>
       <c r="H612" s="2"/>
@@ -34963,7 +34963,7 @@
         <v>Temple Castiglione</v>
       </c>
       <c r="G613" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C613,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C613,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C613,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tcastiglionegz@xing.com</v>
       </c>
       <c r="H613" s="2"/>
@@ -34988,9 +34988,9 @@
         <f>_xlfn.XLOOKUP(C614,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Betti Lacasa</v>
       </c>
-      <c r="G614" s="2">
-        <f>_xlfn.XLOOKUP(C614,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G614" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C614,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C614,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H614" s="2"/>
     </row>
@@ -35014,9 +35014,9 @@
         <f>_xlfn.XLOOKUP(C615,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Gunilla Lynch</v>
       </c>
-      <c r="G615" s="2">
-        <f>_xlfn.XLOOKUP(C615,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G615" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C615,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C615,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H615" s="2"/>
     </row>
@@ -35041,7 +35041,7 @@
         <v>Cody Verissimo</v>
       </c>
       <c r="G616" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C616,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C616,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C616,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cverissimogh@theglobeandmail.com</v>
       </c>
       <c r="H616" s="2"/>
@@ -35067,7 +35067,7 @@
         <v>Shay Couronne</v>
       </c>
       <c r="G617" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C617,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C617,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C617,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>scouronneh3@mozilla.org</v>
       </c>
       <c r="H617" s="2"/>
@@ -35093,7 +35093,7 @@
         <v>Linus Flippelli</v>
       </c>
       <c r="G618" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C618,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C618,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C618,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lflippellih4@github.io</v>
       </c>
       <c r="H618" s="2"/>
@@ -35119,7 +35119,7 @@
         <v>Rachelle Elizabeth</v>
       </c>
       <c r="G619" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C619,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C619,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C619,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>relizabethh5@live.com</v>
       </c>
       <c r="H619" s="2"/>
@@ -35145,7 +35145,7 @@
         <v>Innis Renhard</v>
       </c>
       <c r="G620" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C620,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C620,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C620,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>irenhardh6@i2i.jp</v>
       </c>
       <c r="H620" s="2"/>
@@ -35171,7 +35171,7 @@
         <v>Winne Roche</v>
       </c>
       <c r="G621" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C621,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C621,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C621,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wrocheh7@xinhuanet.com</v>
       </c>
       <c r="H621" s="2"/>
@@ -35197,7 +35197,7 @@
         <v>Linn Alaway</v>
       </c>
       <c r="G622" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C622,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C622,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C622,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lalawayhh@weather.com</v>
       </c>
       <c r="H622" s="2"/>
@@ -35223,7 +35223,7 @@
         <v>Cordy Odgaard</v>
       </c>
       <c r="G623" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C623,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C623,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C623,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>codgaardh9@nsw.gov.au</v>
       </c>
       <c r="H623" s="2"/>
@@ -35249,7 +35249,7 @@
         <v>Bertine Byrd</v>
       </c>
       <c r="G624" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C624,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C624,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C624,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bbyrdha@4shared.com</v>
       </c>
       <c r="H624" s="2"/>
@@ -35274,9 +35274,9 @@
         <f>_xlfn.XLOOKUP(C625,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nelie Garnson</v>
       </c>
-      <c r="G625" s="2">
-        <f>_xlfn.XLOOKUP(C625,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G625" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C625,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C625,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H625" s="2"/>
     </row>
@@ -35301,7 +35301,7 @@
         <v>Dianne Chardin</v>
       </c>
       <c r="G626" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C626,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C626,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C626,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dchardinhc@nhs.uk</v>
       </c>
       <c r="H626" s="2"/>
@@ -35327,7 +35327,7 @@
         <v>Hailee Radbone</v>
       </c>
       <c r="G627" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C627,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C627,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C627,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hradbonehd@newsvine.com</v>
       </c>
       <c r="H627" s="2"/>
@@ -35353,7 +35353,7 @@
         <v>Wallis Bernth</v>
       </c>
       <c r="G628" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C628,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C628,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C628,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wbernthhe@miitbeian.gov.cn</v>
       </c>
       <c r="H628" s="2"/>
@@ -35379,7 +35379,7 @@
         <v>Byron Acarson</v>
       </c>
       <c r="G629" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C629,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C629,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C629,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bacarsonhf@cnn.com</v>
       </c>
       <c r="H629" s="2"/>
@@ -35405,7 +35405,7 @@
         <v>Faunie Brigham</v>
       </c>
       <c r="G630" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C630,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C630,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C630,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fbrighamhg@blog.com</v>
       </c>
       <c r="H630" s="2"/>
@@ -35431,7 +35431,7 @@
         <v>Faunie Brigham</v>
       </c>
       <c r="G631" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C631,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C631,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C631,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fbrighamhg@blog.com</v>
       </c>
       <c r="H631" s="2"/>
@@ -35457,7 +35457,7 @@
         <v>Faunie Brigham</v>
       </c>
       <c r="G632" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C632,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C632,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C632,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fbrighamhg@blog.com</v>
       </c>
       <c r="H632" s="2"/>
@@ -35483,7 +35483,7 @@
         <v>Faunie Brigham</v>
       </c>
       <c r="G633" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C633,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C633,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C633,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fbrighamhg@blog.com</v>
       </c>
       <c r="H633" s="2"/>
@@ -35509,7 +35509,7 @@
         <v>Marjorie Yoxen</v>
       </c>
       <c r="G634" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C634,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C634,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C634,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>myoxenhk@google.com</v>
       </c>
       <c r="H634" s="2"/>
@@ -35535,7 +35535,7 @@
         <v>Gaspar McGavin</v>
       </c>
       <c r="G635" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C635,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C635,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C635,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gmcgavinhl@histats.com</v>
       </c>
       <c r="H635" s="2"/>
@@ -35561,7 +35561,7 @@
         <v>Lindy Uttermare</v>
       </c>
       <c r="G636" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C636,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C636,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C636,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>luttermarehm@engadget.com</v>
       </c>
       <c r="H636" s="2"/>
@@ -35587,7 +35587,7 @@
         <v>Eal D'Ambrogio</v>
       </c>
       <c r="G637" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C637,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C637,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C637,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>edambrogiohn@techcrunch.com</v>
       </c>
       <c r="H637" s="2"/>
@@ -35613,7 +35613,7 @@
         <v>Carolee Winchcombe</v>
       </c>
       <c r="G638" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C638,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C638,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C638,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cwinchcombeho@jiathis.com</v>
       </c>
       <c r="H638" s="2"/>
@@ -35639,7 +35639,7 @@
         <v>Benedikta Paumier</v>
       </c>
       <c r="G639" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C639,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C639,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C639,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bpaumierhp@umn.edu</v>
       </c>
       <c r="H639" s="2"/>
@@ -35664,9 +35664,9 @@
         <f>_xlfn.XLOOKUP(C640,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Neville Piatto</v>
       </c>
-      <c r="G640" s="2">
-        <f>_xlfn.XLOOKUP(C640,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G640" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C640,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C640,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H640" s="2"/>
     </row>
@@ -35691,7 +35691,7 @@
         <v>Jeno Capey</v>
       </c>
       <c r="G641" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C641,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C641,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C641,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jcapeyhr@bravesites.com</v>
       </c>
       <c r="H641" s="2"/>
@@ -35717,7 +35717,7 @@
         <v>Tuckie Mathonnet</v>
       </c>
       <c r="G642" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C642,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C642,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C642,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tmathonneti0@google.co.jp</v>
       </c>
       <c r="H642" s="2"/>
@@ -35743,7 +35743,7 @@
         <v>Yardley Basill</v>
       </c>
       <c r="G643" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C643,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C643,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C643,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ybasillht@theguardian.com</v>
       </c>
       <c r="H643" s="2"/>
@@ -35769,7 +35769,7 @@
         <v>Maggy Baistow</v>
       </c>
       <c r="G644" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C644,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C644,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C644,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mbaistowhu@i2i.jp</v>
       </c>
       <c r="H644" s="2"/>
@@ -35795,7 +35795,7 @@
         <v>Courtney Pallant</v>
       </c>
       <c r="G645" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C645,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C645,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C645,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cpallanthv@typepad.com</v>
       </c>
       <c r="H645" s="2"/>
@@ -35820,9 +35820,9 @@
         <f>_xlfn.XLOOKUP(C646,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Marne Mingey</v>
       </c>
-      <c r="G646" s="2">
-        <f>_xlfn.XLOOKUP(C646,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G646" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C646,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C646,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H646" s="2"/>
     </row>
@@ -35847,7 +35847,7 @@
         <v>Denny O' Ronan</v>
       </c>
       <c r="G647" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C647,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C647,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C647,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dohx@redcross.org</v>
       </c>
       <c r="H647" s="2"/>
@@ -35873,7 +35873,7 @@
         <v>Dottie Rallin</v>
       </c>
       <c r="G648" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C648,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C648,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C648,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>drallinhy@howstuffworks.com</v>
       </c>
       <c r="H648" s="2"/>
@@ -35899,7 +35899,7 @@
         <v>Ardith Chill</v>
       </c>
       <c r="G649" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C649,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C649,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C649,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>achillhz@epa.gov</v>
       </c>
       <c r="H649" s="2"/>
@@ -35925,7 +35925,7 @@
         <v>Tuckie Mathonnet</v>
       </c>
       <c r="G650" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C650,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C650,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C650,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tmathonneti0@google.co.jp</v>
       </c>
       <c r="H650" s="2"/>
@@ -35951,7 +35951,7 @@
         <v>Charmane Denys</v>
       </c>
       <c r="G651" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C651,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C651,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C651,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cdenysi1@is.gd</v>
       </c>
       <c r="H651" s="2"/>
@@ -35977,7 +35977,7 @@
         <v>Cecily Stebbings</v>
       </c>
       <c r="G652" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C652,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C652,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C652,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cstebbingsi2@drupal.org</v>
       </c>
       <c r="H652" s="2"/>
@@ -36002,9 +36002,9 @@
         <f>_xlfn.XLOOKUP(C653,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Giana Tonnesen</v>
       </c>
-      <c r="G653" s="2">
-        <f>_xlfn.XLOOKUP(C653,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G653" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C653,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C653,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H653" s="2"/>
     </row>
@@ -36029,7 +36029,7 @@
         <v>Rhetta Zywicki</v>
       </c>
       <c r="G654" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C654,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C654,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C654,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rzywickii4@ifeng.com</v>
       </c>
       <c r="H654" s="2"/>
@@ -36055,7 +36055,7 @@
         <v>Almeria Burgett</v>
       </c>
       <c r="G655" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C655,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C655,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C655,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aburgetti5@moonfruit.com</v>
       </c>
       <c r="H655" s="2"/>
@@ -36081,7 +36081,7 @@
         <v>Marvin Malloy</v>
       </c>
       <c r="G656" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C656,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C656,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C656,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mmalloyi6@seattletimes.com</v>
       </c>
       <c r="H656" s="2"/>
@@ -36107,7 +36107,7 @@
         <v>Maxim McParland</v>
       </c>
       <c r="G657" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C657,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C657,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C657,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mmcparlandi7@w3.org</v>
       </c>
       <c r="H657" s="2"/>
@@ -36133,7 +36133,7 @@
         <v>Sylas Jennaroy</v>
       </c>
       <c r="G658" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C658,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C658,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C658,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sjennaroyi8@purevolume.com</v>
       </c>
       <c r="H658" s="2"/>
@@ -36159,7 +36159,7 @@
         <v>Wren Place</v>
       </c>
       <c r="G659" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C659,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C659,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C659,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wplacei9@wsj.com</v>
       </c>
       <c r="H659" s="2"/>
@@ -36185,7 +36185,7 @@
         <v>Janella Millett</v>
       </c>
       <c r="G660" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C660,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C660,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C660,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jmillettik@addtoany.com</v>
       </c>
       <c r="H660" s="2"/>
@@ -36211,7 +36211,7 @@
         <v>Dollie Gadsden</v>
       </c>
       <c r="G661" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C661,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C661,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C661,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dgadsdenib@google.com.hk</v>
       </c>
       <c r="H661" s="2"/>
@@ -36237,7 +36237,7 @@
         <v>Val Wakelin</v>
       </c>
       <c r="G662" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C662,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C662,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C662,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vwakelinic@unesco.org</v>
       </c>
       <c r="H662" s="2"/>
@@ -36263,7 +36263,7 @@
         <v>Annie Campsall</v>
       </c>
       <c r="G663" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C663,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C663,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C663,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>acampsallid@zimbio.com</v>
       </c>
       <c r="H663" s="2"/>
@@ -36289,7 +36289,7 @@
         <v>Shermy Moseby</v>
       </c>
       <c r="G664" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C664,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C664,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C664,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>smosebyie@stanford.edu</v>
       </c>
       <c r="H664" s="2"/>
@@ -36315,7 +36315,7 @@
         <v>Corrie Wass</v>
       </c>
       <c r="G665" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C665,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C665,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C665,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cwassif@prweb.com</v>
       </c>
       <c r="H665" s="2"/>
@@ -36341,7 +36341,7 @@
         <v>Ira Sjostrom</v>
       </c>
       <c r="G666" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C666,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C666,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C666,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>isjostromig@pbs.org</v>
       </c>
       <c r="H666" s="2"/>
@@ -36367,7 +36367,7 @@
         <v>Ira Sjostrom</v>
       </c>
       <c r="G667" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C667,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C667,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C667,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>isjostromig@pbs.org</v>
       </c>
       <c r="H667" s="2"/>
@@ -36393,7 +36393,7 @@
         <v>Jermaine Branchett</v>
       </c>
       <c r="G668" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C668,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C668,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C668,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jbranchettii@bravesites.com</v>
       </c>
       <c r="H668" s="2"/>
@@ -36419,7 +36419,7 @@
         <v>Nissie Rudland</v>
       </c>
       <c r="G669" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C669,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C669,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C669,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nrudlandij@blogs.com</v>
       </c>
       <c r="H669" s="2"/>
@@ -36445,7 +36445,7 @@
         <v>Janella Millett</v>
       </c>
       <c r="G670" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C670,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C670,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C670,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jmillettik@addtoany.com</v>
       </c>
       <c r="H670" s="2"/>
@@ -36471,7 +36471,7 @@
         <v>Ferdie Tourry</v>
       </c>
       <c r="G671" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C671,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C671,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C671,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ftourryil@google.de</v>
       </c>
       <c r="H671" s="2"/>
@@ -36497,7 +36497,7 @@
         <v>Cecil Weatherall</v>
       </c>
       <c r="G672" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C672,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C672,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C672,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cweatherallim@toplist.cz</v>
       </c>
       <c r="H672" s="2"/>
@@ -36523,7 +36523,7 @@
         <v>Gale Heindrick</v>
       </c>
       <c r="G673" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C673,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C673,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C673,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gheindrickin@usda.gov</v>
       </c>
       <c r="H673" s="2"/>
@@ -36549,7 +36549,7 @@
         <v>Layne Imason</v>
       </c>
       <c r="G674" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C674,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C674,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C674,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>limasonio@discuz.net</v>
       </c>
       <c r="H674" s="2"/>
@@ -36575,7 +36575,7 @@
         <v>Hazel Saill</v>
       </c>
       <c r="G675" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C675,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C675,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C675,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hsaillip@odnoklassniki.ru</v>
       </c>
       <c r="H675" s="2"/>
@@ -36601,7 +36601,7 @@
         <v>Hermann Larvor</v>
       </c>
       <c r="G676" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C676,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C676,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C676,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hlarvoriq@last.fm</v>
       </c>
       <c r="H676" s="2"/>
@@ -36626,9 +36626,9 @@
         <f>_xlfn.XLOOKUP(C677,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Terri Lyford</v>
       </c>
-      <c r="G677" s="2">
-        <f>_xlfn.XLOOKUP(C677,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G677" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C677,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C677,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H677" s="2"/>
     </row>
@@ -36652,9 +36652,9 @@
         <f>_xlfn.XLOOKUP(C678,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Gabey Cogan</v>
       </c>
-      <c r="G678" s="2">
-        <f>_xlfn.XLOOKUP(C678,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G678" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C678,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C678,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H678" s="2"/>
     </row>
@@ -36679,7 +36679,7 @@
         <v>Charin Penwarden</v>
       </c>
       <c r="G679" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C679,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C679,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C679,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cpenwardenit@mlb.com</v>
       </c>
       <c r="H679" s="2"/>
@@ -36705,7 +36705,7 @@
         <v>Milty Middis</v>
       </c>
       <c r="G680" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C680,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C680,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C680,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mmiddisiu@dmoz.org</v>
       </c>
       <c r="H680" s="2"/>
@@ -36731,7 +36731,7 @@
         <v>Adrianne Vairow</v>
       </c>
       <c r="G681" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C681,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C681,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C681,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>avairowiv@studiopress.com</v>
       </c>
       <c r="H681" s="2"/>
@@ -36757,7 +36757,7 @@
         <v>Anjanette Goldie</v>
       </c>
       <c r="G682" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C682,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C682,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C682,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>agoldieiw@goo.gl</v>
       </c>
       <c r="H682" s="2"/>
@@ -36783,7 +36783,7 @@
         <v>Nicky Ayris</v>
       </c>
       <c r="G683" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C683,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C683,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C683,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nayrisix@t-online.de</v>
       </c>
       <c r="H683" s="2"/>
@@ -36809,7 +36809,7 @@
         <v>Laryssa Benediktovich</v>
       </c>
       <c r="G684" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C684,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C684,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C684,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lbenediktovichiy@wunderground.com</v>
       </c>
       <c r="H684" s="2"/>
@@ -36835,7 +36835,7 @@
         <v>Theo Jacobovitz</v>
       </c>
       <c r="G685" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C685,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C685,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C685,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tjacobovitziz@cbc.ca</v>
       </c>
       <c r="H685" s="2"/>
@@ -36860,9 +36860,9 @@
         <f>_xlfn.XLOOKUP(C686,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Becca Ableson</v>
       </c>
-      <c r="G686" s="2">
-        <f>_xlfn.XLOOKUP(C686,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G686" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C686,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C686,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H686" s="2"/>
     </row>
@@ -36887,7 +36887,7 @@
         <v>Jeno Druitt</v>
       </c>
       <c r="G687" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C687,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C687,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C687,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdruittj1@feedburner.com</v>
       </c>
       <c r="H687" s="2"/>
@@ -36913,7 +36913,7 @@
         <v>Deonne Shortall</v>
       </c>
       <c r="G688" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C688,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C688,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C688,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dshortallj2@wikipedia.org</v>
       </c>
       <c r="H688" s="2"/>
@@ -36939,7 +36939,7 @@
         <v>Wilton Cottier</v>
       </c>
       <c r="G689" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C689,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C689,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C689,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wcottierj3@cafepress.com</v>
       </c>
       <c r="H689" s="2"/>
@@ -36965,7 +36965,7 @@
         <v>Kevan Grinsted</v>
       </c>
       <c r="G690" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C690,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C690,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C690,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kgrinstedj4@google.com.br</v>
       </c>
       <c r="H690" s="2"/>
@@ -36991,7 +36991,7 @@
         <v>Dionne Skyner</v>
       </c>
       <c r="G691" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C691,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C691,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C691,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dskynerj5@hubpages.com</v>
       </c>
       <c r="H691" s="2"/>
@@ -37016,9 +37016,9 @@
         <f>_xlfn.XLOOKUP(C692,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Francesco Dressel</v>
       </c>
-      <c r="G692" s="2">
-        <f>_xlfn.XLOOKUP(C692,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G692" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C692,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C692,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H692" s="2"/>
     </row>
@@ -37043,7 +37043,7 @@
         <v>Jimmy Dymoke</v>
       </c>
       <c r="G693" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C693,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C693,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C693,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdymokeje@prnewswire.com</v>
       </c>
       <c r="H693" s="2"/>
@@ -37069,7 +37069,7 @@
         <v>Ambrosio Weinmann</v>
       </c>
       <c r="G694" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C694,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C694,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C694,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aweinmannj8@shinystat.com</v>
       </c>
       <c r="H694" s="2"/>
@@ -37095,7 +37095,7 @@
         <v>Elden Andriessen</v>
       </c>
       <c r="G695" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C695,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C695,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C695,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>eandriessenj9@europa.eu</v>
       </c>
       <c r="H695" s="2"/>
@@ -37121,7 +37121,7 @@
         <v>Roxie Deaconson</v>
       </c>
       <c r="G696" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C696,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C696,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C696,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rdeaconsonja@archive.org</v>
       </c>
       <c r="H696" s="2"/>
@@ -37147,7 +37147,7 @@
         <v>Davida Caro</v>
       </c>
       <c r="G697" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C697,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C697,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C697,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dcarojb@twitter.com</v>
       </c>
       <c r="H697" s="2"/>
@@ -37173,7 +37173,7 @@
         <v>Johna Bluck</v>
       </c>
       <c r="G698" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C698,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C698,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C698,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jbluckjc@imageshack.us</v>
       </c>
       <c r="H698" s="2"/>
@@ -37198,9 +37198,9 @@
         <f>_xlfn.XLOOKUP(C699,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Myrle Dearden</v>
       </c>
-      <c r="G699" s="2">
-        <f>_xlfn.XLOOKUP(C699,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G699" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C699,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C699,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H699" s="2"/>
     </row>
@@ -37225,7 +37225,7 @@
         <v>Jimmy Dymoke</v>
       </c>
       <c r="G700" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C700,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C700,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C700,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdymokeje@prnewswire.com</v>
       </c>
       <c r="H700" s="2"/>
@@ -37251,7 +37251,7 @@
         <v>Orland Tadman</v>
       </c>
       <c r="G701" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C701,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C701,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C701,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>otadmanjf@ft.com</v>
       </c>
       <c r="H701" s="2"/>
@@ -37277,7 +37277,7 @@
         <v>Barrett Gudde</v>
       </c>
       <c r="G702" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C702,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C702,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C702,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bguddejg@dailymotion.com</v>
       </c>
       <c r="H702" s="2"/>
@@ -37303,7 +37303,7 @@
         <v>Nathan Sictornes</v>
       </c>
       <c r="G703" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C703,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C703,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C703,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nsictornesjh@buzzfeed.com</v>
       </c>
       <c r="H703" s="2"/>
@@ -37329,7 +37329,7 @@
         <v>Vivyan Dunning</v>
       </c>
       <c r="G704" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C704,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C704,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C704,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vdunningji@independent.co.uk</v>
       </c>
       <c r="H704" s="2"/>
@@ -37354,9 +37354,9 @@
         <f>_xlfn.XLOOKUP(C705,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Doralin Baison</v>
       </c>
-      <c r="G705" s="2">
-        <f>_xlfn.XLOOKUP(C705,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G705" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C705,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C705,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H705" s="2"/>
     </row>
@@ -37380,9 +37380,9 @@
         <f>_xlfn.XLOOKUP(C706,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Josefina Ferens</v>
       </c>
-      <c r="G706" s="2">
-        <f>_xlfn.XLOOKUP(C706,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G706" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C706,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C706,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H706" s="2"/>
     </row>
@@ -37407,7 +37407,7 @@
         <v>Shelley Gehring</v>
       </c>
       <c r="G707" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C707,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C707,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C707,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sgehringjl@gnu.org</v>
       </c>
       <c r="H707" s="2"/>
@@ -37433,7 +37433,7 @@
         <v>Barrie Fallowes</v>
       </c>
       <c r="G708" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C708,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C708,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C708,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bfallowesjm@purevolume.com</v>
       </c>
       <c r="H708" s="2"/>
@@ -37458,9 +37458,9 @@
         <f>_xlfn.XLOOKUP(C709,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nicolas Aiton</v>
       </c>
-      <c r="G709" s="2">
-        <f>_xlfn.XLOOKUP(C709,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G709" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C709,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C709,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H709" s="2"/>
     </row>
@@ -37485,7 +37485,7 @@
         <v>Shelli De Banke</v>
       </c>
       <c r="G710" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C710,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C710,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C710,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sdejo@newsvine.com</v>
       </c>
       <c r="H710" s="2"/>
@@ -37510,9 +37510,9 @@
         <f>_xlfn.XLOOKUP(C711,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Lyell Murch</v>
       </c>
-      <c r="G711" s="2">
-        <f>_xlfn.XLOOKUP(C711,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G711" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C711,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C711,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H711" s="2"/>
     </row>
@@ -37537,7 +37537,7 @@
         <v>Stearne Count</v>
       </c>
       <c r="G712" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C712,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C712,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C712,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>scountjq@nba.com</v>
       </c>
       <c r="H712" s="2"/>
@@ -37563,7 +37563,7 @@
         <v>Selia Ragles</v>
       </c>
       <c r="G713" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C713,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C713,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C713,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sraglesjr@blogtalkradio.com</v>
       </c>
       <c r="H713" s="2"/>
@@ -37588,9 +37588,9 @@
         <f>_xlfn.XLOOKUP(C714,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Silas Deehan</v>
       </c>
-      <c r="G714" s="2">
-        <f>_xlfn.XLOOKUP(C714,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G714" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C714,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C714,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H714" s="2"/>
     </row>
@@ -37615,7 +37615,7 @@
         <v>Sacha Bruun</v>
       </c>
       <c r="G715" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C715,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C715,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C715,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sbruunjt@blogtalkradio.com</v>
       </c>
       <c r="H715" s="2"/>
@@ -37641,7 +37641,7 @@
         <v>Alon Pllu</v>
       </c>
       <c r="G716" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C716,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C716,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C716,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aplluju@dagondesign.com</v>
       </c>
       <c r="H716" s="2"/>
@@ -37667,7 +37667,7 @@
         <v>Gilberto Cornier</v>
       </c>
       <c r="G717" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C717,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C717,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C717,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gcornierjv@techcrunch.com</v>
       </c>
       <c r="H717" s="2"/>
@@ -37693,7 +37693,7 @@
         <v>Jimmy Dymoke</v>
       </c>
       <c r="G718" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C718,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C718,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C718,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdymokeje@prnewswire.com</v>
       </c>
       <c r="H718" s="2"/>
@@ -37719,7 +37719,7 @@
         <v>Willabella Harvison</v>
       </c>
       <c r="G719" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C719,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C719,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C719,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wharvisonjx@gizmodo.com</v>
       </c>
       <c r="H719" s="2"/>
@@ -37745,7 +37745,7 @@
         <v>Darice Heaford</v>
       </c>
       <c r="G720" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C720,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C720,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C720,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dheafordjy@twitpic.com</v>
       </c>
       <c r="H720" s="2"/>
@@ -37771,7 +37771,7 @@
         <v>Granger Fantham</v>
       </c>
       <c r="G721" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C721,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C721,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C721,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gfanthamjz@hexun.com</v>
       </c>
       <c r="H721" s="2"/>
@@ -37797,7 +37797,7 @@
         <v>Reynolds Crookshanks</v>
       </c>
       <c r="G722" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C722,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C722,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C722,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rcrookshanksk0@unc.edu</v>
       </c>
       <c r="H722" s="2"/>
@@ -37823,7 +37823,7 @@
         <v>Niels Leake</v>
       </c>
       <c r="G723" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C723,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C723,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C723,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nleakek1@cmu.edu</v>
       </c>
       <c r="H723" s="2"/>
@@ -37848,9 +37848,9 @@
         <f>_xlfn.XLOOKUP(C724,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hetti Measures</v>
       </c>
-      <c r="G724" s="2">
-        <f>_xlfn.XLOOKUP(C724,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G724" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C724,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C724,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H724" s="2"/>
     </row>
@@ -37875,7 +37875,7 @@
         <v>Gay Eilhersen</v>
       </c>
       <c r="G725" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C725,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C725,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C725,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>geilhersenk3@networksolutions.com</v>
       </c>
       <c r="H725" s="2"/>
@@ -37900,9 +37900,9 @@
         <f>_xlfn.XLOOKUP(C726,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Nico Hubert</v>
       </c>
-      <c r="G726" s="2">
-        <f>_xlfn.XLOOKUP(C726,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G726" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C726,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C726,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H726" s="2"/>
     </row>
@@ -37927,7 +37927,7 @@
         <v>Cristina Aleixo</v>
       </c>
       <c r="G727" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C727,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C727,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C727,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>caleixok5@globo.com</v>
       </c>
       <c r="H727" s="2"/>
@@ -37952,9 +37952,9 @@
         <f>_xlfn.XLOOKUP(C728,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Derrek Allpress</v>
       </c>
-      <c r="G728" s="2">
-        <f>_xlfn.XLOOKUP(C728,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G728" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C728,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C728,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H728" s="2"/>
     </row>
@@ -37979,7 +37979,7 @@
         <v>Rikki Tomkowicz</v>
       </c>
       <c r="G729" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C729,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C729,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C729,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rtomkowiczk7@bravesites.com</v>
       </c>
       <c r="H729" s="2"/>
@@ -38005,7 +38005,7 @@
         <v>Rochette Huscroft</v>
       </c>
       <c r="G730" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C730,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C730,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C730,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rhuscroftk8@jimdo.com</v>
       </c>
       <c r="H730" s="2"/>
@@ -38031,7 +38031,7 @@
         <v>Selle Scurrer</v>
       </c>
       <c r="G731" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C731,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C731,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C731,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sscurrerk9@flavors.me</v>
       </c>
       <c r="H731" s="2"/>
@@ -38057,7 +38057,7 @@
         <v>Andie Rudram</v>
       </c>
       <c r="G732" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C732,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C732,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C732,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>arudramka@prnewswire.com</v>
       </c>
       <c r="H732" s="2"/>
@@ -38082,9 +38082,9 @@
         <f>_xlfn.XLOOKUP(C733,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Leta Clarricoates</v>
       </c>
-      <c r="G733" s="2">
-        <f>_xlfn.XLOOKUP(C733,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G733" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C733,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C733,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H733" s="2"/>
     </row>
@@ -38109,7 +38109,7 @@
         <v>Jacquelyn Maha</v>
       </c>
       <c r="G734" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C734,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C734,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C734,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jmahakc@cyberchimps.com</v>
       </c>
       <c r="H734" s="2"/>
@@ -38135,7 +38135,7 @@
         <v>Glory Clemon</v>
       </c>
       <c r="G735" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C735,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C735,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C735,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gclemonkd@networksolutions.com</v>
       </c>
       <c r="H735" s="2"/>
@@ -38160,9 +38160,9 @@
         <f>_xlfn.XLOOKUP(C736,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Alica Kift</v>
       </c>
-      <c r="G736" s="2">
-        <f>_xlfn.XLOOKUP(C736,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G736" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C736,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C736,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H736" s="2"/>
     </row>
@@ -38187,7 +38187,7 @@
         <v>Babb Pollins</v>
       </c>
       <c r="G737" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C737,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C737,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C737,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bpollinskf@shinystat.com</v>
       </c>
       <c r="H737" s="2"/>
@@ -38213,7 +38213,7 @@
         <v>Jarret Toye</v>
       </c>
       <c r="G738" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C738,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C738,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C738,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jtoyekg@pinterest.com</v>
       </c>
       <c r="H738" s="2"/>
@@ -38239,7 +38239,7 @@
         <v>Carlie Linskill</v>
       </c>
       <c r="G739" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C739,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C739,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C739,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>clinskillkh@sphinn.com</v>
       </c>
       <c r="H739" s="2"/>
@@ -38265,7 +38265,7 @@
         <v>Natal Vigrass</v>
       </c>
       <c r="G740" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C740,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C740,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C740,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nvigrasski@ezinearticles.com</v>
       </c>
       <c r="H740" s="2"/>
@@ -38291,7 +38291,7 @@
         <v>Jimmy Dymoke</v>
       </c>
       <c r="G741" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C741,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C741,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C741,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdymokeje@prnewswire.com</v>
       </c>
       <c r="H741" s="2"/>
@@ -38317,7 +38317,7 @@
         <v>Kandace Cragell</v>
       </c>
       <c r="G742" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C742,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C742,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C742,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kcragellkk@google.com</v>
       </c>
       <c r="H742" s="2"/>
@@ -38343,7 +38343,7 @@
         <v>Lyon Ibert</v>
       </c>
       <c r="G743" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C743,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C743,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C743,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>libertkl@huffingtonpost.com</v>
       </c>
       <c r="H743" s="2"/>
@@ -38369,7 +38369,7 @@
         <v>Reese Lidgey</v>
       </c>
       <c r="G744" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C744,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C744,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C744,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rlidgeykm@vimeo.com</v>
       </c>
       <c r="H744" s="2"/>
@@ -38395,7 +38395,7 @@
         <v>Tersina Castagne</v>
       </c>
       <c r="G745" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C745,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C745,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C745,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tcastagnekn@wikia.com</v>
       </c>
       <c r="H745" s="2"/>
@@ -38420,9 +38420,9 @@
         <f>_xlfn.XLOOKUP(C746,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Samuele Klaaassen</v>
       </c>
-      <c r="G746" s="2">
-        <f>_xlfn.XLOOKUP(C746,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G746" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C746,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C746,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H746" s="2"/>
     </row>
@@ -38447,7 +38447,7 @@
         <v>Jordana Halden</v>
       </c>
       <c r="G747" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C747,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C747,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C747,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jhaldenkp@comcast.net</v>
       </c>
       <c r="H747" s="2"/>
@@ -38473,7 +38473,7 @@
         <v>Hussein Olliff</v>
       </c>
       <c r="G748" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C748,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C748,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C748,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>holliffkq@sciencedirect.com</v>
       </c>
       <c r="H748" s="2"/>
@@ -38499,7 +38499,7 @@
         <v>Teddi Quadri</v>
       </c>
       <c r="G749" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C749,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C749,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C749,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tquadrikr@opensource.org</v>
       </c>
       <c r="H749" s="2"/>
@@ -38525,7 +38525,7 @@
         <v>Felita Eshmade</v>
       </c>
       <c r="G750" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C750,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C750,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C750,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>feshmadeks@umn.edu</v>
       </c>
       <c r="H750" s="2"/>
@@ -38551,7 +38551,7 @@
         <v>Melodie OIlier</v>
       </c>
       <c r="G751" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C751,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C751,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C751,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>moilierkt@paginegialle.it</v>
       </c>
       <c r="H751" s="2"/>
@@ -38576,9 +38576,9 @@
         <f>_xlfn.XLOOKUP(C752,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Hazel Iacopini</v>
       </c>
-      <c r="G752" s="2">
-        <f>_xlfn.XLOOKUP(C752,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G752" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C752,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C752,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H752" s="2"/>
     </row>
@@ -38603,7 +38603,7 @@
         <v>Vinny Shoebotham</v>
       </c>
       <c r="G753" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C753,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C753,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C753,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vshoebothamkv@redcross.org</v>
       </c>
       <c r="H753" s="2"/>
@@ -38629,7 +38629,7 @@
         <v>Bran Sterke</v>
       </c>
       <c r="G754" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C754,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C754,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C754,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bsterkekw@biblegateway.com</v>
       </c>
       <c r="H754" s="2"/>
@@ -38655,7 +38655,7 @@
         <v>Simone Capon</v>
       </c>
       <c r="G755" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C755,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C755,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C755,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>scaponkx@craigslist.org</v>
       </c>
       <c r="H755" s="2"/>
@@ -38681,7 +38681,7 @@
         <v>Jimmy Dymoke</v>
       </c>
       <c r="G756" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C756,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C756,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C756,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdymokeje@prnewswire.com</v>
       </c>
       <c r="H756" s="2"/>
@@ -38707,7 +38707,7 @@
         <v>Foster Constance</v>
       </c>
       <c r="G757" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C757,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C757,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C757,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fconstancekz@ifeng.com</v>
       </c>
       <c r="H757" s="2"/>
@@ -38733,7 +38733,7 @@
         <v>Fernando Sulman</v>
       </c>
       <c r="G758" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C758,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C758,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C758,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fsulmanl0@washington.edu</v>
       </c>
       <c r="H758" s="2"/>
@@ -38759,7 +38759,7 @@
         <v>Dorotea Hollyman</v>
       </c>
       <c r="G759" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C759,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C759,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C759,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dhollymanl1@ibm.com</v>
       </c>
       <c r="H759" s="2"/>
@@ -38785,7 +38785,7 @@
         <v>Lorelei Nardoni</v>
       </c>
       <c r="G760" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C760,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C760,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C760,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lnardonil2@hao123.com</v>
       </c>
       <c r="H760" s="2"/>
@@ -38811,7 +38811,7 @@
         <v>Dallas Yarham</v>
       </c>
       <c r="G761" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C761,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C761,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C761,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dyarhaml3@moonfruit.com</v>
       </c>
       <c r="H761" s="2"/>
@@ -38837,7 +38837,7 @@
         <v>Arlana Ferrea</v>
       </c>
       <c r="G762" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C762,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C762,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C762,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aferreal4@wikia.com</v>
       </c>
       <c r="H762" s="2"/>
@@ -38863,7 +38863,7 @@
         <v>Chuck Kendrick</v>
       </c>
       <c r="G763" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C763,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C763,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C763,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ckendrickl5@webnode.com</v>
       </c>
       <c r="H763" s="2"/>
@@ -38889,7 +38889,7 @@
         <v>Sharona Danilchik</v>
       </c>
       <c r="G764" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C764,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C764,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C764,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sdanilchikl6@mit.edu</v>
       </c>
       <c r="H764" s="2"/>
@@ -38914,9 +38914,9 @@
         <f>_xlfn.XLOOKUP(C765,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Sarajane Potter</v>
       </c>
-      <c r="G765" s="2">
-        <f>_xlfn.XLOOKUP(C765,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G765" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C765,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C765,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H765" s="2"/>
     </row>
@@ -38941,7 +38941,7 @@
         <v>Bobby Folomkin</v>
       </c>
       <c r="G766" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C766,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C766,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C766,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bfolomkinl8@yolasite.com</v>
       </c>
       <c r="H766" s="2"/>
@@ -38967,7 +38967,7 @@
         <v>Rafferty Pursglove</v>
       </c>
       <c r="G767" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C767,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C767,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C767,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rpursglovel9@biblegateway.com</v>
       </c>
       <c r="H767" s="2"/>
@@ -38993,7 +38993,7 @@
         <v>Rafferty Pursglove</v>
       </c>
       <c r="G768" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C768,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C768,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C768,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rpursglovel9@biblegateway.com</v>
       </c>
       <c r="H768" s="2"/>
@@ -39019,7 +39019,7 @@
         <v>Foster Constance</v>
       </c>
       <c r="G769" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C769,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C769,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C769,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fconstancekz@ifeng.com</v>
       </c>
       <c r="H769" s="2"/>
@@ -39045,7 +39045,7 @@
         <v>Foster Constance</v>
       </c>
       <c r="G770" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C770,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C770,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C770,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fconstancekz@ifeng.com</v>
       </c>
       <c r="H770" s="2"/>
@@ -39071,7 +39071,7 @@
         <v>Dalia Eburah</v>
       </c>
       <c r="G771" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C771,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C771,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C771,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>deburahld@google.co.jp</v>
       </c>
       <c r="H771" s="2"/>
@@ -39097,7 +39097,7 @@
         <v>Martie Brimilcombe</v>
       </c>
       <c r="G772" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C772,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C772,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C772,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mbrimilcombele@cnn.com</v>
       </c>
       <c r="H772" s="2"/>
@@ -39123,7 +39123,7 @@
         <v>Suzanna Bollam</v>
       </c>
       <c r="G773" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C773,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C773,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C773,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sbollamlf@list-manage.com</v>
       </c>
       <c r="H773" s="2"/>
@@ -39148,9 +39148,9 @@
         <f>_xlfn.XLOOKUP(C774,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Mellisa Mebes</v>
       </c>
-      <c r="G774" s="2">
-        <f>_xlfn.XLOOKUP(C774,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G774" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C774,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C774,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H774" s="2"/>
     </row>
@@ -39175,7 +39175,7 @@
         <v>Alva Filipczak</v>
       </c>
       <c r="G775" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C775,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C775,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C775,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>afilipczaklh@ning.com</v>
       </c>
       <c r="H775" s="2"/>
@@ -39200,9 +39200,9 @@
         <f>_xlfn.XLOOKUP(C776,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Dorette Hinemoor</v>
       </c>
-      <c r="G776" s="2">
-        <f>_xlfn.XLOOKUP(C776,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G776" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C776,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C776,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H776" s="2"/>
     </row>
@@ -39227,7 +39227,7 @@
         <v>Rhetta Elnaugh</v>
       </c>
       <c r="G777" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C777,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C777,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C777,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>relnaughlj@comsenz.com</v>
       </c>
       <c r="H777" s="2"/>
@@ -39253,7 +39253,7 @@
         <v>Jule Deehan</v>
       </c>
       <c r="G778" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C778,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C778,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C778,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdeehanlk@about.me</v>
       </c>
       <c r="H778" s="2"/>
@@ -39279,7 +39279,7 @@
         <v>Janella Eden</v>
       </c>
       <c r="G779" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C779,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C779,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C779,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jedenll@e-recht24.de</v>
       </c>
       <c r="H779" s="2"/>
@@ -39305,7 +39305,7 @@
         <v>Cam Jewster</v>
       </c>
       <c r="G780" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C780,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C780,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C780,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cjewsterlu@moonfruit.com</v>
       </c>
       <c r="H780" s="2"/>
@@ -39331,7 +39331,7 @@
         <v>Ugo Southerden</v>
       </c>
       <c r="G781" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C781,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C781,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C781,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>usoutherdenln@hao123.com</v>
       </c>
       <c r="H781" s="2"/>
@@ -39356,9 +39356,9 @@
         <f>_xlfn.XLOOKUP(C782,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Verne Dunkerley</v>
       </c>
-      <c r="G782" s="2">
-        <f>_xlfn.XLOOKUP(C782,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G782" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C782,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C782,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H782" s="2"/>
     </row>
@@ -39383,7 +39383,7 @@
         <v>Lacee Burtenshaw</v>
       </c>
       <c r="G783" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C783,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C783,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C783,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lburtenshawlp@shinystat.com</v>
       </c>
       <c r="H783" s="2"/>
@@ -39409,7 +39409,7 @@
         <v>Adorne Gregoratti</v>
       </c>
       <c r="G784" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C784,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C784,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C784,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>agregorattilq@vistaprint.com</v>
       </c>
       <c r="H784" s="2"/>
@@ -39435,7 +39435,7 @@
         <v>Chris Croster</v>
       </c>
       <c r="G785" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C785,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C785,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C785,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ccrosterlr@gov.uk</v>
       </c>
       <c r="H785" s="2"/>
@@ -39461,7 +39461,7 @@
         <v>Graeme Whitehead</v>
       </c>
       <c r="G786" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C786,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C786,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C786,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gwhiteheadls@hp.com</v>
       </c>
       <c r="H786" s="2"/>
@@ -39487,7 +39487,7 @@
         <v>Haslett Jodrelle</v>
       </c>
       <c r="G787" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C787,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C787,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C787,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hjodrellelt@samsung.com</v>
       </c>
       <c r="H787" s="2"/>
@@ -39513,7 +39513,7 @@
         <v>Cam Jewster</v>
       </c>
       <c r="G788" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C788,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C788,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C788,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cjewsterlu@moonfruit.com</v>
       </c>
       <c r="H788" s="2"/>
@@ -39538,9 +39538,9 @@
         <f>_xlfn.XLOOKUP(C789,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Beryl Osborn</v>
       </c>
-      <c r="G789" s="2">
-        <f>_xlfn.XLOOKUP(C789,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G789" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C789,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C789,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H789" s="2"/>
     </row>
@@ -39565,7 +39565,7 @@
         <v>Kaela Nottram</v>
       </c>
       <c r="G790" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C790,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C790,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C790,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>knottramlw@odnoklassniki.ru</v>
       </c>
       <c r="H790" s="2"/>
@@ -39591,7 +39591,7 @@
         <v>Nobe Buney</v>
       </c>
       <c r="G791" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C791,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C791,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C791,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nbuneylx@jugem.jp</v>
       </c>
       <c r="H791" s="2"/>
@@ -39617,7 +39617,7 @@
         <v>Silvan McShea</v>
       </c>
       <c r="G792" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C792,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C792,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C792,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>smcshealy@photobucket.com</v>
       </c>
       <c r="H792" s="2"/>
@@ -39643,7 +39643,7 @@
         <v>Karylin Huddart</v>
       </c>
       <c r="G793" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C793,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C793,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C793,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>khuddartlz@about.com</v>
       </c>
       <c r="H793" s="2"/>
@@ -39669,7 +39669,7 @@
         <v>Jereme Gippes</v>
       </c>
       <c r="G794" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C794,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C794,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C794,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jgippesm0@cloudflare.com</v>
       </c>
       <c r="H794" s="2"/>
@@ -39695,7 +39695,7 @@
         <v>Lukas Whittlesee</v>
       </c>
       <c r="G795" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C795,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C795,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C795,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lwhittleseem1@e-recht24.de</v>
       </c>
       <c r="H795" s="2"/>
@@ -39721,7 +39721,7 @@
         <v>Gregorius Trengrove</v>
       </c>
       <c r="G796" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C796,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C796,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C796,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gtrengrovem2@elpais.com</v>
       </c>
       <c r="H796" s="2"/>
@@ -39747,7 +39747,7 @@
         <v>Wright Caldero</v>
       </c>
       <c r="G797" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C797,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C797,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C797,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wcalderom3@stumbleupon.com</v>
       </c>
       <c r="H797" s="2"/>
@@ -39772,9 +39772,9 @@
         <f>_xlfn.XLOOKUP(C798,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Merell Zanazzi</v>
       </c>
-      <c r="G798" s="2">
-        <f>_xlfn.XLOOKUP(C798,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G798" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C798,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C798,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H798" s="2"/>
     </row>
@@ -39799,7 +39799,7 @@
         <v>Jed Kennicott</v>
       </c>
       <c r="G799" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C799,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C799,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C799,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jkennicottm5@yahoo.co.jp</v>
       </c>
       <c r="H799" s="2"/>
@@ -39825,7 +39825,7 @@
         <v>Guenevere Ruggen</v>
       </c>
       <c r="G800" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C800,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C800,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C800,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gruggenm6@nymag.com</v>
       </c>
       <c r="H800" s="2"/>
@@ -39850,9 +39850,9 @@
         <f>_xlfn.XLOOKUP(C801,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Gonzales Cicculi</v>
       </c>
-      <c r="G801" s="2">
-        <f>_xlfn.XLOOKUP(C801,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G801" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C801,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C801,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H801" s="2"/>
     </row>
@@ -39877,7 +39877,7 @@
         <v>Man Fright</v>
       </c>
       <c r="G802" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C802,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C802,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C802,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mfrightm8@harvard.edu</v>
       </c>
       <c r="H802" s="2"/>
@@ -39903,7 +39903,7 @@
         <v>Boyce Tarte</v>
       </c>
       <c r="G803" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C803,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C803,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C803,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>btartem9@aol.com</v>
       </c>
       <c r="H803" s="2"/>
@@ -39929,7 +39929,7 @@
         <v>Caddric Krzysztofiak</v>
       </c>
       <c r="G804" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C804,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C804,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C804,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ckrzysztofiakma@skyrock.com</v>
       </c>
       <c r="H804" s="2"/>
@@ -39955,7 +39955,7 @@
         <v>Darn Penquet</v>
       </c>
       <c r="G805" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C805,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C805,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C805,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dpenquetmb@diigo.com</v>
       </c>
       <c r="H805" s="2"/>
@@ -39980,9 +39980,9 @@
         <f>_xlfn.XLOOKUP(C806,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Jammie Cloke</v>
       </c>
-      <c r="G806" s="2">
-        <f>_xlfn.XLOOKUP(C806,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G806" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C806,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C806,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H806" s="2"/>
     </row>
@@ -40006,9 +40006,9 @@
         <f>_xlfn.XLOOKUP(C807,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Chester Clowton</v>
       </c>
-      <c r="G807" s="2">
-        <f>_xlfn.XLOOKUP(C807,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G807" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C807,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C807,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H807" s="2"/>
     </row>
@@ -40032,9 +40032,9 @@
         <f>_xlfn.XLOOKUP(C808,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Kathleen Diable</v>
       </c>
-      <c r="G808" s="2">
-        <f>_xlfn.XLOOKUP(C808,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G808" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C808,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C808,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H808" s="2"/>
     </row>
@@ -40059,7 +40059,7 @@
         <v>Koren Ferretti</v>
       </c>
       <c r="G809" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C809,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C809,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C809,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kferrettimf@huffingtonpost.com</v>
       </c>
       <c r="H809" s="2"/>
@@ -40084,9 +40084,9 @@
         <f>_xlfn.XLOOKUP(C810,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Allis Wilmore</v>
       </c>
-      <c r="G810" s="2">
-        <f>_xlfn.XLOOKUP(C810,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G810" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C810,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C810,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H810" s="2"/>
     </row>
@@ -40110,9 +40110,9 @@
         <f>_xlfn.XLOOKUP(C811,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Chaddie Bennie</v>
       </c>
-      <c r="G811" s="2">
-        <f>_xlfn.XLOOKUP(C811,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G811" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C811,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C811,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H811" s="2"/>
     </row>
@@ -40137,7 +40137,7 @@
         <v>Alberta Balsdone</v>
       </c>
       <c r="G812" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C812,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C812,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C812,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>abalsdonemi@toplist.cz</v>
       </c>
       <c r="H812" s="2"/>
@@ -40163,7 +40163,7 @@
         <v>Brice Romera</v>
       </c>
       <c r="G813" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C813,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C813,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C813,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bromeramj@list-manage.com</v>
       </c>
       <c r="H813" s="2"/>
@@ -40189,7 +40189,7 @@
         <v>Brice Romera</v>
       </c>
       <c r="G814" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C814,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C814,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C814,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bromeramj@list-manage.com</v>
       </c>
       <c r="H814" s="2"/>
@@ -40215,7 +40215,7 @@
         <v>Conchita Bryde</v>
       </c>
       <c r="G815" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C815,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C815,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C815,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cbrydeml@tuttocitta.it</v>
       </c>
       <c r="H815" s="2"/>
@@ -40241,7 +40241,7 @@
         <v>Silvanus Enefer</v>
       </c>
       <c r="G816" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C816,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C816,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C816,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>senefermm@blog.com</v>
       </c>
       <c r="H816" s="2"/>
@@ -40267,7 +40267,7 @@
         <v>Lenci Haggerstone</v>
       </c>
       <c r="G817" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C817,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C817,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C817,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lhaggerstonemn@independent.co.uk</v>
       </c>
       <c r="H817" s="2"/>
@@ -40293,7 +40293,7 @@
         <v>Marvin Gundry</v>
       </c>
       <c r="G818" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C818,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C818,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C818,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mgundrymo@omniture.com</v>
       </c>
       <c r="H818" s="2"/>
@@ -40319,7 +40319,7 @@
         <v>Bayard Wellan</v>
       </c>
       <c r="G819" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C819,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C819,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C819,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bwellanmp@cafepress.com</v>
       </c>
       <c r="H819" s="2"/>
@@ -40344,9 +40344,9 @@
         <f>_xlfn.XLOOKUP(C820,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Allis Wilmore</v>
       </c>
-      <c r="G820" s="2">
-        <f>_xlfn.XLOOKUP(C820,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G820" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C820,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C820,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H820" s="2"/>
     </row>
@@ -40371,7 +40371,7 @@
         <v>Caddric Atcheson</v>
       </c>
       <c r="G821" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C821,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C821,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C821,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>catchesonmr@xinhuanet.com</v>
       </c>
       <c r="H821" s="2"/>
@@ -40397,7 +40397,7 @@
         <v>Eustace Stenton</v>
       </c>
       <c r="G822" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C822,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C822,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C822,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>estentonms@google.it</v>
       </c>
       <c r="H822" s="2"/>
@@ -40423,7 +40423,7 @@
         <v>Ericka Tripp</v>
       </c>
       <c r="G823" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C823,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C823,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C823,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>etrippmt@wp.com</v>
       </c>
       <c r="H823" s="2"/>
@@ -40449,7 +40449,7 @@
         <v>Lyndsey MacManus</v>
       </c>
       <c r="G824" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C824,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C824,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C824,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lmacmanusmu@imdb.com</v>
       </c>
       <c r="H824" s="2"/>
@@ -40475,7 +40475,7 @@
         <v>Tess Benediktovich</v>
       </c>
       <c r="G825" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C825,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C825,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C825,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tbenediktovichmv@ebay.com</v>
       </c>
       <c r="H825" s="2"/>
@@ -40501,7 +40501,7 @@
         <v>Correy Bourner</v>
       </c>
       <c r="G826" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C826,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C826,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C826,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cbournermw@chronoengine.com</v>
       </c>
       <c r="H826" s="2"/>
@@ -40527,7 +40527,7 @@
         <v>Odelia Skerme</v>
       </c>
       <c r="G827" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C827,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C827,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C827,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>oskermen3@hatena.ne.jp</v>
       </c>
       <c r="H827" s="2"/>
@@ -40553,7 +40553,7 @@
         <v>Kandy Heddan</v>
       </c>
       <c r="G828" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C828,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C828,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C828,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kheddanmy@icq.com</v>
       </c>
       <c r="H828" s="2"/>
@@ -40579,7 +40579,7 @@
         <v>Ibby Charters</v>
       </c>
       <c r="G829" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C829,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C829,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C829,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ichartersmz@abc.net.au</v>
       </c>
       <c r="H829" s="2"/>
@@ -40605,7 +40605,7 @@
         <v>Adora Roubert</v>
       </c>
       <c r="G830" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C830,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C830,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C830,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>aroubertn0@tmall.com</v>
       </c>
       <c r="H830" s="2"/>
@@ -40631,7 +40631,7 @@
         <v>Hillel Mairs</v>
       </c>
       <c r="G831" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C831,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C831,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C831,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hmairsn1@so-net.ne.jp</v>
       </c>
       <c r="H831" s="2"/>
@@ -40657,7 +40657,7 @@
         <v>Helaina Rainforth</v>
       </c>
       <c r="G832" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C832,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C832,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C832,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hrainforthn2@blog.com</v>
       </c>
       <c r="H832" s="2"/>
@@ -40683,7 +40683,7 @@
         <v>Helaina Rainforth</v>
       </c>
       <c r="G833" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C833,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C833,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C833,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hrainforthn2@blog.com</v>
       </c>
       <c r="H833" s="2"/>
@@ -40709,7 +40709,7 @@
         <v>Isac Jesper</v>
       </c>
       <c r="G834" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C834,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C834,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C834,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ijespern4@theglobeandmail.com</v>
       </c>
       <c r="H834" s="2"/>
@@ -40735,7 +40735,7 @@
         <v>Lenette Dwerryhouse</v>
       </c>
       <c r="G835" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C835,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C835,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C835,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ldwerryhousen5@gravatar.com</v>
       </c>
       <c r="H835" s="2"/>
@@ -40761,7 +40761,7 @@
         <v>Nadeen Broomer</v>
       </c>
       <c r="G836" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C836,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C836,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C836,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nbroomern6@examiner.com</v>
       </c>
       <c r="H836" s="2"/>
@@ -40787,7 +40787,7 @@
         <v>Konstantine Thoumasson</v>
       </c>
       <c r="G837" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C837,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C837,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C837,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kthoumassonn7@bloglovin.com</v>
       </c>
       <c r="H837" s="2"/>
@@ -40813,7 +40813,7 @@
         <v>Frans Habbergham</v>
       </c>
       <c r="G838" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C838,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C838,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C838,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fhabberghamn8@discovery.com</v>
       </c>
       <c r="H838" s="2"/>
@@ -40838,9 +40838,9 @@
         <f>_xlfn.XLOOKUP(C839,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Allis Wilmore</v>
       </c>
-      <c r="G839" s="2">
-        <f>_xlfn.XLOOKUP(C839,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G839" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C839,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C839,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H839" s="2"/>
     </row>
@@ -40865,7 +40865,7 @@
         <v>Romain Avrashin</v>
       </c>
       <c r="G840" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C840,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C840,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C840,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ravrashinna@tamu.edu</v>
       </c>
       <c r="H840" s="2"/>
@@ -40891,7 +40891,7 @@
         <v>Miran Doidge</v>
       </c>
       <c r="G841" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C841,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C841,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C841,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mdoidgenb@etsy.com</v>
       </c>
       <c r="H841" s="2"/>
@@ -40917,7 +40917,7 @@
         <v>Janeva Edinboro</v>
       </c>
       <c r="G842" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C842,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C842,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C842,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jedinboronc@reverbnation.com</v>
       </c>
       <c r="H842" s="2"/>
@@ -40943,7 +40943,7 @@
         <v>Trumaine Tewelson</v>
       </c>
       <c r="G843" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C843,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C843,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C843,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ttewelsonnd@cdbaby.com</v>
       </c>
       <c r="H843" s="2"/>
@@ -40969,7 +40969,7 @@
         <v>Odelia Skerme</v>
       </c>
       <c r="G844" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C844,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C844,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C844,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>oskermen3@hatena.ne.jp</v>
       </c>
       <c r="H844" s="2"/>
@@ -40995,7 +40995,7 @@
         <v>De Drewitt</v>
       </c>
       <c r="G845" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C845,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C845,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C845,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ddrewittnf@mapquest.com</v>
       </c>
       <c r="H845" s="2"/>
@@ -41021,7 +41021,7 @@
         <v>Adelheid Gladhill</v>
       </c>
       <c r="G846" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C846,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C846,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C846,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>agladhillng@stanford.edu</v>
       </c>
       <c r="H846" s="2"/>
@@ -41047,7 +41047,7 @@
         <v>Murielle Lorinez</v>
       </c>
       <c r="G847" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C847,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C847,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C847,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mlorineznh@whitehouse.gov</v>
       </c>
       <c r="H847" s="2"/>
@@ -41072,9 +41072,9 @@
         <f>_xlfn.XLOOKUP(C848,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Edin Mathe</v>
       </c>
-      <c r="G848" s="2">
-        <f>_xlfn.XLOOKUP(C848,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G848" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C848,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C848,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H848" s="2"/>
     </row>
@@ -41099,7 +41099,7 @@
         <v>Mordy Van Der Vlies</v>
       </c>
       <c r="G849" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C849,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C849,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C849,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mvannj@wikipedia.org</v>
       </c>
       <c r="H849" s="2"/>
@@ -41124,9 +41124,9 @@
         <f>_xlfn.XLOOKUP(C850,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Spencer Wastell</v>
       </c>
-      <c r="G850" s="2">
-        <f>_xlfn.XLOOKUP(C850,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G850" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C850,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C850,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H850" s="2"/>
     </row>
@@ -41151,7 +41151,7 @@
         <v>Jemimah Ethelston</v>
       </c>
       <c r="G851" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C851,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C851,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C851,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jethelstonnl@creativecommons.org</v>
       </c>
       <c r="H851" s="2"/>
@@ -41177,7 +41177,7 @@
         <v>Jemimah Ethelston</v>
       </c>
       <c r="G852" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C852,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C852,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C852,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jethelstonnl@creativecommons.org</v>
       </c>
       <c r="H852" s="2"/>
@@ -41203,7 +41203,7 @@
         <v>Perice Eberz</v>
       </c>
       <c r="G853" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C853,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C853,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C853,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>peberznn@woothemes.com</v>
       </c>
       <c r="H853" s="2"/>
@@ -41229,7 +41229,7 @@
         <v>Bear Gaish</v>
       </c>
       <c r="G854" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C854,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C854,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C854,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bgaishno@altervista.org</v>
       </c>
       <c r="H854" s="2"/>
@@ -41255,7 +41255,7 @@
         <v>Lynnea Danton</v>
       </c>
       <c r="G855" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C855,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C855,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C855,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ldantonnp@miitbeian.gov.cn</v>
       </c>
       <c r="H855" s="2"/>
@@ -41281,7 +41281,7 @@
         <v>Skipton Morrall</v>
       </c>
       <c r="G856" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C856,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C856,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C856,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>smorrallnq@answers.com</v>
       </c>
       <c r="H856" s="2"/>
@@ -41307,7 +41307,7 @@
         <v>Devan Crownshaw</v>
       </c>
       <c r="G857" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C857,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C857,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C857,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dcrownshawnr@photobucket.com</v>
       </c>
       <c r="H857" s="2"/>
@@ -41333,7 +41333,7 @@
         <v>Odelia Skerme</v>
       </c>
       <c r="G858" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C858,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C858,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C858,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>oskermen3@hatena.ne.jp</v>
       </c>
       <c r="H858" s="2"/>
@@ -41359,7 +41359,7 @@
         <v>Joceline Reddoch</v>
       </c>
       <c r="G859" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C859,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C859,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C859,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jreddochnt@sun.com</v>
       </c>
       <c r="H859" s="2"/>
@@ -41385,7 +41385,7 @@
         <v>Shelley Titley</v>
       </c>
       <c r="G860" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C860,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C860,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C860,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>stitleynu@whitehouse.gov</v>
       </c>
       <c r="H860" s="2"/>
@@ -41411,7 +41411,7 @@
         <v>Redd Simao</v>
       </c>
       <c r="G861" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C861,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C861,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C861,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rsimaonv@simplemachines.org</v>
       </c>
       <c r="H861" s="2"/>
@@ -41436,9 +41436,9 @@
         <f>_xlfn.XLOOKUP(C862,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Cece Inker</v>
       </c>
-      <c r="G862" s="2">
-        <f>_xlfn.XLOOKUP(C862,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G862" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C862,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C862,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H862" s="2"/>
     </row>
@@ -41463,7 +41463,7 @@
         <v>Noel Chisholm</v>
       </c>
       <c r="G863" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C863,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C863,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C863,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nchisholmnx@example.com</v>
       </c>
       <c r="H863" s="2"/>
@@ -41489,7 +41489,7 @@
         <v>Grazia Oats</v>
       </c>
       <c r="G864" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C864,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C864,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C864,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>goatsny@live.com</v>
       </c>
       <c r="H864" s="2"/>
@@ -41515,7 +41515,7 @@
         <v>Meade Birkin</v>
       </c>
       <c r="G865" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C865,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C865,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C865,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mbirkinnz@java.com</v>
       </c>
       <c r="H865" s="2"/>
@@ -41541,7 +41541,7 @@
         <v>Ronda Pyson</v>
       </c>
       <c r="G866" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C866,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C866,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C866,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rpysono0@constantcontact.com</v>
       </c>
       <c r="H866" s="2"/>
@@ -41567,7 +41567,7 @@
         <v>Modesty MacConnechie</v>
       </c>
       <c r="G867" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C867,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C867,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C867,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mmacconnechieo9@reuters.com</v>
       </c>
       <c r="H867" s="2"/>
@@ -41593,7 +41593,7 @@
         <v>Rafaela Treacher</v>
       </c>
       <c r="G868" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C868,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C868,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C868,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rtreachero2@usa.gov</v>
       </c>
       <c r="H868" s="2"/>
@@ -41619,7 +41619,7 @@
         <v>Bee Fattorini</v>
       </c>
       <c r="G869" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C869,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C869,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C869,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bfattorinio3@quantcast.com</v>
       </c>
       <c r="H869" s="2"/>
@@ -41645,7 +41645,7 @@
         <v>Margie Palleske</v>
       </c>
       <c r="G870" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C870,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C870,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C870,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mpalleskeo4@nyu.edu</v>
       </c>
       <c r="H870" s="2"/>
@@ -41670,9 +41670,9 @@
         <f>_xlfn.XLOOKUP(C871,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Alexina Randals</v>
       </c>
-      <c r="G871" s="2">
-        <f>_xlfn.XLOOKUP(C871,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G871" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C871,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C871,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H871" s="2"/>
     </row>
@@ -41697,7 +41697,7 @@
         <v>Filip Antcliffe</v>
       </c>
       <c r="G872" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C872,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C872,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C872,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fantcliffeo6@amazon.co.jp</v>
       </c>
       <c r="H872" s="2"/>
@@ -41723,7 +41723,7 @@
         <v>Peyter Matignon</v>
       </c>
       <c r="G873" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C873,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C873,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C873,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pmatignono7@harvard.edu</v>
       </c>
       <c r="H873" s="2"/>
@@ -41749,7 +41749,7 @@
         <v>Claudie Weond</v>
       </c>
       <c r="G874" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C874,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C874,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C874,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cweondo8@theglobeandmail.com</v>
       </c>
       <c r="H874" s="2"/>
@@ -41775,7 +41775,7 @@
         <v>Modesty MacConnechie</v>
       </c>
       <c r="G875" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C875,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C875,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C875,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mmacconnechieo9@reuters.com</v>
       </c>
       <c r="H875" s="2"/>
@@ -41801,7 +41801,7 @@
         <v>Jaquenette Skentelbery</v>
       </c>
       <c r="G876" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C876,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C876,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C876,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jskentelberyoa@paypal.com</v>
       </c>
       <c r="H876" s="2"/>
@@ -41827,7 +41827,7 @@
         <v>Orazio Comber</v>
       </c>
       <c r="G877" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C877,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C877,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C877,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ocomberob@goo.gl</v>
       </c>
       <c r="H877" s="2"/>
@@ -41853,7 +41853,7 @@
         <v>Orazio Comber</v>
       </c>
       <c r="G878" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C878,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C878,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C878,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ocomberob@goo.gl</v>
       </c>
       <c r="H878" s="2"/>
@@ -41879,7 +41879,7 @@
         <v>Zachary Tramel</v>
       </c>
       <c r="G879" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C879,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C879,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C879,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ztramelod@netlog.com</v>
       </c>
       <c r="H879" s="2"/>
@@ -41904,9 +41904,9 @@
         <f>_xlfn.XLOOKUP(C880,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Izaak Primak</v>
       </c>
-      <c r="G880" s="2">
-        <f>_xlfn.XLOOKUP(C880,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G880" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C880,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C880,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H880" s="2"/>
     </row>
@@ -41930,9 +41930,9 @@
         <f>_xlfn.XLOOKUP(C881,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brittani Thoresbie</v>
       </c>
-      <c r="G881" s="2">
-        <f>_xlfn.XLOOKUP(C881,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G881" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C881,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C881,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H881" s="2"/>
     </row>
@@ -41957,7 +41957,7 @@
         <v>Constanta Hatfull</v>
       </c>
       <c r="G882" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C882,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C882,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C882,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>chatfullog@ebay.com</v>
       </c>
       <c r="H882" s="2"/>
@@ -41982,9 +41982,9 @@
         <f>_xlfn.XLOOKUP(C883,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Bobbe Castagneto</v>
       </c>
-      <c r="G883" s="2">
-        <f>_xlfn.XLOOKUP(C883,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G883" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C883,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C883,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H883" s="2"/>
     </row>
@@ -42009,7 +42009,7 @@
         <v>Kippie Marrison</v>
       </c>
       <c r="G884" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C884,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C884,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C884,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kmarrisonoq@dropbox.com</v>
       </c>
       <c r="H884" s="2"/>
@@ -42035,7 +42035,7 @@
         <v>Lindon Agnolo</v>
       </c>
       <c r="G885" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C885,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C885,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C885,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lagnolooj@pinterest.com</v>
       </c>
       <c r="H885" s="2"/>
@@ -42061,7 +42061,7 @@
         <v>Delainey Kiddy</v>
       </c>
       <c r="G886" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C886,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C886,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C886,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dkiddyok@fda.gov</v>
       </c>
       <c r="H886" s="2"/>
@@ -42087,7 +42087,7 @@
         <v>Helli Petroulis</v>
       </c>
       <c r="G887" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C887,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C887,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C887,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hpetroulisol@state.tx.us</v>
       </c>
       <c r="H887" s="2"/>
@@ -42113,7 +42113,7 @@
         <v>Marty Scholl</v>
       </c>
       <c r="G888" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C888,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C888,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C888,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mschollom@taobao.com</v>
       </c>
       <c r="H888" s="2"/>
@@ -42139,7 +42139,7 @@
         <v>Kienan Ferson</v>
       </c>
       <c r="G889" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C889,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C889,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C889,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kfersonon@g.co</v>
       </c>
       <c r="H889" s="2"/>
@@ -42165,7 +42165,7 @@
         <v>Blake Kelloway</v>
       </c>
       <c r="G890" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C890,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C890,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C890,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bkellowayoo@omniture.com</v>
       </c>
       <c r="H890" s="2"/>
@@ -42191,7 +42191,7 @@
         <v>Scarlett Oliffe</v>
       </c>
       <c r="G891" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C891,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C891,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C891,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>soliffeop@yellowbook.com</v>
       </c>
       <c r="H891" s="2"/>
@@ -42217,7 +42217,7 @@
         <v>Kippie Marrison</v>
       </c>
       <c r="G892" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C892,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C892,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C892,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kmarrisonoq@dropbox.com</v>
       </c>
       <c r="H892" s="2"/>
@@ -42243,7 +42243,7 @@
         <v>Celestia Dolohunty</v>
       </c>
       <c r="G893" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C893,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C893,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C893,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cdolohuntyor@dailymail.co.uk</v>
       </c>
       <c r="H893" s="2"/>
@@ -42269,7 +42269,7 @@
         <v>Patsy Vasilenko</v>
       </c>
       <c r="G894" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C894,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C894,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C894,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>pvasilenkoos@addtoany.com</v>
       </c>
       <c r="H894" s="2"/>
@@ -42295,7 +42295,7 @@
         <v>Raphaela Schankelborg</v>
       </c>
       <c r="G895" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C895,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C895,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C895,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rschankelborgot@ameblo.jp</v>
       </c>
       <c r="H895" s="2"/>
@@ -42320,9 +42320,9 @@
         <f>_xlfn.XLOOKUP(C896,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Sharity Wickens</v>
       </c>
-      <c r="G896" s="2">
-        <f>_xlfn.XLOOKUP(C896,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G896" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C896,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C896,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H896" s="2"/>
     </row>
@@ -42346,9 +42346,9 @@
         <f>_xlfn.XLOOKUP(C897,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Derick Snow</v>
       </c>
-      <c r="G897" s="2">
-        <f>_xlfn.XLOOKUP(C897,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G897" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C897,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C897,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H897" s="2"/>
     </row>
@@ -42373,7 +42373,7 @@
         <v>Baxy Cargen</v>
       </c>
       <c r="G898" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C898,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C898,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C898,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bcargenow@geocities.jp</v>
       </c>
       <c r="H898" s="2"/>
@@ -42399,7 +42399,7 @@
         <v>Ryann Stickler</v>
       </c>
       <c r="G899" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C899,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C899,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C899,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rsticklerox@printfriendly.com</v>
       </c>
       <c r="H899" s="2"/>
@@ -42424,9 +42424,9 @@
         <f>_xlfn.XLOOKUP(C900,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Daryn Cassius</v>
       </c>
-      <c r="G900" s="2">
-        <f>_xlfn.XLOOKUP(C900,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G900" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C900,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C900,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H900" s="2"/>
     </row>
@@ -42450,9 +42450,9 @@
         <f>_xlfn.XLOOKUP(C901,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Derick Snow</v>
       </c>
-      <c r="G901" s="2">
-        <f>_xlfn.XLOOKUP(C901,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G901" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C901,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C901,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H901" s="2"/>
     </row>
@@ -42476,9 +42476,9 @@
         <f>_xlfn.XLOOKUP(C902,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Skelly Dolohunty</v>
       </c>
-      <c r="G902" s="2">
-        <f>_xlfn.XLOOKUP(C902,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G902" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C902,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C902,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H902" s="2"/>
     </row>
@@ -42503,7 +42503,7 @@
         <v>Drake Jevon</v>
       </c>
       <c r="G903" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C903,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C903,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C903,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>djevonp1@ibm.com</v>
       </c>
       <c r="H903" s="2"/>
@@ -42529,7 +42529,7 @@
         <v>Hall Ranner</v>
       </c>
       <c r="G904" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C904,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C904,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C904,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hrannerp2@omniture.com</v>
       </c>
       <c r="H904" s="2"/>
@@ -42555,7 +42555,7 @@
         <v>Berkly Imrie</v>
       </c>
       <c r="G905" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C905,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C905,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C905,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bimriep3@addtoany.com</v>
       </c>
       <c r="H905" s="2"/>
@@ -42581,7 +42581,7 @@
         <v>Dorey Sopper</v>
       </c>
       <c r="G906" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C906,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C906,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C906,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dsopperp4@eventbrite.com</v>
       </c>
       <c r="H906" s="2"/>
@@ -42606,9 +42606,9 @@
         <f>_xlfn.XLOOKUP(C907,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Darcy Lochran</v>
       </c>
-      <c r="G907" s="2">
-        <f>_xlfn.XLOOKUP(C907,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G907" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C907,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C907,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H907" s="2"/>
     </row>
@@ -42633,7 +42633,7 @@
         <v>Lauritz Ledgley</v>
       </c>
       <c r="G908" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C908,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C908,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C908,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lledgleyp6@de.vu</v>
       </c>
       <c r="H908" s="2"/>
@@ -42659,7 +42659,7 @@
         <v>Tawnya Menary</v>
       </c>
       <c r="G909" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C909,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C909,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C909,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>tmenaryp7@phoca.cz</v>
       </c>
       <c r="H909" s="2"/>
@@ -42685,7 +42685,7 @@
         <v>Gustaf Ciccotti</v>
       </c>
       <c r="G910" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C910,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C910,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C910,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gciccottip8@so-net.ne.jp</v>
       </c>
       <c r="H910" s="2"/>
@@ -42710,9 +42710,9 @@
         <f>_xlfn.XLOOKUP(C911,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Bobbe Renner</v>
       </c>
-      <c r="G911" s="2">
-        <f>_xlfn.XLOOKUP(C911,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G911" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C911,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C911,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H911" s="2"/>
     </row>
@@ -42737,7 +42737,7 @@
         <v>Wilton Jallin</v>
       </c>
       <c r="G912" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C912,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C912,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C912,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wjallinpa@pcworld.com</v>
       </c>
       <c r="H912" s="2"/>
@@ -42763,7 +42763,7 @@
         <v>Mindy Bogey</v>
       </c>
       <c r="G913" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C913,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C913,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C913,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mbogeypb@thetimes.co.uk</v>
       </c>
       <c r="H913" s="2"/>
@@ -42788,9 +42788,9 @@
         <f>_xlfn.XLOOKUP(C914,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Paulie Fonzone</v>
       </c>
-      <c r="G914" s="2">
-        <f>_xlfn.XLOOKUP(C914,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G914" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C914,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C914,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H914" s="2"/>
     </row>
@@ -42815,7 +42815,7 @@
         <v>Merrile Cobbledick</v>
       </c>
       <c r="G915" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C915,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C915,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C915,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mcobbledickpd@ucsd.edu</v>
       </c>
       <c r="H915" s="2"/>
@@ -42841,7 +42841,7 @@
         <v>Antonius Lewry</v>
       </c>
       <c r="G916" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C916,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C916,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C916,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>alewrype@whitehouse.gov</v>
       </c>
       <c r="H916" s="2"/>
@@ -42867,7 +42867,7 @@
         <v>Isis Hessel</v>
       </c>
       <c r="G917" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C917,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C917,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C917,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ihesselpf@ox.ac.uk</v>
       </c>
       <c r="H917" s="2"/>
@@ -42892,9 +42892,9 @@
         <f>_xlfn.XLOOKUP(C918,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Harland Trematick</v>
       </c>
-      <c r="G918" s="2">
-        <f>_xlfn.XLOOKUP(C918,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G918" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C918,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C918,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H918" s="2"/>
     </row>
@@ -42919,7 +42919,7 @@
         <v>Chloris Sorrell</v>
       </c>
       <c r="G919" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C919,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C919,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C919,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>csorrellph@amazon.com</v>
       </c>
       <c r="H919" s="2"/>
@@ -42945,7 +42945,7 @@
         <v>Chloris Sorrell</v>
       </c>
       <c r="G920" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C920,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C920,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C920,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>csorrellph@amazon.com</v>
       </c>
       <c r="H920" s="2"/>
@@ -42971,7 +42971,7 @@
         <v>Quintina Heavyside</v>
       </c>
       <c r="G921" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C921,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C921,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C921,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>qheavysidepj@unc.edu</v>
       </c>
       <c r="H921" s="2"/>
@@ -42997,7 +42997,7 @@
         <v>Hadley Reuven</v>
       </c>
       <c r="G922" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C922,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C922,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C922,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hreuvenpk@whitehouse.gov</v>
       </c>
       <c r="H922" s="2"/>
@@ -43023,7 +43023,7 @@
         <v>Mitch Attwool</v>
       </c>
       <c r="G923" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C923,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C923,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C923,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mattwoolpl@nba.com</v>
       </c>
       <c r="H923" s="2"/>
@@ -43048,9 +43048,9 @@
         <f>_xlfn.XLOOKUP(C924,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Charin Maplethorp</v>
       </c>
-      <c r="G924" s="2">
-        <f>_xlfn.XLOOKUP(C924,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G924" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C924,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C924,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H924" s="2"/>
     </row>
@@ -43075,7 +43075,7 @@
         <v>Goldie Wynes</v>
       </c>
       <c r="G925" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C925,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C925,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C925,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gwynespn@dagondesign.com</v>
       </c>
       <c r="H925" s="2"/>
@@ -43101,7 +43101,7 @@
         <v>Celie MacCourt</v>
       </c>
       <c r="G926" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C926,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C926,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C926,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cmaccourtpo@amazon.com</v>
       </c>
       <c r="H926" s="2"/>
@@ -43126,9 +43126,9 @@
         <f>_xlfn.XLOOKUP(C927,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Derick Snow</v>
       </c>
-      <c r="G927" s="2">
-        <f>_xlfn.XLOOKUP(C927,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G927" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C927,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C927,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H927" s="2"/>
     </row>
@@ -43153,7 +43153,7 @@
         <v>Evy Wilsone</v>
       </c>
       <c r="G928" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C928,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C928,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C928,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ewilsonepq@eepurl.com</v>
       </c>
       <c r="H928" s="2"/>
@@ -43179,7 +43179,7 @@
         <v>Dolores Duffie</v>
       </c>
       <c r="G929" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C929,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C929,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C929,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dduffiepr@time.com</v>
       </c>
       <c r="H929" s="2"/>
@@ -43205,7 +43205,7 @@
         <v>Mathilda Matiasek</v>
       </c>
       <c r="G930" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C930,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C930,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C930,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mmatiasekps@ucoz.ru</v>
       </c>
       <c r="H930" s="2"/>
@@ -43231,7 +43231,7 @@
         <v>Jarred Camillo</v>
       </c>
       <c r="G931" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C931,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C931,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C931,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jcamillopt@shinystat.com</v>
       </c>
       <c r="H931" s="2"/>
@@ -43257,7 +43257,7 @@
         <v>Kameko Philbrick</v>
       </c>
       <c r="G932" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C932,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C932,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C932,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kphilbrickpu@cdc.gov</v>
       </c>
       <c r="H932" s="2"/>
@@ -43282,9 +43282,9 @@
         <f>_xlfn.XLOOKUP(C933,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Mallory Shrimpling</v>
       </c>
-      <c r="G933" s="2">
-        <f>_xlfn.XLOOKUP(C933,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G933" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C933,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C933,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H933" s="2"/>
     </row>
@@ -43309,7 +43309,7 @@
         <v>Barnett Sillis</v>
       </c>
       <c r="G934" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C934,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C934,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C934,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bsillispw@istockphoto.com</v>
       </c>
       <c r="H934" s="2"/>
@@ -43334,9 +43334,9 @@
         <f>_xlfn.XLOOKUP(C935,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brenn Dundredge</v>
       </c>
-      <c r="G935" s="2">
-        <f>_xlfn.XLOOKUP(C935,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G935" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C935,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C935,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H935" s="2"/>
     </row>
@@ -43361,7 +43361,7 @@
         <v>Read Cutts</v>
       </c>
       <c r="G936" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C936,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C936,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C936,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rcuttspy@techcrunch.com</v>
       </c>
       <c r="H936" s="2"/>
@@ -43387,7 +43387,7 @@
         <v>Michale Delves</v>
       </c>
       <c r="G937" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C937,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C937,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C937,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mdelvespz@nature.com</v>
       </c>
       <c r="H937" s="2"/>
@@ -43413,7 +43413,7 @@
         <v>Devland Gritton</v>
       </c>
       <c r="G938" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C938,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C938,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C938,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dgrittonq0@nydailynews.com</v>
       </c>
       <c r="H938" s="2"/>
@@ -43439,7 +43439,7 @@
         <v>Devland Gritton</v>
       </c>
       <c r="G939" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C939,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C939,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C939,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dgrittonq0@nydailynews.com</v>
       </c>
       <c r="H939" s="2"/>
@@ -43465,7 +43465,7 @@
         <v>Dell Gut</v>
       </c>
       <c r="G940" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C940,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C940,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C940,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>dgutq2@umich.edu</v>
       </c>
       <c r="H940" s="2"/>
@@ -43491,7 +43491,7 @@
         <v>Willy Pummery</v>
       </c>
       <c r="G941" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C941,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C941,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C941,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wpummeryq3@topsy.com</v>
       </c>
       <c r="H941" s="2"/>
@@ -43517,7 +43517,7 @@
         <v>Geoffrey Siuda</v>
       </c>
       <c r="G942" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C942,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C942,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C942,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gsiudaq4@nytimes.com</v>
       </c>
       <c r="H942" s="2"/>
@@ -43543,7 +43543,7 @@
         <v>Henderson Crowne</v>
       </c>
       <c r="G943" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C943,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C943,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C943,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>hcrowneq5@wufoo.com</v>
       </c>
       <c r="H943" s="2"/>
@@ -43569,7 +43569,7 @@
         <v>Vernor Pawsey</v>
       </c>
       <c r="G944" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C944,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C944,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C944,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>vpawseyq6@tiny.cc</v>
       </c>
       <c r="H944" s="2"/>
@@ -43595,7 +43595,7 @@
         <v>Augustin Waterhouse</v>
       </c>
       <c r="G945" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C945,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C945,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C945,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>awaterhouseq7@istockphoto.com</v>
       </c>
       <c r="H945" s="2"/>
@@ -43621,7 +43621,7 @@
         <v>Fanchon Haughian</v>
       </c>
       <c r="G946" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C946,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C946,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C946,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fhaughianq8@1688.com</v>
       </c>
       <c r="H946" s="2"/>
@@ -43646,9 +43646,9 @@
         <f>_xlfn.XLOOKUP(C947,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Jaimie Hatz</v>
       </c>
-      <c r="G947" s="2">
-        <f>_xlfn.XLOOKUP(C947,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G947" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C947,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C947,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H947" s="2"/>
     </row>
@@ -43672,9 +43672,9 @@
         <f>_xlfn.XLOOKUP(C948,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Edeline Edney</v>
       </c>
-      <c r="G948" s="2">
-        <f>_xlfn.XLOOKUP(C948,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G948" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C948,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C948,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H948" s="2"/>
     </row>
@@ -43699,7 +43699,7 @@
         <v>Rickie Faltin</v>
       </c>
       <c r="G949" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C949,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C949,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C949,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rfaltinqb@topsy.com</v>
       </c>
       <c r="H949" s="2"/>
@@ -43725,7 +43725,7 @@
         <v>Gnni Cheeke</v>
       </c>
       <c r="G950" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C950,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C950,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C950,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>gcheekeqc@sitemeter.com</v>
       </c>
       <c r="H950" s="2"/>
@@ -43751,7 +43751,7 @@
         <v>Gwenni Ratt</v>
       </c>
       <c r="G951" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C951,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C951,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C951,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>grattqd@phpbb.com</v>
       </c>
       <c r="H951" s="2"/>
@@ -43776,9 +43776,9 @@
         <f>_xlfn.XLOOKUP(C952,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Johnath Fairebrother</v>
       </c>
-      <c r="G952" s="2">
-        <f>_xlfn.XLOOKUP(C952,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G952" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C952,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C952,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H952" s="2"/>
     </row>
@@ -43803,7 +43803,7 @@
         <v>Ingamar Eberlein</v>
       </c>
       <c r="G953" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C953,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C953,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C953,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ieberleinqf@hc360.com</v>
       </c>
       <c r="H953" s="2"/>
@@ -43829,7 +43829,7 @@
         <v>Jilly Dreng</v>
       </c>
       <c r="G954" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C954,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C954,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C954,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jdrengqg@uiuc.edu</v>
       </c>
       <c r="H954" s="2"/>
@@ -43854,9 +43854,9 @@
         <f>_xlfn.XLOOKUP(C955,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brenn Dundredge</v>
       </c>
-      <c r="G955" s="2">
-        <f>_xlfn.XLOOKUP(C955,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G955" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C955,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C955,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H955" s="2"/>
     </row>
@@ -43880,9 +43880,9 @@
         <f>_xlfn.XLOOKUP(C956,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brenn Dundredge</v>
       </c>
-      <c r="G956" s="2">
-        <f>_xlfn.XLOOKUP(C956,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G956" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C956,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C956,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H956" s="2"/>
     </row>
@@ -43906,9 +43906,9 @@
         <f>_xlfn.XLOOKUP(C957,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brenn Dundredge</v>
       </c>
-      <c r="G957" s="2">
-        <f>_xlfn.XLOOKUP(C957,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G957" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C957,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C957,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H957" s="2"/>
     </row>
@@ -43932,9 +43932,9 @@
         <f>_xlfn.XLOOKUP(C958,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brenn Dundredge</v>
       </c>
-      <c r="G958" s="2">
-        <f>_xlfn.XLOOKUP(C958,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G958" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C958,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C958,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H958" s="2"/>
     </row>
@@ -43958,9 +43958,9 @@
         <f>_xlfn.XLOOKUP(C959,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brenn Dundredge</v>
       </c>
-      <c r="G959" s="2">
-        <f>_xlfn.XLOOKUP(C959,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G959" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C959,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C959,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H959" s="2"/>
     </row>
@@ -43984,9 +43984,9 @@
         <f>_xlfn.XLOOKUP(C960,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Brenn Dundredge</v>
       </c>
-      <c r="G960" s="2">
-        <f>_xlfn.XLOOKUP(C960,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G960" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C960,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C960,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H960" s="2"/>
     </row>
@@ -44011,7 +44011,7 @@
         <v>Rhodie Strathern</v>
       </c>
       <c r="G961" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C961,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C961,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C961,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rstrathernqn@devhub.com</v>
       </c>
       <c r="H961" s="2"/>
@@ -44037,7 +44037,7 @@
         <v>Chad Miguel</v>
       </c>
       <c r="G962" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C962,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C962,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C962,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cmiguelqo@exblog.jp</v>
       </c>
       <c r="H962" s="2"/>
@@ -44062,9 +44062,9 @@
         <f>_xlfn.XLOOKUP(C963,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Florinda Matusovsky</v>
       </c>
-      <c r="G963" s="2">
-        <f>_xlfn.XLOOKUP(C963,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G963" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C963,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C963,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H963" s="2"/>
     </row>
@@ -44089,7 +44089,7 @@
         <v>Morly Rocks</v>
       </c>
       <c r="G964" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C964,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C964,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C964,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mrocksqq@exblog.jp</v>
       </c>
       <c r="H964" s="2"/>
@@ -44115,7 +44115,7 @@
         <v>Yuri Burrells</v>
       </c>
       <c r="G965" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C965,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C965,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C965,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>yburrellsqr@vinaora.com</v>
       </c>
       <c r="H965" s="2"/>
@@ -44141,7 +44141,7 @@
         <v>Cleopatra Goodrum</v>
       </c>
       <c r="G966" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C966,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C966,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C966,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cgoodrumqs@goodreads.com</v>
       </c>
       <c r="H966" s="2"/>
@@ -44167,7 +44167,7 @@
         <v>Joey Jefferys</v>
       </c>
       <c r="G967" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C967,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C967,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C967,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jjefferysqt@blog.com</v>
       </c>
       <c r="H967" s="2"/>
@@ -44193,7 +44193,7 @@
         <v>Bearnard Wardell</v>
       </c>
       <c r="G968" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C968,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C968,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C968,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>bwardellqu@adobe.com</v>
       </c>
       <c r="H968" s="2"/>
@@ -44219,7 +44219,7 @@
         <v>Zeke Walisiak</v>
       </c>
       <c r="G969" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C969,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C969,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C969,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>zwalisiakqv@ucsd.edu</v>
       </c>
       <c r="H969" s="2"/>
@@ -44245,7 +44245,7 @@
         <v>Wiley Leopold</v>
       </c>
       <c r="G970" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C970,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C970,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C970,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>wleopoldqw@blogspot.com</v>
       </c>
       <c r="H970" s="2"/>
@@ -44271,7 +44271,7 @@
         <v>Chiarra Shalders</v>
       </c>
       <c r="G971" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C971,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C971,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C971,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cshaldersqx@cisco.com</v>
       </c>
       <c r="H971" s="2"/>
@@ -44296,9 +44296,9 @@
         <f>_xlfn.XLOOKUP(C972,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Sharl Southerill</v>
       </c>
-      <c r="G972" s="2">
-        <f>_xlfn.XLOOKUP(C972,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G972" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C972,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C972,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H972" s="2"/>
     </row>
@@ -44323,7 +44323,7 @@
         <v>Noni Furber</v>
       </c>
       <c r="G973" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C973,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C973,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C973,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>nfurberqz@jugem.jp</v>
       </c>
       <c r="H973" s="2"/>
@@ -44348,9 +44348,9 @@
         <f>_xlfn.XLOOKUP(C974,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Dinah Crutcher</v>
       </c>
-      <c r="G974" s="2">
-        <f>_xlfn.XLOOKUP(C974,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G974" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C974,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C974,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H974" s="2"/>
     </row>
@@ -44375,7 +44375,7 @@
         <v>Charlean Keave</v>
       </c>
       <c r="G975" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C975,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C975,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C975,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ckeaver1@ucoz.com</v>
       </c>
       <c r="H975" s="2"/>
@@ -44401,7 +44401,7 @@
         <v>Sada Roseborough</v>
       </c>
       <c r="G976" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C976,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C976,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C976,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>sroseboroughr2@virginia.edu</v>
       </c>
       <c r="H976" s="2"/>
@@ -44427,7 +44427,7 @@
         <v>Clayton Kingwell</v>
       </c>
       <c r="G977" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C977,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C977,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C977,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ckingwellr3@squarespace.com</v>
       </c>
       <c r="H977" s="2"/>
@@ -44453,7 +44453,7 @@
         <v>Kacy Canto</v>
       </c>
       <c r="G978" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C978,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C978,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C978,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kcantor4@gmpg.org</v>
       </c>
       <c r="H978" s="2"/>
@@ -44479,7 +44479,7 @@
         <v>Mab Blakemore</v>
       </c>
       <c r="G979" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C979,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C979,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C979,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>mblakemorer5@nsw.gov.au</v>
       </c>
       <c r="H979" s="2"/>
@@ -44505,7 +44505,7 @@
         <v>Charlean Keave</v>
       </c>
       <c r="G980" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C980,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C980,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C980,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>ckeaver1@ucoz.com</v>
       </c>
       <c r="H980" s="2"/>
@@ -44530,9 +44530,9 @@
         <f>_xlfn.XLOOKUP(C981,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Javier Causnett</v>
       </c>
-      <c r="G981" s="2">
-        <f>_xlfn.XLOOKUP(C981,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G981" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C981,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C981,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H981" s="2"/>
     </row>
@@ -44556,9 +44556,9 @@
         <f>_xlfn.XLOOKUP(C982,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Demetris Micheli</v>
       </c>
-      <c r="G982" s="2">
-        <f>_xlfn.XLOOKUP(C982,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G982" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C982,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C982,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H982" s="2"/>
     </row>
@@ -44583,7 +44583,7 @@
         <v>Chloette Bernardot</v>
       </c>
       <c r="G983" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C983,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C983,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C983,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cbernardotr9@wix.com</v>
       </c>
       <c r="H983" s="2"/>
@@ -44609,7 +44609,7 @@
         <v>Kim Kemery</v>
       </c>
       <c r="G984" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C984,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C984,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C984,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kkemeryra@t.co</v>
       </c>
       <c r="H984" s="2"/>
@@ -44635,7 +44635,7 @@
         <v>Fanchette Parlot</v>
       </c>
       <c r="G985" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C985,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C985,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C985,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>fparlotrb@forbes.com</v>
       </c>
       <c r="H985" s="2"/>
@@ -44661,7 +44661,7 @@
         <v>Ramon Cheak</v>
       </c>
       <c r="G986" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C986,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C986,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C986,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>rcheakrc@tripadvisor.com</v>
       </c>
       <c r="H986" s="2"/>
@@ -44687,7 +44687,7 @@
         <v>Koressa O'Geneay</v>
       </c>
       <c r="G987" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C987,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C987,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C987,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>kogeneayrd@utexas.edu</v>
       </c>
       <c r="H987" s="2"/>
@@ -44713,7 +44713,7 @@
         <v>Claudell Ayre</v>
       </c>
       <c r="G988" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C988,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C988,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C988,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>cayrere@symantec.com</v>
       </c>
       <c r="H988" s="2"/>
@@ -44739,7 +44739,7 @@
         <v>Lorianne Kyneton</v>
       </c>
       <c r="G989" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C989,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C989,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C989,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>lkynetonrf@macromedia.com</v>
       </c>
       <c r="H989" s="2"/>
@@ -44764,9 +44764,9 @@
         <f>_xlfn.XLOOKUP(C990,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Adele McFayden</v>
       </c>
-      <c r="G990" s="2">
-        <f>_xlfn.XLOOKUP(C990,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G990" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C990,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C990,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H990" s="2"/>
     </row>
@@ -44790,9 +44790,9 @@
         <f>_xlfn.XLOOKUP(C991,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Herta Layne</v>
       </c>
-      <c r="G991" s="2">
-        <f>_xlfn.XLOOKUP(C991,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G991" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C991,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C991,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H991" s="2"/>
     </row>
@@ -44816,9 +44816,9 @@
         <f>_xlfn.XLOOKUP(C992,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Marguerite Graves</v>
       </c>
-      <c r="G992" s="2">
-        <f>_xlfn.XLOOKUP(C992,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G992" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C992,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C992,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H992" s="2"/>
     </row>
@@ -44842,9 +44842,9 @@
         <f>_xlfn.XLOOKUP(C993,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Marguerite Graves</v>
       </c>
-      <c r="G993" s="2">
-        <f>_xlfn.XLOOKUP(C993,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G993" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C993,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C993,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H993" s="2"/>
     </row>
@@ -44868,9 +44868,9 @@
         <f>_xlfn.XLOOKUP(C994,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Desdemona Eye</v>
       </c>
-      <c r="G994" s="2">
-        <f>_xlfn.XLOOKUP(C994,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G994" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C994,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C994,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H994" s="2"/>
     </row>
@@ -44894,9 +44894,9 @@
         <f>_xlfn.XLOOKUP(C995,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Margarette Sterland</v>
       </c>
-      <c r="G995" s="2">
-        <f>_xlfn.XLOOKUP(C995,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G995" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C995,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C995,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H995" s="2"/>
     </row>
@@ -44920,9 +44920,9 @@
         <f>_xlfn.XLOOKUP(C996,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Catharine Scoines</v>
       </c>
-      <c r="G996" s="2">
-        <f>_xlfn.XLOOKUP(C996,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G996" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C996,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C996,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H996" s="2"/>
     </row>
@@ -44947,7 +44947,7 @@
         <v>Jennica Tewelson</v>
       </c>
       <c r="G997" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C997,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C997,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C997,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>jtewelsonrn@samsung.com</v>
       </c>
       <c r="H997" s="2"/>
@@ -44972,9 +44972,9 @@
         <f>_xlfn.XLOOKUP(C998,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Marguerite Graves</v>
       </c>
-      <c r="G998" s="2">
-        <f>_xlfn.XLOOKUP(C998,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G998" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C998,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C998,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H998" s="2"/>
     </row>
@@ -44998,9 +44998,9 @@
         <f>_xlfn.XLOOKUP(C999,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Marguerite Graves</v>
       </c>
-      <c r="G999" s="2">
-        <f>_xlfn.XLOOKUP(C999,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G999" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C999,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C999,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H999" s="2"/>
     </row>
@@ -45025,7 +45025,7 @@
         <v>Nicolina Jenny</v>
       </c>
       <c r="G1000" s="2" t="str">
-        <f>_xlfn.XLOOKUP(C1000,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
+        <f>IF(_xlfn.XLOOKUP(C1000,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C1000,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
         <v>njennyrq@bigcartel.com</v>
       </c>
       <c r="H1000" s="2"/>
@@ -45050,9 +45050,9 @@
         <f>_xlfn.XLOOKUP(C1001,customers!$A$1:$A$1001, customers!$B$1:$B$1001, , 0)</f>
         <v>Vidovic Antonelli</v>
       </c>
-      <c r="G1001" s="2">
-        <f>_xlfn.XLOOKUP(C1001,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0)</f>
-        <v>0</v>
+      <c r="G1001" s="2" t="str">
+        <f>IF(_xlfn.XLOOKUP(C1001,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0) = 0, "", _xlfn.XLOOKUP(C1001,customers!$A$1:$A$1001, customers!$C$1:$C$1001, , 0))</f>
+        <v/>
       </c>
       <c r="H1001" s="2"/>
     </row>

--- a/Coffee_Sales/data/coffeeOrdersData.xlsx
+++ b/Coffee_Sales/data/coffeeOrdersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Coffee_Sales\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89724A24-3DE0-40E6-A2E4-5B580FEA4D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87927896-D78B-4C36-91FB-11E6F2E93EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18995,7 +18995,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19087,6 +19087,18 @@
       <c r="I2" t="str">
         <f>INDEX(products!$A:$G, MATCH(orders!$D2, products!$A:$A, 0), MATCH(orders!I$1, products!$A$1:$G$1, 0))</f>
         <v>Rob</v>
+      </c>
+      <c r="J2" t="str">
+        <f>INDEX(products!$A:$G, MATCH(orders!$D2, products!$A:$A, 0), MATCH(orders!J$1, products!$A$1:$G$1, 0))</f>
+        <v>M</v>
+      </c>
+      <c r="K2">
+        <f>INDEX(products!$A:$G, MATCH(orders!$D2, products!$A:$A, 0), MATCH(orders!K$1, products!$A$1:$G$1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>INDEX(products!$A:$G, MATCH(orders!$D2, products!$A:$A, 0), MATCH(orders!L$1, products!$A$1:$G$1, 0))</f>
+        <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
